--- a/data/02_intermediate/cleaned_TIAKOLA_songs.xlsx
+++ b/data/02_intermediate/cleaned_TIAKOLA_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>I was outside Had a pretty girl and a fast car, I was twenty-one I ain't just anyone Better talk to me nicely And you know the weapon on me or it's on my best friend When I'm in the West End I had a wish God knows I wouldn't believe when I was a kid When I was a kid Ki lo fe? If you wanna leave, there's plenty of fish And I know the bullet that kills you comes with a kiss It's just how it is Like, oh, oh, oh Assez de temps perdu, baby Assez de temps perdu, baby Faut faire la monnaie, baby J'ai cherché la monnaie très vite Assez de temps perdu ici Assez de temps Assez de temps perdu, baby Vu qu'la maison ne fait pas crédit J'ai dû chercher la monnaie très vite Assez d'attente, file nous l'enveloppe J'ai des affaires qui m'attendent à sept-huit heures de vol, eh J'te conseille de faire gaffe si tu t'emportes J'porte mon meilleur ami sous mon jean si j'vois tu m'bloques You might also like Jesu Aleselewi Vuitton, Balenciaga Mek I travel overseas Jamaïque, Copacabana Had a dream, I had a dream Martin Luther ou Obama That my family was free Leur offrir Dolce Gabbana Sabi? Ola plenty Enjoy toute la mañana Mercredi to vendredi Vuitton, Balenciaga Jesu Aleselewi Martin Luther ou Obama Had a dream, I had a dream London, Paris, Ottawa Like, oh-oh-oh Oh-oh, oh-oh, oh-oh Oh-oh-oh Oh-oh, oh-oh, oh-oh Like, oh-oh-oh Big H on the belt, meridian Whip obsidian, chick Parisian Ringside, box full of white like Dillian Me and my killy en forme like Kylian Birkin crocodile like Skillibeng, sick of them Turned to a rich man, Twickenham Any type of Phew on sale, consider them King Charles, tek 'way the Prince, get rid of them No limit J'viens pour casser la porte et les terminer J'viens pour casser les codes renoi sans limite Ne vous inquiétez pas, c'était pas voulu Si on m'retrouve autour de Nathalie Uh, Nekeisha ou Stéphanie Sors ton bikini de la valise Eh, un cocktail pour s'emballer Ça y est, oh Assez d'attente, file-nous l'enveloppe J'ai des affaires qui m'attendent à sept-huit heures de vol Vol, vol, eh J'te conseille de faire gaffe si tu t'emportes J'porte mon meilleur ami sous mon jean, si j'vois tu m'bloques Pa-pa-pa-pah Eh, every girl want a boy like me Like me Elles connaissent pas, c'est mon train d'vie Comme Skillibeng, j'ai les crocodile teeth J'ai sécurisé Neverland pour toute une nuit On pourra enjoy, enjoy toute la nuit Notre présence vaut déjà un Grammy Ou une médaille d'or aux Jeux Olympiques On va répéter encore Jesu Aleselewi Vuitton, Balenciaga Mek I travel overseas Jamaïque, Copacabana Had a dream, I had a dream Martin Luther ou Obama That my family was free Leur offrir Dolce Gabbana Sabi? Ola plenty Enjoy toute la mañana Mercredi to vendredi Vuitton, Balenciaga Jesu Aleselewi Martin Luther ou Obama Had a dream, I had a dream London, Paris, Ottawa Like, oh-oh-oh Oh-oh, oh-oh, oh-oh Oh-oh-oh Oh-oh, oh-oh, oh-oh Like, oh-oh-oh Assez, assez, y en a assez, assez Assez, assez, y en a assez, assez Assez, assez, yeah, assez, assez Assez, assez, y en a assez, assez</t>
+          <t>I was outside Had a pretty girl and a fast car, I was twenty-one I ain't just anyone Better talk to me nicely And you know the weapon on me or it's on my best friend When I'm in the West End I had a wish God knows I wouldn't believe when I was a kid When I was a kid Ki lo fe? If you wanna leave, there's plenty of fish And I know the bullet that kills you comes with a kiss It's just how it is Like, oh, oh, oh Assez de temps perdu, baby Assez de temps perdu, baby Faut faire la monnaie, baby J'ai cherché la monnaie très vite Assez de temps perdu ici Assez de temps Assez de temps perdu, baby Vu qu'la maison ne fait pas crédit J'ai dû chercher la monnaie très vite Assez d'attente, file nous l'enveloppe J'ai des affaires qui m'attendent à sept-huit heures de vol, eh J'te conseille de faire gaffe si tu t'emportes J'porte mon meilleur ami sous mon jean si j'vois tu m'bloques Jesu Aleselewi Vuitton, Balenciaga Mek I travel overseas Jamaïque, Copacabana Had a dream, I had a dream Martin Luther ou Obama That my family was free Leur offrir Dolce Gabbana Sabi? Ola plenty Enjoy toute la mañana Mercredi to vendredi Vuitton, Balenciaga Jesu Aleselewi Martin Luther ou Obama Had a dream, I had a dream London, Paris, Ottawa Like, oh-oh-oh Oh-oh, oh-oh, oh-oh Oh-oh-oh Oh-oh, oh-oh, oh-oh Like, oh-oh-oh Big H on the belt, meridian Whip obsidian, chick Parisian Ringside, box full of white like Dillian Me and my killy en forme like Kylian Birkin crocodile like Skillibeng, sick of them Turned to a rich man, Twickenham Any type of Phew on sale, consider them King Charles, tek 'way the Prince, get rid of them No limit J'viens pour casser la porte et les terminer J'viens pour casser les codes renoi sans limite Ne vous inquiétez pas, c'était pas voulu Si on m'retrouve autour de Nathalie Uh, Nekeisha ou Stéphanie Sors ton bikini de la valise Eh, un cocktail pour s'emballer Ça y est, oh Assez d'attente, file-nous l'enveloppe J'ai des affaires qui m'attendent à sept-huit heures de vol Vol, vol, eh J'te conseille de faire gaffe si tu t'emportes J'porte mon meilleur ami sous mon jean, si j'vois tu m'bloques Pa-pa-pa-pah Eh, every girl want a boy like me Like me Elles connaissent pas, c'est mon train d'vie Comme Skillibeng, j'ai les crocodile teeth J'ai sécurisé Neverland pour toute une nuit On pourra enjoy, enjoy toute la nuit Notre présence vaut déjà un Grammy Ou une médaille d'or aux Jeux Olympiques On va répéter encore Jesu Aleselewi Vuitton, Balenciaga Mek I travel overseas Jamaïque, Copacabana Had a dream, I had a dream Martin Luther ou Obama That my family was free Leur offrir Dolce Gabbana Sabi? Ola plenty Enjoy toute la mañana Mercredi to vendredi Vuitton, Balenciaga Jesu Aleselewi Martin Luther ou Obama Had a dream, I had a dream London, Paris, Ottawa Like, oh-oh-oh Oh-oh, oh-oh, oh-oh Oh-oh-oh Oh-oh, oh-oh, oh-oh Like, oh-oh-oh Assez, assez, y en a assez, assez Assez, assez, y en a assez, assez Assez, assez, yeah, assez, assez Assez, assez, y en a assez, assez</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>J'suis un Top Boy, transfert à prix élevé comme Moisés Caicedo à London J'suis dans la Ferrari F48 ou la RR Phantom Tu veux d'la frappe ? On t'en donne, noir comme à Compton Elle veut qu'j'la tamponne sur Buju Banton, jamais j'abandonne Mes négros déplacent la bonbonne Bonbonne pendant qu'je taffe mes textes, eh Paname, c'est pas les States, j'veux que du cash en espèces, hey Que du cash en espèces Ouais, ouais, si si Ouais, ouais, j'répète pour être bien explicite, j'ai les miens, donc ça m'suffit Tout se passera dans l'visu' si y a une Jorja qui m'rend visite Han J'les mets sur off, cash, monnaie, pas de Love you Rafale sur ton body, la police recherche somebody Nan Fuck tous les opps aussi Fuck tous les opps, on est nombreux, tu parles à qui ? Une fois l'million acquis, j'mets des diamants sur ma racli Que du ice, ice J'parle pas d'ma vie, oh Vie, oh, aux autres, à part à Dios Dios C'est marqué dans ma bio Bio, j'fais des streamings dans leur Clio Han Elle est sexy, sexy, j'la mets dans la cage, j'suis précis Yeah J'ai l'blues comme un joueur de Chelsea, même quand ma liasse de pesos s'épaissit Le soir, j'suis tout en Prada, elles veulent toutes tenir ma main Spécial, pardonnez-moi, mais quand j'arrive, les lumières brillent Des mauvais souvenirs de moi mais j'pouvais pas faire autrement Spécial, hey, hey, j'suis là pour les bang, bang, tu sais I know depuis long time I know depuis long time Qui a peur de nous ? On vit même pas à notre prime Prime C'est ton dernier moment, vive le money time Vive le money time, hey Spécial, hey, hey, j'suis différent, je sais, je sais I know depuis long time I know Qui a peur de nous ? On vit même pas à notre prime Prime C'est ton dernier moment, vive le money time Vive le money time, hey Spécial, hey, hey, j'suis différent, je sais You might also like Free my niggas, I miss my niggas, I need 'em free I'm in CDG, I might put this shit on a DVD, yeah I had a cougar, she was thirty-two on her TBT Could've had a golden shower, I'm fucking a girl from France, she tellin' me, Oui I got the alligator with the pointy shoes, feel like I come from Congo Took a trip, Toronto, back then, I had a girl from Ajax Saw Rick Ross in his jet on a runway, but it was me that landed to a Maybach Ask Joney, New York don't know that I rap I stepped to a jawn, she callin' me Modie, I ain't no hero She want Novikov, ideally, but she good with Nobu, Robert De Niro I've got a million-pound paintin' on a wall somewhere in Victoria Miro The mandem missin' a and my net worth missin' a zero I see man gettin' extorted, sayin' he blessed the hood I put the Viv' on Vivienne, now she comin' to west for wood Slimy, gain his trust, build that bridge, and then burn it later Back then, I would've robbed my man and then helped him look for the perpe I would've helped him look for the perpetrator, it's a mystery Spooky like somebody's pressin' the P on your web browser, and you ain't cleared history Beg man miss me, look at him tweetin', I can tell that you don't pay rent Thirty-one days I grind, and that's in the month of Feb' I ain't got ink, my passport's tatted You talkin' tough, you ain't got bread? Opinions far from valid I just land in France, they know my name, feel like Cench in Paris My card declined, but let's be real, she knows I'm rich, so I ain't embarrassed Still on sight if I see him in Heathrow Base, swing them hands like Kaaris She went from the Lambo' Urus to Yaris, got picked up, but she gettin' a Uber HGV, driving a lorry today, this chick got more than a FUPA Me and bae like Alice and Luther, we're like sat and suma I'm in the sixteenth arrondisement with a bad B, and we listen to Booba I'm with the Senegalese, Ivorian, now I'm with the Congolese, Nigerian Marseille and it's all Algerians, like her credit, this ain't Experian Different city but same experience, let's be serious And for the record, the outfit cost six K like I shot it on a Blackmagic I don't do black magic, and I don't do Obeah Ahh Love the French, but fuck the government, there's too much Islamophobia Ahh Free the people, I ain't someone you should see as equal I might just ignore her and let her feel it in the air like Beanie Sigel I know depuis long You know? I know depuis long I know depuis long time Spécial, hey, hey, j'suis différent, je sais, je sais I know depuis long time I know depuis long time Qui a peur de nous ? On vit même pas à notre prime Prime C'est ton dernier moment, vive le money time Vive le money time Eh, spécial, hey, hey, j'suis différent, je sais, je sais</t>
+          <t>J'suis un Top Boy, transfert à prix élevé comme Moisés Caicedo à London J'suis dans la Ferrari F48 ou la RR Phantom Tu veux d'la frappe ? On t'en donne, noir comme à Compton Elle veut qu'j'la tamponne sur Buju Banton, jamais j'abandonne Mes négros déplacent la bonbonne Bonbonne pendant qu'je taffe mes textes, eh Paname, c'est pas les States, j'veux que du cash en espèces, hey Que du cash en espèces Ouais, ouais, si si Ouais, ouais, j'répète pour être bien explicite, j'ai les miens, donc ça m'suffit Tout se passera dans l'visu' si y a une Jorja qui m'rend visite Han J'les mets sur off, cash, monnaie, pas de Love you Rafale sur ton body, la police recherche somebody Nan Fuck tous les opps aussi Fuck tous les opps, on est nombreux, tu parles à qui ? Une fois l'million acquis, j'mets des diamants sur ma racli Que du ice, ice J'parle pas d'ma vie, oh Vie, oh, aux autres, à part à Dios Dios C'est marqué dans ma bio Bio, j'fais des streamings dans leur Clio Han Elle est sexy, sexy, j'la mets dans la cage, j'suis précis Yeah J'ai l'blues comme un joueur de Chelsea, même quand ma liasse de pesos s'épaissit Le soir, j'suis tout en Prada, elles veulent toutes tenir ma main Spécial, pardonnez-moi, mais quand j'arrive, les lumières brillent Des mauvais souvenirs de moi mais j'pouvais pas faire autrement Spécial, hey, hey, j'suis là pour les bang, bang, tu sais I know depuis long time I know depuis long time Qui a peur de nous ? On vit même pas à notre prime Prime C'est ton dernier moment, vive le money time Vive le money time, hey Spécial, hey, hey, j'suis différent, je sais, je sais I know depuis long time I know Qui a peur de nous ? On vit même pas à notre prime Prime C'est ton dernier moment, vive le money time Vive le money time, hey Spécial, hey, hey, j'suis différent, je sais Free my niggas, I miss my niggas, I need 'em free I'm in CDG, I might put this shit on a DVD, yeah I had a cougar, she was thirty-two on her TBT Could've had a golden shower, I'm fucking a girl from France, she tellin' me, Oui I got the alligator with the pointy shoes, feel like I come from Congo Took a trip, Toronto, back then, I had a girl from Ajax Saw Rick Ross in his jet on a runway, but it was me that landed to a Maybach Ask Joney, New York don't know that I rap I stepped to a jawn, she callin' me Modie, I ain't no hero She want Novikov, ideally, but she good with Nobu, Robert De Niro I've got a million-pound paintin' on a wall somewhere in Victoria Miro The mandem missin' a and my net worth missin' a zero I see man gettin' extorted, sayin' he blessed the hood I put the Viv' on Vivienne, now she comin' to west for wood Slimy, gain his trust, build that bridge, and then burn it later Back then, I would've robbed my man and then helped him look for the perpe I would've helped him look for the perpetrator, it's a mystery Spooky like somebody's pressin' the P on your web browser, and you ain't cleared history Beg man miss me, look at him tweetin', I can tell that you don't pay rent Thirty-one days I grind, and that's in the month of Feb' I ain't got ink, my passport's tatted You talkin' tough, you ain't got bread? Opinions far from valid I just land in France, they know my name, feel like Cench in Paris My card declined, but let's be real, she knows I'm rich, so I ain't embarrassed Still on sight if I see him in Heathrow Base, swing them hands like Kaaris She went from the Lambo' Urus to Yaris, got picked up, but she gettin' a Uber HGV, driving a lorry today, this chick got more than a FUPA Me and bae like Alice and Luther, we're like sat and suma I'm in the sixteenth arrondisement with a bad B, and we listen to Booba I'm with the Senegalese, Ivorian, now I'm with the Congolese, Nigerian Marseille and it's all Algerians, like her credit, this ain't Experian Different city but same experience, let's be serious And for the record, the outfit cost six K like I shot it on a Blackmagic I don't do black magic, and I don't do Obeah Ahh Love the French, but fuck the government, there's too much Islamophobia Ahh Free the people, I ain't someone you should see as equal I might just ignore her and let her feel it in the air like Beanie Sigel I know depuis long You know? I know depuis long I know depuis long time Spécial, hey, hey, j'suis différent, je sais, je sais I know depuis long time I know depuis long time Qui a peur de nous ? On vit même pas à notre prime Prime C'est ton dernier moment, vive le money time Vive le money time Eh, spécial, hey, hey, j'suis différent, je sais, je sais</t>
         </is>
       </c>
     </row>

--- a/data/02_intermediate/cleaned_TIAKOLA_songs.xlsx
+++ b/data/02_intermediate/cleaned_TIAKOLA_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,34 +453,952 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TIAKOLA</t>
+          <t>Tiakola</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Meridian</t>
+          <t>1H55</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>I was outside Had a pretty girl and a fast car, I was twenty-one I ain't just anyone Better talk to me nicely And you know the weapon on me or it's on my best friend When I'm in the West End I had a wish God knows I wouldn't believe when I was a kid When I was a kid Ki lo fe? If you wanna leave, there's plenty of fish And I know the bullet that kills you comes with a kiss It's just how it is Like, oh, oh, oh Assez de temps perdu, baby Assez de temps perdu, baby Faut faire la monnaie, baby J'ai cherché la monnaie très vite Assez de temps perdu ici Assez de temps Assez de temps perdu, baby Vu qu'la maison ne fait pas crédit J'ai dû chercher la monnaie très vite Assez d'attente, file nous l'enveloppe J'ai des affaires qui m'attendent à sept-huit heures de vol, eh J'te conseille de faire gaffe si tu t'emportes J'porte mon meilleur ami sous mon jean si j'vois tu m'bloques Jesu Aleselewi Vuitton, Balenciaga Mek I travel overseas Jamaïque, Copacabana Had a dream, I had a dream Martin Luther ou Obama That my family was free Leur offrir Dolce Gabbana Sabi? Ola plenty Enjoy toute la mañana Mercredi to vendredi Vuitton, Balenciaga Jesu Aleselewi Martin Luther ou Obama Had a dream, I had a dream London, Paris, Ottawa Like, oh-oh-oh Oh-oh, oh-oh, oh-oh Oh-oh-oh Oh-oh, oh-oh, oh-oh Like, oh-oh-oh Big H on the belt, meridian Whip obsidian, chick Parisian Ringside, box full of white like Dillian Me and my killy en forme like Kylian Birkin crocodile like Skillibeng, sick of them Turned to a rich man, Twickenham Any type of Phew on sale, consider them King Charles, tek 'way the Prince, get rid of them No limit J'viens pour casser la porte et les terminer J'viens pour casser les codes renoi sans limite Ne vous inquiétez pas, c'était pas voulu Si on m'retrouve autour de Nathalie Uh, Nekeisha ou Stéphanie Sors ton bikini de la valise Eh, un cocktail pour s'emballer Ça y est, oh Assez d'attente, file-nous l'enveloppe J'ai des affaires qui m'attendent à sept-huit heures de vol Vol, vol, eh J'te conseille de faire gaffe si tu t'emportes J'porte mon meilleur ami sous mon jean, si j'vois tu m'bloques Pa-pa-pa-pah Eh, every girl want a boy like me Like me Elles connaissent pas, c'est mon train d'vie Comme Skillibeng, j'ai les crocodile teeth J'ai sécurisé Neverland pour toute une nuit On pourra enjoy, enjoy toute la nuit Notre présence vaut déjà un Grammy Ou une médaille d'or aux Jeux Olympiques On va répéter encore Jesu Aleselewi Vuitton, Balenciaga Mek I travel overseas Jamaïque, Copacabana Had a dream, I had a dream Martin Luther ou Obama That my family was free Leur offrir Dolce Gabbana Sabi? Ola plenty Enjoy toute la mañana Mercredi to vendredi Vuitton, Balenciaga Jesu Aleselewi Martin Luther ou Obama Had a dream, I had a dream London, Paris, Ottawa Like, oh-oh-oh Oh-oh, oh-oh, oh-oh Oh-oh-oh Oh-oh, oh-oh, oh-oh Like, oh-oh-oh Assez, assez, y en a assez, assez Assez, assez, y en a assez, assez Assez, assez, yeah, assez, assez Assez, assez, y en a assez, assez</t>
+          <t>Une heure cinquante-cinq, j'repense à toi Une heure cinquante-cinq, j'repense à toi Mmh, mmh, mmh, mmh, mmh, mmh Une heure cinquante-cinq Mmh, mmh, mmh, mmh, mmh C'est devenu monotone, la nuit vient tôt l'automne L'automne Du mal à m'l'avouer que nous deux c'est terminé Eh, eh Une dernière nuit dans la chambre où tu t'faufiles sous mes draps Baby, mon lit se rappelle de toi Ouh, ouh Qu'est-ce qui s'passe ? J'veux savoir qui m'remplace Qui t'envoie des messages ? Déclare-moi tout baby Ouh, ouh Qu'est-ce qui s'cache sous ton sourire ? Car j'vois qu't'as l'air heureuse Maintenant t'essaies de m'provoquer Ouh, ouh Est-ce que tu ressens la même chose pour lui ? Pour lui Est-ce qu'il t'a bossé comme moi toute la nuit ? Toute la nuit Est-ce que j'peux t'appeler quand j'ai des ennuis ? J'vois qu'tu flex encore avec ton Birkin Mmh, mmh, mmh, mmh J'ignore pourquoi j'ai du mal à dire Sorry Sorry Pour toi, j'étais prêt à remettre le masque de ski Je sais que tu fais que regarder mes stories Mes stories Au fond de toi, tu sais bien que je n'suis pas comme lui Au fond de toi, tu sais bien, qu'à jamais tu seras ma baby On s'est connu au collège, depuis lors j't'ai jamais genre jamais oublié ma baby J'me souviens d'nos premiers diners, j'me souviens d'nos premiers bisous au ciné' Si quelqu'un t'voulais du mal, pour toi, je me serais jamais défilé Je sais qu'tu penses à moi quand tu vas sur mon Spotify Je sais que tu rêves de tomber sur un rebeu aussi fly que moi Qui fait d'la moula' autant que moi, qui t'emmène chez Gucci autant que moi Aujourd'hui c'est lui qui profite de toi et tu sais que ça me met hors de moi Hors de moi Ouh, ouh, ouh, ouh, ouh, ouh, ouh, ouh, ouh Est-ce que tu ressens la même chose pour lui ? Est-ce que tu fais sa nasty pour lui ? Depuis qu't'es partie, sans toi j'm'ennuie Est-ce que tu ressens la même chose pour lui ? Pour lui Est-ce qu'il t'a bossé comme moi toute la nuit ? La nuit Est-ce que j'peux t'appeler quand j'ai des ennuis ? Ennuis J'vois qu'tu flex encore avec ton Birkin J'ignore pourquoi j'ai du mal à dire Sorry Pour toi, j'étais prêt à remettre le masque de ski Je sais que tu fais que regarder mes stories Au fond de toi, tu sais bien que je n'suis pas comme lui Est-ce qu'il sort le RS ? Quand tu parles, est-ce qu'il s'intéresse ? Yeah, eh, eh, eh Quand il t'raconte ABCD shit, tu penses à RS ? Yeah, eh, eh, eh Est-ce que tu l'regardes comme moi quand tu l'lehess ? Quand tu l'lehess Est-ce qu'il te regarde comme moi quand tu nehess ? Quand tu nehess, yeah, ih, ih C'est une déesse Eh, eh, eh, yeah, ih, ih, j'l'a connais depuis l'époque de la DS Eh, eh, eh, yeah, ih, ih Que Dieu me pardonne, j'ai baisé sa BF Mmh, mmh, mmh J'lui ai caché mon compte en banque J'ai vu des gows passer comme jamais J'peux pas retourner dans le passé, non jamais Pendant qu'tu faisais la tasse-pé, j't'attendais Maintenant, tu veux revenir parce que je fais un tas d'monnaie Est-ce que tu ressens la même chose pour lui ? Pour lui Est-ce qu'il t'a bossé comme moi toute la nuit ? La nuit Est-ce que j'peux t'appeler quand j'ai des ennuis ? Ennuis J'vois qu'tu flex encore avec ton Birkin J'ignore pourquoi j'ai du mal à dire Sorry Pour toi, j'étais prêt à remettre le masque de ski Je sais que tu fais que regarder mes stories Au fond de toi, tu sais bien que je n'suis pas comme lui Une heure cinquante-cinq, j'repense à toi Une heure cinquante-cinq, j'repense à toi Une heure cinquante-cinq, j'repense à toi Une heure cinquante-cinq, j'repense à toi Une heure cinquante-cinq, j'repense à toi Une heure cinquante-cinq, j'repense à toi Une heure cinquante-cinq, j'repense à toi Une heure cinquante-cinq Une heure cinquante-cinq, j'repense à toi Une heure cinquante-cinq Une heure cinquante-cinq, j'repense à toi</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TIAKOLA</t>
+          <t>Tiakola</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Special</t>
+          <t>1ntro’p</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>J'suis un Top Boy, transfert à prix élevé comme Moisés Caicedo à London J'suis dans la Ferrari F48 ou la RR Phantom Tu veux d'la frappe ? On t'en donne, noir comme à Compton Elle veut qu'j'la tamponne sur Buju Banton, jamais j'abandonne Mes négros déplacent la bonbonne Bonbonne pendant qu'je taffe mes textes, eh Paname, c'est pas les States, j'veux que du cash en espèces, hey Que du cash en espèces Ouais, ouais, si si Ouais, ouais, j'répète pour être bien explicite, j'ai les miens, donc ça m'suffit Tout se passera dans l'visu' si y a une Jorja qui m'rend visite Han J'les mets sur off, cash, monnaie, pas de Love you Rafale sur ton body, la police recherche somebody Nan Fuck tous les opps aussi Fuck tous les opps, on est nombreux, tu parles à qui ? Une fois l'million acquis, j'mets des diamants sur ma racli Que du ice, ice J'parle pas d'ma vie, oh Vie, oh, aux autres, à part à Dios Dios C'est marqué dans ma bio Bio, j'fais des streamings dans leur Clio Han Elle est sexy, sexy, j'la mets dans la cage, j'suis précis Yeah J'ai l'blues comme un joueur de Chelsea, même quand ma liasse de pesos s'épaissit Le soir, j'suis tout en Prada, elles veulent toutes tenir ma main Spécial, pardonnez-moi, mais quand j'arrive, les lumières brillent Des mauvais souvenirs de moi mais j'pouvais pas faire autrement Spécial, hey, hey, j'suis là pour les bang, bang, tu sais I know depuis long time I know depuis long time Qui a peur de nous ? On vit même pas à notre prime Prime C'est ton dernier moment, vive le money time Vive le money time, hey Spécial, hey, hey, j'suis différent, je sais, je sais I know depuis long time I know Qui a peur de nous ? On vit même pas à notre prime Prime C'est ton dernier moment, vive le money time Vive le money time, hey Spécial, hey, hey, j'suis différent, je sais Free my niggas, I miss my niggas, I need 'em free I'm in CDG, I might put this shit on a DVD, yeah I had a cougar, she was thirty-two on her TBT Could've had a golden shower, I'm fucking a girl from France, she tellin' me, Oui I got the alligator with the pointy shoes, feel like I come from Congo Took a trip, Toronto, back then, I had a girl from Ajax Saw Rick Ross in his jet on a runway, but it was me that landed to a Maybach Ask Joney, New York don't know that I rap I stepped to a jawn, she callin' me Modie, I ain't no hero She want Novikov, ideally, but she good with Nobu, Robert De Niro I've got a million-pound paintin' on a wall somewhere in Victoria Miro The mandem missin' a and my net worth missin' a zero I see man gettin' extorted, sayin' he blessed the hood I put the Viv' on Vivienne, now she comin' to west for wood Slimy, gain his trust, build that bridge, and then burn it later Back then, I would've robbed my man and then helped him look for the perpe I would've helped him look for the perpetrator, it's a mystery Spooky like somebody's pressin' the P on your web browser, and you ain't cleared history Beg man miss me, look at him tweetin', I can tell that you don't pay rent Thirty-one days I grind, and that's in the month of Feb' I ain't got ink, my passport's tatted You talkin' tough, you ain't got bread? Opinions far from valid I just land in France, they know my name, feel like Cench in Paris My card declined, but let's be real, she knows I'm rich, so I ain't embarrassed Still on sight if I see him in Heathrow Base, swing them hands like Kaaris She went from the Lambo' Urus to Yaris, got picked up, but she gettin' a Uber HGV, driving a lorry today, this chick got more than a FUPA Me and bae like Alice and Luther, we're like sat and suma I'm in the sixteenth arrondisement with a bad B, and we listen to Booba I'm with the Senegalese, Ivorian, now I'm with the Congolese, Nigerian Marseille and it's all Algerians, like her credit, this ain't Experian Different city but same experience, let's be serious And for the record, the outfit cost six K like I shot it on a Blackmagic I don't do black magic, and I don't do Obeah Ahh Love the French, but fuck the government, there's too much Islamophobia Ahh Free the people, I ain't someone you should see as equal I might just ignore her and let her feel it in the air like Beanie Sigel I know depuis long You know? I know depuis long I know depuis long time Spécial, hey, hey, j'suis différent, je sais, je sais I know depuis long time I know depuis long time Qui a peur de nous ? On vit même pas à notre prime Prime C'est ton dernier moment, vive le money time Vive le money time Eh, spécial, hey, hey, j'suis différent, je sais, je sais</t>
+          <t>Vas-y, c'est bon Twinsmatic, envoie l'son, mon reuf Ouais, hey Yah, yah, yah Hey, hey Aucun d'entre eux va me virer d'ici, aucun d'entre eux va me virer d'ici Car sur mon dos, ils ont cassé du sucre, si t'as le cur sur la main, fais le signe Ramenez vos rappeurs ou pas, je les siffle, avoir la mentale, les couilles et le souffle Approche ta gueule si tu penses qu'on est peace, j mets d'l'ambiance ou du sang dans la pièce On donn du respect sans penser aux chiffres, encore une fois, j'ai pas dormi la nuit Encore un jour où j'refais mes valises, traîner en bas ou devenir une légende ? Un conseil si tu veux rester longtemps faut pas roupiller car tout ça, ça va vite C'est pas contre toi, c'est pas qu'j'ai pas le temps Quand j'pense à 2Pac, j'peux pas baisser la vitre, oh All Eyez On Me, eh Un million d'euros, deux millions d'euros, trois millions, c'est le minimum Une bécane qui vient d'passer, c'est le bruit des balles maintenant qui résonne Oui, au fond, j'ai mal mais c'est pour t'montrer que c'est nous les hommes Pour avoir l'oseille, pour avoir les pesos, faut y aller maintenant Maintenant Maintenant Maintenant, pas l'temps Pas l'temps, maintenant Contrôle de keufs, maintenant, décale, on a pas l'temps, aye, aye, aye, aye Aye, aye, aye, aye, okay J'te raconte ma vie J'te raconte ma vie ou j'raconte la tienne ? Hum, hum, hum Si tu pars d'ici, c'est le bon trajet Okay J'te raconte ma vie J'te raconte ma vie ou j'raconte la tienne ? Hum, hum, hum, hum Faut qu'on anticipe Faut qu'on anticipe ceux qui veulent nous faire Ah-ah-ah, grr, pah-pah-pah Un coup de fil Han, deux coups de fil Pour faire des collab' C'est pas toi qui décide Han, c'est pas toi qui décide Tu n'es pas là pour palabre On rempli des sacs Han, on refait la mala Pour énerver tes collègues C'est tout facile Han, on fait même plus d'efforts Ah-ah J'suis dans la, t'es dans la friendzone La friendzone, des nouvelles liasses Et parmi tant d'autres si tu m'agaces Oh-oh J'irais voir autre chose ma chérie, pah-pah-pah, c'est qu'on s'emboîte Oh-oh Ils veulent nous mettre sur le bas-côté, un frère au shtar, on est pas contents Ah-ah Je pars si je perds mon temps Ah-ah, tu pleures si tu perds ton tél' Eh-eh-eh-eh J'avais confiance en toi mais au fond, je savais J'avais confiance en toi mais au fond, je savais J'avais confiance en toi mais au fond, je savais J'avais confiance en toi mais au fond, je savais Tout c'qu'on se disait, c'était juste des paroles Tout c'qu'on se disait, c'était juste des paroles, oh non Eh-eh-eh-eh-eh Tout c'qu'on se disait, c'était juste des paroles Tout c'qu'on se disait, c'était juste des paroles J'te raconte ma vie ou j'raconte la tienne ? Si tu pars d'ici, c'est le bon trajet, okay J'te raconte ma vie ou j'raconte la tienne ? Faut qu'on anticipe ceux qui veulent nous faire, okay Ma vida, la mentale, la vente Tu m'suis ou pas ? Ma vida, la mentale, l'avantage Oh-oh-oh-oh Gang Oh-oh-oh-oh Gang Oh-oh-oh-oh Gang Oh-oh-oh-oh Gang Oh-oh-oh Gang Oh-oh-oh-oh Gang Oh-oh-oh-oh Gang Tellement d'années qu'on a attendu, maintenant, c'est le moment Pour mettre les pendules, à l'heure sur mon poignet Qu'on a attendu Comme mes frères condamnés, les nerfs sont tendus4</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2009'</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>J'fais pas semblant quand je n'aime pas, j'fais pas semblant quand je n'aime pas J'fais pas semblant quand je n'aime pas, j'fais pas semblant quand je n'aime pas Ils suivent pas le tempo, non, ils suivent pas le tempo Ils suivent pas le tempo, non, ils suivent pas le tempo Que du DG, c'est la qualité, victoire, ma mentalité La concurrence s'appelle R.I.P, tout est carré comme le V.I.P J'ai menti, j'ai dit la vérité, j'l'ai quitté mais c'était mérité T'étais mon frère, là j'sais plus qui t'es, everyday les problèmes évités J'ai mis du X, ils suivent pas le tempo Ils suivent pas le tempo, non, ils suivent pas le tempo J'fais pas semblant quand je n'aime pas, j'fais pas semblant quand je n'aime pas J'fais pas semblant quand je n'aime pas, j'fais pas semblant quand je n'aime pas Font des enquêtes, veulent savoir comment je procède Mauvaise nouvelle, j'viens juste de commencer Nombreux sont faux, la plupart j'peux plus m'les compter Mauvaise nouvelle, j'reviens plus énervé Arh, 'asses, 'asses, 'asses, 'asses, 'asses J'aime quand j'recompte les liasses, liasses, liasses, liasses J'aime quand elle bouge comme a-ç, a-ç, a-ç, a-ç J'compte les liasses, liasses, liasses, liasses J'aime quand elle bouge comme a-ç, a-ç, a-ç, a-ç J'compte les liasses, liasses, liasses, liasses J'aime quand elle bouge comme a-ç, a-ç, a-ç, a-ç J'compte les liasses, liasses, liasses, liasses J'veux pas être redevable Garde ton service, j'veux pas être redevable Garde ton service, j'veux pas être redevable Garde ton service, j'veux pas être redevable Everyday les problèmes, évités, everyday les problèmes, évités C'est pas de la 'sique, c'est d'la science Comme Django j'ai brisé les chaînes J'ai brisé des rêves, mon cur, il est près de ma mère Font des enquêtes, veulent savoir comment je procède Mauvaise nouvelle, j'viens juste de commencer Nombreux sont faux, la plupart j'peux plus m'les compter Mauvaise nouvelle, j'reviens plus énervé J'aime quand je compte les liasses, liasses, liasses, liasses J'aime quand elle bouge comme a-ç, a-ç, a-ç, a-ç J'compte les liasses, liasses, liasses, liasses Everyday les problèmes, évités Faut pas dire il faut le faire, dire il faut le faire J'étais très différent d'eux, très différents d'eux Faut pas dire il faut le faire, dire il faut le faire J'étais très différent d'eux, très différents d'eux Tarik, Gandhi, Lyele, Ikaz, Tiako' Faut pas dire il faut le faire, dire il faut le faire J'étais très différent d'eux, très différents d'eux Faut pas dire il faut le faire, dire il faut le faire J'étais très différent d'eux, très différents d'eux</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>200K</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>So le Flem Sur l'chemin du succès, j'me suis perdu, le corps est là mais l'cerveau ne suit même plus Même plus Obligé d'être sur la défensive, donc le caractère est devenu hyper dur Y a un wack ? J'en veux au monde J'en veux au monde, celui qui veut m'dead faisait parti des notres Parti des notres Plus j'prends de l'âge, moins j'ai confiance en l'Homme, Thomas Sankhara m'a servi d'exemple Thomas Sankhara Tu penses que ma vie se résume qu'à mon sourire, c'est qu'tu crois à tout c'qui se raconte Tout c'qu'ils racontent À la base, j'étais pour s'entraider mais j'me trouve seul à payer la note Payer la note Mais c'est pas sur eux que j'remets la faute, ma gentillesse est un vilain défaut Tant qu'je suis bien dans mes sapes et mes bottes, j'marcherai en Gucci sans avoir de honte Comme j'ai l'potentiel d'm'offrir le Mansory, beaucoup veulent faire parti d'ma story Mais fuck, fuck, comme, comme Mobutu, la dictature va finir par s'instaurer Eh, dis pas mon Dis pas mon nom si la police sonne, j'ai quatre pierres précieuses sur mon ice Ice, ice, ice, ils font du son comme les Rolling Stones Stones, Stones Eh, eh, t'as capté la métaphore ? T'as capté la métaphore ? Oubliez tout, oubliez tout, oh, mikaté Nombreux, pour des sommes se couchent, nombreux ont fini sur touche Sur touche En Corteiz, ma paire de shoes Shoes, on sait comme faire les choses Choses Avec tout ce temps perdu, j'fais plus les choses gratos Plus les choses gratos, Sinaloa, Mexico, Vatos Locos Vatos Locos Que Dieu m'éloigne d'la pisse du diable Du diable survet', lunettes Cartier, j'vois la vie comme Osirus Jack Comme Osirus Jack Mais faut pas qu'je pète les nerfs Non, il faut qu'je persévère sinon, je m'en voudrais, c'est mort Eh oui J'ai pas préparé mon testament, quand j'regarde la vie d'avant, la vie de tess, c'est dur mais laisse J'ai envie de toi, envie de vivre dans la paix, j'ai pas envie d'raconter mes peines Comment aimer ? J'vois qu'ça fait du bien, ça fait des streams, en effet mais ça m'rajoute que de la haine Comment aimer ? Comment aimer ? Le sourire revient, quand parfois, je me rappelle qu'j'suis propriétaire d'mon label Comment aimer ? J'suis désolé, j'ai fait semblant d'vous aimer Comment aimer ?, j'suis désolé, j'ai fait semblant d'vous aimer Comment aimer ? Mais j'vous donne du love Comment aimer ? mais j'vous donne du love Comment aimer ? Mon cur est noir, j'sais même plus comment aimer Comment aimer ? Mon cur est noir, j'sais même plus comment donner Comment aimer ? La mélo est gangx, le renoi sombre, tu connais Comment aimer ? mais j'vous donne du love, oh, oh Comment aimer ? Mais j'vous donne du love Comment aimer ? Mon cur est noir, j'sais même plus comment aimer Comment aimer ? Mon cur est noir, j'sais même plus comment donner Comment aimer ? Sur du RB, y a trop d'shit pour m'exprimer Comment aimer ?</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2,3 coups de fil</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Tiako ne soit pas comme eux, je t'en pris ne suis pas les gens Coup de tête à la Zizou sur le pe-ra pour intégrer la légende Comportement assidu sur la vie d'ma re-mè, ils sont pas méchants Les forts que j'cotoie disent toujours en gros ils refusent de toucher les gens Jsuis dans l'binks, bébé va voir ailleurs Dis-moi, tu vises qui ? Tu n'es pas tirailleur Avec Chily on baise tout, dégaine à toute allure Tozo kende libanda, c'est pour revendre la pure J'entends deux-trois coups d'fil j'entends deux-trois coups d'fil Des ients-cli, de coke et de pilon des ients-cli, de coke et de pilon J'entends deux-trois coups d'fil j'ai dis j'entends deux-trois coups d'fil Des ients-cli, de coke et de pilon des ients-cli, de coke et de pilon Toi tu es comment ? On te parle tu n'écoutes pas tu es têtu Toi tu es comment ? On t'explique tu comprends rien tu es têtu J'entends deux-trois coups d'fil j'ai dis j'entends deux-trois coups de fil Des ients-cli, de coke et de pilon des ients-cli, de coke et de pilon J'entends deux-trois coups de fil De mecs qui m'doivent des thunes Tu voulais le feat, tu l'as Chily de dingue, Tiako' la mélodie Réunion de mélomanes, on agit on menace pas La bombonne est calée c'est moi qui bosse dans le bendazi J'ai les yeux rouges sous les lunettes quand j'ai trop bédave Je perd la raison mon amour quand tu te retournes Pas de nourrice, c'est sous le coussin que mon cône il dort Bebeta, ne t'en fais pas, Bebeta J'entends deux-trois coups de fil j'ai dis j'entends deux-trois coups de fil Des ients-cli, de coke et du pilon des ients-cli, de coke et de pilon Toi tu es comment ? On te parle tu n'écoutes pas tu es têtu Toi tu es comment ? On t'explique tu comprends rien tu es têtu J'entends deux-trois coups de fil on dit j'entends deux-trois coups de fil Des ients-cli, de coke et de pilon Ching Chang lalala je Double Bang Toi tu es comment ? On te parle tu n'écoutes pas tu es têtu Jsuis dans l'binks, bébé va voir ailleurs Toi tu es comment ? On t'explique tu comprends rien tu est têtu Jsuis dans l'binks, bébé va voir ailleurs Ah j'attends deux-trois coups de fil Des ients-cli, des cokes et du pilon jsuis dans l'binks, bébé va voir ailleurs J'ai le contrat, faut bina jsuis dans l'binks, bébé va voir ailleurs J'ai dis j'attends deux-trois coups de fil</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3X CANON DIDI STONE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>I don't know</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Arsenik</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>On a l'essentiel, un bolide devant moi Le plein d'essence, avenue d'la Grande Armée C'est pas d'la chance, on a rien sans rien On a l'essentiel, un bolide devant moi Eh Chaque matin, on fait les plugs, chaque week-end, j'dois faire au mieux J'attends l'temps additionnel, pour les enculer au buzz Si j'finis pas couronner, j'vais faire honneur aux ancêtres Black Mafia dans l'univers, trafique co'-co', 0.9, han Y a d'quoi faire avec moi, le chiffre d'affaire augmente, han D'septembre à septembre, pas d'mot sur les vêtements J'ai fait beaucoup pour certains, avec un flingue, ça s'exprime Cheese, prends ton selfie, faut pas poster maintenant Chaque jour que Dieu fait, je fais rentrer des sommes que tous les week-ends, je nique Et dans mon Lacoste, quelques gouttes suffisent Tchi-tchi comme Ärsenik Frérot, j'fais pas ça pour la frime, niquer des salaires, c'est la vie Le nom du baveux c'est Levy, j'refais la déco' sur Paris On a l'essentiel, un bolide devant moi Le plein d'essence, avenue d'la Grande Armée C'est pas d'la chance, on a rien sans rien On a l'essentiel, un bolide devant moi Mmh-mmh-mmh On a l'essentiel On a l'essentiel, un bolide devant moi Devant moi Le plein d'essence Le plein d'essence, avenue d'la Grande Armée D'la Grande Armée C'est pas d'la chance Pas d'la chance, on a rien sans rien On a rien sans rien On a l'essentiel L'essentiel, un bolide devant moi Bolide devant moi C'est la street qui m'rend célèbre Tchi-tchi, on perd pas l'Nord, on garde le rythme J'te vois suspect comme la douane Tchi-tchi qui fouille une valise Samsonite C'est la street qui m'rend célèbre Tchi-tchi, on perd pas l'Nord, on garde le rythme J'te vois suspect comme la douane Tchi-tchi qui fouille une valise Samsonite Skurt, skurt Désolé, c'est plus possible, j'veux plus entendre de mes deux oreilles, cette phrase, c'est plus possible Skurt, skurt Y a que les hommes, y a que le Tchi-tchi qui rend les ennemis dociles Hey, chaque jour, j'dois faire mieux que la veille Chaque jour que Dieu fait, je fais rentrer des sommes que tous les week-ends, je nique Et dans mon Lacoste, quelques gouttes suffisent Tchi-tchi comme Ärsenik Frérot, j'fais pas ça pour la frime, niquer des salaires, c'est la vie Le nom du baveux c'est Levy, j'refais la déco' sur Paris On a l'essentiel, un bolide devant moi Le plein d'essence, avenue d'la Grande Armée C'est pas d'la chance, on a rien sans rien On a l'essentiel, un bolide devant moi Mmh-mmh-mmh On a l'essentiel On a l'essentiel, un bolide devant moi Devant moi Le plein d'essence Le plein d'essence, avenue d'la Grande Armée D'la Grande Armée C'est pas d'la chance Pas d'la chance, on a rien sans rien On a rien sans rien On a l'essentiel L'essentiel, un bolide devant moi Bolide devant moi On a l'essentiel, un bolide devant moi Pas d'la chance, on a rien sans rien L'essentiel, un bolide devant moi L'essentiel, devant moi L'essentiel, un bolide devant moi L'essentiel, un bolide devant moi1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Atasanté</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Han-han-han-han Tu m'as laissé dans le flou comme les mecs d'à côté Donc je prends sur moi, je me pose des questions toute la noche Bébé, j'ai du temps pour nous mais faut qu'ça reste entre nous Donne-moi juste un rendez-vous, j'privatiserai Dolce Oh-oh-oh Les autres veulent s'en mêler, t'as l'p'tit cur scellé J'pourrais sortir l'milli', moi aussi, j'veux m'mêler Bébé, j'ai du temps pour nous mais faut qu'ça reste entre nous Donne-moi juste un rendez-vous, j'privatiserai Dolce En cas d'blèmes, je n'ai pas peur de mettre moi-même Non, non Si je me donne la peine, c'est pour que tu sois la mienne Mmh-mmh-mmh-mmh C'est danger quand tu pull up, je sais qu't'es chant-mé sans ton make-up Bébé, tu décors l'décor, mes billets sont mauves comme les Lakers Les autres veulent s'en mêler S'en mêler, t'as l'p'tit cur scellé J'pourrais sortir l'milli', moi aussi, j'veux m'mêler Le monde est à nous, à nous, à nous, à nous et fuck les autres Car ils ne sont pas des nôtres, genre, pas des nôtres Oh nan Elle veut qu'on s'entende, elle est consentante Et de temps en temps, elle veut prendre mon temps Elle fait pas semblant, elle fait pas semblant Elle veut qu'on s'entende, elle est consentante Et de temps en temps, elle veut prendre mon temps Elle fait pas semblant, elle fait pas semblant Tu m'as laissé dans le flou comme les mecs d'à côté Donc je prends sur moi, je me pose des questions toute la noche Bébé, j'ai du temps pour nous mais faut qu'ça reste entre nous Donne-moi juste un rendez-vous, j'privatiserai Dolce Oh-oh-oh Les autres veulent s'en mêler, t'as l'p'tit cur scellé J'pourrais sortir l'milli', moi aussi, j'veux m'mêler Bébé, j'ai du temps pour nous mais faut qu'ça reste entre nous Donne-moi juste un rendez-vous, j'privatiserai Dolce Tiako' La Mélo' De base, j'suis venu pour soigner mes peines, j'suis pas venu pour passer d'l'amour à la haine Intérieurement, je sais pas où j'en suis, enfermé à Bois-d'Arcy ou Fresnes ? C'était la tess ma go, c'était l'amour de trop Oh-oh-oh Ice ou Mask Off, il fallait bien qu'j'me couvre Et même si plus rien ne va entre nous, on va quand même s'retrouver Les problèmes, j'les ai étouffés 'touffés, peut-être qu'on est allé trop vite Trop vite Elle n'avait pas de patience, donc j'lui ai dit Calme-toi, j'lui ai dit Calme-toi Belek ou sinon, tu vas finir comme eux Comme eux Elle veut qu'on s'entende, elle est consentante Oh-oh-oh Et de temps en temps, elle veut prendre mon temps Elle fait pas semblant Oh-oh-oh, elle fait pas semblant Elle veut qu'on s'entende, elle est consentante Oh-oh-oh Et de temps en temps, elle veut prendre mon temps Elle fait pas semblant Oh-oh-oh, elle fait pas semblant Tu m'as laissé dans le flou comme les mecs d'à côté Donc je prends sur moi et j'me pose des questions toute la noche Bébé, j'ai du temps pour nous mais faut qu'ça reste entre nous Donne-moi juste un rendez-vous, j'privatiserai Dolce Oh-oh-oh Les autres veulent s'en mêler, t'as l'petit cur scellé J'pourrais sortir l'milli', moi aussi, j'veux m'mêler Bébé, j'ai du temps pour nous mais faut qu'ça reste entre nous Donne-moi juste un rendez-vous, j'privatiserai Dolce Elle veut qu'on s'entende, elle est consentante Et de temps en temps Ouh-ouh-ouh-ouh, elle veut prendre mon temps Elle fait pas semblant, elle fait pas semblant Elle veut qu'on s'entende, elle est consentante Et de temps en temps Ouh-ouh-ouh-ouh, elle veut prendre mon temps Elle fait pas semblant, elle fait pas semblant1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>#BÂTIMENT1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Éloigné du bâtiment mais j'peux remettre les gants gants, gants, gants, gants Éloigné du bâtiment mais j'peux remettre les gants gants, gants, gants, gants Train d'vie compliqué, compliqué, elle est loin l'époque où j'traînais sans ticket Congolais quand j'achète, je garde l'étiquette, cocktail molotov, allumez vos briquets Veulent tout savoir, veulent tous faire les nafigui, tout dans l'réel il n'y a rien de trafiqué Si t'es là faut pas que tu me serves que de figu', à l'eau bénite maman nettoie ma figure Faut pas mener la vie dure, j'suis pas préparé pour mon futur Mais j'veux plusieurs gosses comme Future, RS5 est la tuture Quand j'monte sur la capi', pas l'temps faire tout c'que j'ai envie Par cause de mon statut, j'évite tout ça mais j'subis le monde de la nuit Nadal deuxième service Federer, Federer Difficile à cerner, parano, je bois pas ce qu'on m'a servis Le temps passe puis le temps passe j'vois plus mes neveux grandir Plus j'prends d'l'âge moins j'm'affiche même si j'reste une grosse tête d'affiche Plusieurs joueurs sur le terrain du coup il faut qu'j'me démarque Faire des skills, j'en ai eu marre, sur le poignet faut Audermars Un temps d'arrêt, j'redémarre, un temps d'arrêt, j'redémarre Crois pas l'image qui nous reflète, c'est pas ce que tu crois, petit frère Il me reste plus rien demain si je pars, il m'reste plus rien demain si je- Tous les jours j'me pose des questions Tous les jours j'me pose des questions Tous les jours j'me pose des questions Tous les jours j'me pose des questions Tous les jours j'me pose des questions, tous les jours j'me pose des questions Éloigné du bâtiment mais j'peux remettre les gants gants, gants, gants, gants Éloigné du bâtiment mais j'peux remettre les gants gants, gants, gants, gants Éloigné du bâtiment mais j'peux remettre les gants gants, gants, gants, gants Éloigné du bâtiment mais j'peux remettre les gants gants, gants, gants, gants</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CABREL</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Han, han, han, han, han, han Han, han, han, han, han, han SHK SHK Han, han, han, han, han, han Han, han, han, han J'me réveille le sommeil léger, avec un rêve de matrixé où Francis Cabrel jouait de la guitare, juste au milieu de la cité Juste à côté, moi je l'assistais pour avoir c'que j'ai eu, j'ai persisté Ma couleur ne plaît pas plus que ça, j'ai dû chanter pour exister Mon seul problème avec la ue-r, c'est qu'on est matrixé par les sous Obligés de se marcher dessus, tout le monde veut graille mais personn fait la bouffe Et y a plus d'assiette, y a plus d'assitte, y a plus d'un siècle, oui C'est dur mais j'accepte, nan, nan, nan Passer du Clio 2 au coupé sport m'a fait faire beaucoup d'efforts Avant d'partager des milliers, j'partageais même les centimes Avant d'partager des milliers, j'partageais même les centimes Bienvenu dans l'M mon vieux, bienvenu dans l'M mon vieux Ça commençait par s'chambrer, ça finit tard dans la chambre J'ai pas vu que des bécanes s'cambrer, j'l'aime à mourir comme Francis Cabrel On s'est jamais quittés, on s'est toujours pas compris Sous le soleil, le cur s'est assombri Sous le soleil, le cur s'est assombri Hun, hun, non stop, j'fais pas semblant, toutes les lumières sont sur moi Y a un plav', j'fais pas semblant Hun, hun, non stop, j'fais pas semblant, toutes les lumières sont sur moi Y a un plav', j'fais pas semblant J'dois faire le boulot en paix, trop, j'en ai trop dans la tête Frigo est plein, sinon on va r'donner la Benz Vue sur la zone, pas la vue sur la mer, j'ai donner mon temps donc maintenant j'suis à perte J'ai pris l'habitude de vivre que dans la merde J'veux le cinq étoiles dans ma vie, pas du genre à parler Encore un peu de temps, j'vais péter, on est prêt à parier J'peux pas marcher avec ceux-là, ils sont trop à part Équipe méchante, j'dois faire l'boulot, boulot Hun, hun Équipe méchante, j'dois faire l'boulot, boulot J'sais qu'j'vais m'relever même si j'touche le goulot Maman s'inquiète quand j'suis pas là Quand j'suis pas là C'est pour famille qu'j'dois faire euros Ça commençait par s'chambrer, ça finit tard dans la chambre J'ai pas vu que des bécanes s'cambrer, j'l'aime à mourir comme Francis Cabrel On s'est jamais quittés, on s'est toujours pas compris Sous le soleil, le cur s'est assombri Sous le soleil, notre cur s'est assombri, hey Hun, hun, non stop, j'fais pas semblant, toutes les lumières sont sur moi Y a un plav', j'fais pas semblant Hun, hun, non stop, j'fais pas semblant, toutes les lumières sont sur moi Y a un plav', j'fais pas semblant Han, han, han, han, han, han Han, han, han, han, han, han J'me réveille le sommeil léger, avec un rêve de matrixé Un rêve où on était tous ensemble, où ma couleur de peau n'était pas suspect J'me réveille le sommeil léger, avec un rêve de matrixé</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Changera pas</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Skurt, skurt Rien à changer pour moi, désormais, c'est toi qui m'regarde dans l'autre vie Regarde Ce n'est pas qu'une histoire de monnaie Des billets, pensif, j'arrive pas à dormir J'arrive pas Comme si j'avais causer du tord, j'me dit que la route sera longue Plus les années passe, plus on s'évitent Plus les années passe, plus on s'évitent Rien que j'reçois un message de mon ex, Salam, lle et sa morale qui rste là-bas Pourtant, je porte pas Rolex, diamants, t'es parti, faut plus venir, Salam Elle veut devenir baby mama, la vie d're-sta comme Kylie Jenner Propose des choses, des trucs énormes, un moment donné, ça d'vient gênant Non, non La vie des gens crée des malaises La vie des gens crée des malaises Viens, on discute, faut qu'on arrête ce manège Viens, on discute, viens, on parle J'ai pas changer, j'suis toujours le même Ah, yah, yah, yah Tu connais William avant que j'devienne La Mélo' J'ai sorti ma veste J'ai sorti ma veste, je n'me retournerai pas Je ne voudrais pas J'ai beau avoir la Rolex Ma liasses et ma Rolex, je ne changerai pas, non, non, non Enfant sorti du hood Enfant sorti du hood, je garde un pied chez moi Je garde un pied chez maman J'ai beau avoir les mapess', je reste le même, igo J'ai sorti ma veste J'ai sorti ma veste, je n'me retournerai pas Je ne me retournerai pas J'ai beau avoir la Rolex, non, je ne changerai pas, non, non, non Enfant sorti du hood, je garde un pied chez moi J'ai beau avoir les mapess', je reste le même, igo C'est moi qui gère les paramètres, de cette vie là, il faudra s'en remettre Dans l'enveloppe, des billets, faudra mettre Accro au mélodies, je ne veux que la vie, toujours près de la vie mais si j'te prend la vie, tu vas dead, dead, dead Plus j'vois des ronds, j'fais galipettes Galipettes, comportement de N'Golo Kanté Comportement Gentille mais crois pas que c'est la fête Pas la fête, qui veut la guerre, qui se manifeste Ah non, non, skurt Oh putain, malheur Oh putain, malheur, j'entend les bruits des pistolets Le bruit des pistolets J'ai lus les mots J'ai plus les mots, je n'ai plus grand chose à dire Plus grand chose à dire Grosso modo Grosso modo, j'l'ai entends plus quand ça tire J'l'ai entends plus quand ça tire J'ai sorti ma veste J'ai sorti ma veste, je n'me retournerai pas Je ne voudrais pas J'ai beau avoir la Rolex Ma liasses et ma Rolex, je ne changerai pas, non, non, non Enfant sorti du hood Enfant sorti du hood, je garde un pied chez moi Je garde un pied chez maman J'ai beau avoir les mapess', je reste le même, igo J'ai sorti ma veste J'ai sorti ma veste, je n'me retournerai pas Je ne me retournerai pas J'ai beau avoir la Rolex, non, je ne changerai pas, non, non, non Enfant sorti du hood, je garde un pied chez moi J'ai beau avoir les mapess', je reste le même, igo</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Coucher de soleil</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Un coucher d'soleil près d'Monaco Monaco Un coucher d'soleil près d'Monaco Monaco Eh Eh Ah, ah, ah, ah, ah, ah, ah Junior Alaprod, zanmi Eh Mais comment y a des lumières ? À la base, on brillait que dans l'noir Viens voir la vie en vrai, de plus près, c'est pas la fête, en vrai Ouh Viens voir la vie en vrai, de plus près, c'est pas la fête, en vrai Skurt Tu sais, la vie qu'on veut, on l'aurait pas ici, en vrai Dis pas c'qu'on a fait, dis pas c'qu'on va faire ce soir Trop parano pour t'faire Trop parano pour t'faire confiance Ah-ah Allons faire la guerre pour aller gagner la paix Hein-hein Partir à Kinshasa Partir à Kinshasa, retrouver mes cadres Bébé, vas-y doucement Han, han, han J'ai le c-tru sur moi, belek, parle-nous autrement Han-han-han Beaucoup d'argent, beaucoup d'problèmes, peu de détente J'ai les mains dans l'dos Ah, beaucoup d'argent, beaucoup d'problèmes, peu de détente J'ai les mains dans l'dos Beaucoup d'argent, beaucoup d'problèmes Mais comment y a des lumières ? À la base, on brillait que dans l'noir Viens voir la vie en vrai, de plus près, c'est pas la fête, en vrai Ouh Viens voir la vie en vrai, de plus près, c'est pas la fête, en vrai Skurt Tu sais, la vie qu'on veut, on l'aurait pas ici, en vrai Quand on a besoin d'aide, on crie pas, quitte à finir au sol Sol Viens voir la vie en vrai Viens voir la vie en vrai, jamais, on est dans ça Et quand un frère sait faire de l'oseille dans le propre ou dans l'sale Jamais on lui porte l'il Jamais on lui porte l'il, jamais on fait comme ça Eh, au départ, j'ai mis les chaussures avant les chaussettes Y avait pas d'budget et ni les moyens On reçoit les factures, les problèmes s'attirent, nos têtes qui saturent, donc maman s'inquiète Ah, le monde est méchant, soit pas choqué Ah, on va venir les pousser, les claquer Ah, j'ai promis du plus p'tit au plus grand que j'allais sortir des bes-tu, faut pas douter Coucher du soleil, j'attends d'apercevoir la pleine lune J'étais pas le meilleur rappeur, j'étais pas plus l'convoité, j'avais pas la belle plume Dis-moi c'qui t'arranges ma dolce ? Dis-moi, dans quelle direction il faut y aller ? On y va dans un sens Sens et dans nos têtes, tout va bene Mais comment y a des lumières ? À la base, on brillait que dans l'noir Viens voir la vie en vrai, de plus près, c'est pas la fête, en vrai Ouh Viens voir la vie en vrai, de plus près, c'est pas la fête, en vrai Skurt Tu sais, la vie qu'on veut, on l'aurait pas ici, en vrai Quand on a besoin d'aide, on crie pas, quitte à finir au sol Sol Viens voir la vie en vrai Viens voir la vie en vrai, jamais, on est dans ça Jamais, on est dans ça Et quand un frère sait faire de l'oseille dans le propre ou dans l'sale Hum-hum-hum Jamais, on lui porte l'il Jamais, on lui porte l'il, jamais, on fait comme ça Jamais, on fait comme ça Bene-eh-eh Eh-eh Jamais, on lui porte l'il, jamais, on fait comme ça Hum, j'ai les mains dans l'dos, j'ai les mains dans l'dos, mains dans l'dos J'ai les mains dans l'dos, j'ai les mains dans l'dos Bene-eh-eh Eh-eh Jamais, on lui porte l'il, jamais, on fait comme ça Hum, j'ai les mains dans l'dos, j'ai les mains dans l'dos, mains dans l'dos J'ai les mains dans l'dos, j'ai les mains dans l'dos Bene-eh-eh Eh-eh Eh-eh, eh-eh Ah-ah Ah-ah, ah-ah Ah-ah Le coucher d'soleil m'emmène dans mon sommeil Avec un oint-j, j'joue du piano, je me sens mieux Le coucher d'soleil m'emmène dans mon sommeil Han-han-han-han Han-han-han-han Han-han-han-han Han-han-han3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DERNIÈRE DANSE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>T'sais c'qu'on représente comme groupe Comme gang T'sais c'qu'on représente comme groupe Yah Oui, t'as toujours rêvé d'être un p'tit peu comme nous Bang, bang J'sais qu't'as rêvé d'être comme nous J'ai roulé un Static, tellement côtoyé le crime, on ressent plus la panique De l'or, mon corps, mon cur, j'lui ai tout donné On téléchargeait pas les données, on allait charbonner Et quand elle est bonne et enragée, comme ça qu'on déboulait J'essaie de changer le mond tout en pensant à mes frèrs Tout en pensant à mes frérots Infaisable, j'me suis mis solo à chasser mes rêves À chasser mes rêves, sa mèreLa présidentielle est ma place et, toi, tu m'prends pour un rookie C'est bien que tu m'aies vu en blood, j'suis rangé du côté de Tookie Touh, touh, touh, touh T'sais d'où vient les vrais, t'sais d'où vient les vrais Chérie, ne t'attends pas Nan à beaucoup d'sentiments Chez nous, les balles se perdent pour de vrai Chez nous, les curs se percent pour de vrai Chez nous les keufs perquis' pour de vrai Baby, attends, j'ai dit attends T'sais c'qu'on représente comme groupe Comme gang T'sais c'qu'on représente comme groupe Yah Oui, t'as toujours rêvé d'être un p'tit peu comme nous Bang, bang J'sais qu't'as rêvé d'être comme nous Eh Soixante Tu penses qu'on s'est tout dit ? En danger, j'y mettais ma vie, j'y mettais ma vie quand j'sortais des taudis Han Au début ils m'voyaient en fou, maintenant j'fais des foules un peu comme les Fugees Han Au début ils m'voyaient en fou, maintenant j'fais des foules un peu comme les Fugees Nioum T'sais ce qu'on représente comme groupe, on s'était dit À la vida On s'était dit À la vida Beaucoup de faux visages, trop de rumeurs dans le village Trop de rumeurs dans la ville Trois gamos, deux villas donc il faut remplir la Visa Bang, bang J'suis l'buteur en finale qui fait crier tout le virage Wesh, la petite elle veut du Gucci, elle veut du Louis, elle veut du Fendi Elle veut ça, elle veut ça La petite elle veut du Gucci, elle veut du Louis, elle veut du Fendi Elle veut ça, elle veut ça J'peux pas compter ceux qui sont partis, combien de parties ? Combien j'ai perdu ? J'viens récupérer c'qui m'appartient, à l'heure, j'ai remis, j'ai remis les pendules Eh Soixante Tu penses qu'on s'est tout dit ? En danger, j'y mettais ma vie, j'y mettais ma vie quand j'sortais des taudis Han Au début ils m'voyaient en fou, maintenant j'fais des foules un peu comme les Fugees Han Au début ils m'voyaient en fou, maintenant j'fais des foules un peu comme les Fugees Nioum La skylanderie, ma gueule J'prends ça sur moi J'prends, j'prends sur moi J'prends, j'prends sur moi J'prends, j'prends sur moi J'prends, j'prends sur moi J'prends, j'prends sur moi J'prends, j'prends sur moi</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Étincelle (Maradona)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Han-han-han Han-han Han-han-han So le Flem So le Flem Han-han Ne mets pas la faute sur les autres, jalousie fout la peau sur les os Quelques parasites me font tout ça seulement pour amuser les gows Dès que j'baraude, j'fais des pauses, y a du temps à qui je dépose Ils ont rien à faire, j'les trouve couci-couça, au lieu de quitter le zoo Quitter la zone, on va s'les faire à fond La drogue, ça fait efft, dans la cabine, gonfle pas les pc' Sinon, t'en payes les frais, vingt-et-un ans, j'suis jeune et frais On pense un peu aux frères qui perdent la vie, le poing levé Le prix d'un bail, on l'fait Là, j'te sens pas, j'passe ma vie avec, on s'comprend pas Avec des étincelles, on s'comprend pas Et quand j'serais plus à sec, p't-être qu'on s'comprendra Comptez pas sur moi, j'vous souhaite le meilleur vu Combien d'mecs en or sont tombés à mes yeux ? Joue ton meilleur jeu, pour toi, je f'rai l'impossible Hum, la main de Dieu, Maradona, c'est Napoli J'prends mon temps pour avancer, c'est géré, c'est la bonne saison J'prends mon temps pour avancer J'ramène frappe sur le marché, que du ice dans la cargaison C'est sombre, choisis la bonne saison J'dois quitter l'quartier, bébé, j'ai pas l'cur à la fête J'aurais pu t'balader mais j'veux pas rentrer dans ta tête Nan, seulement dans ta pussy Hey Même si j'ber-tom pour toi, j'sais qu'tu m'attendras pas Si j'sors, j'ressors un Uzi On pourra pas la quitter, même la juge pourra pas l'acquitter Un adversaire dans un cercueil, mon avenir n'arrête pas d'y penser Le cur et les yeux foncés, un Merco' là-bas, tout bleu foncé Parenthèses, ils veulent me ligoter Dans la douche, j'ai dû coffrer un feu Oh quel carreau, veut piquer le cur, y a plus simple S'revoir après, des palabres, on fera plus ça Mélange chimique, chocolat avant la Toussaint Tout ça, tout ça, ça taffer pour ces putains Là, j'te sens pas, j'passe ma vie avec, on s'comprend pas Avec des étincelles, on s'comprend pas Et quand j'serai plus à sec, p't-être qu'on s'comprendra Comptez pas sur moi, j'vous souhaite le meilleur vu Joue ton meilleur jeu, pour toi, je f'rai l'impossible Comptez pas sur moi, j'vous souhaite le meilleur vu Combien d'mecs en or sont tombés à mes yeux ? Joue ton meilleur jeu, pour toi, je ferai l'impossible Hum, la main de Dieu, Maradona, c'est Napoli J'prends mon temps pour avancer, c'est géré, c'est la bonne saison J'prends mon temps pour avancer J'ramène frappe sur le marché, que du ice dans la cargaison C'est sombre, choisis la bonne saison</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>FAST LIFE &amp; FAMILLE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Yeah 20k pour l'Espagne Yeah, les bitchs en extases Elles m'collent comme Nesta car remplis de marbres sont les escaliers Escaliers Back then, c'était no caméra, no presse, gars, la tête dans l'espace, réveillé, j'rêvais d'S barrés S barrés, quoi ? Le chrono tourne, bientôt l'échéance Yeah, j'ai pris l'taureau par les cornes et ta poule par les che-han J'écris dans le noir, en fond j'me retape Réal-Manchester Les p'tits coupent ta manche et s'tirent, ouais, si ton poignet brille Poignet brille Faut qu'mon fils soit aisé, qu'la clé du 'ghini dort dans l'salon C'lui qui veut faire le cowboy, y a mes guirri devant l'saloon Le temps c'est d'la plata, les minutes s'changent en heures, l'hobbie se change en murs Et comme on dit c'est force et honneur Yeah, à 10 heures, j'ai killé cent ciao, eux et nous Philly contre Charlotte Avec des bobos, j'me sens plus absent, fini l'temps d'charo Pour v'-esqui les djaos ou sur une coup d'tête, j'fais Paris, Zanzibar, Kilimandjaro, han Veneta Bottega, j'arrive élégant, tressé, j'ai pas pu faire de choix, j'ai pris les deux qui m'plaisaient Sacoche est rempli d'péchés, cur rempli d'déchets L'ange à bâbord m'attire plus que l'autre, j'pouvais pas l'dire car la vérité blessait, han Le hall embauche, les petits postulent, je sais pas l'nombre de problèmes qu'j'évite quand j'suis au stud' Le poids augmente, té-ma la posture, si j'canne, pas d'album posthume, le diable se sape en costume Prada Gangsta, gang, gang, gansta, gansta, gang, gangsta J'voulais finir en gang, gang, gang, gang, gansta Busy, j'dois gérér mes biz' mais, t'inquiètes, j'fais dans l'idéal J'peux pas répondre, nan, c'est pas du cinéma Contrôle, bébé, j'vais devoir couper les liens Si j'pars, ne me parle pas d'la zone J'étais ce petit banlieusard avec plein d'atouts, avec un plein d'atouts J'mangeais rien mais maintenant j'mange sur un bateau Des liasses d'espèce énormes, faut pas que j'perde le nord, c'est pas la vraie vie La vie prend tout son sens quand tes défis d'viennent des opportunités On a grandi, on a pris d'l'âge mais sur les champs d'bataille, oui, j'y étais Si j'dois choisir entre une bitch et mon bro, le choix il est vite fait Si j'dois choisir entre une bitch et mon bro, le choix il est vite fait Dis à tout l'monde que si on arrive, tu sais qu'on braw On m'a dit qu't'as changé de camp, wow J'suis toujours pas pro, j'ai commencé débutant Maman elle sait qu'on s'est débrouillé bien avant les dix-huit ans Elle sait Charbon légal ou la sacoche, peu importe Charbon légal ou la sacoche, peu importe le temps Maintenant d'vant les gens, j'fais les chants, j'suis plus dans l'échange de stupéfiant J'suis d'venu un peu plus méfiant, j'sais pas qui prendre, y a trop de starfuckeuses Faut qu'j'continue d'me craquer, mon frère, faut qu'je creuse, faire autre chose que des bangers Mon premier, mon premier rêve c'était d'jouer pour les Thunder Mais tu t'réveilles quand tu t'endors uniquement si Dieu le veut Le studio, studio, studio, ay, si y avait pas ça, où j'aurais fini, oh ? J'étais en mode grah, grah, j'cassais ma tête sur du Fivio J'ai grandi, maintenant j'ai les mêmes moves que celui d'un CEO J'en ai marre, t'sais qu'il m'faut du cash tous les jours d'la semaine, hey J'en ai marre, t'sais qu'il m'faut du cash tous les jours d'la Qui m'relève si j'tombe là ? Qui m'relève si j'tombe là ? La vie ça va vite, hier il souriait, aujourd'hui, il est dans la tombe là Hamdoullah, j'connais la patience, pour le succès, t'inquiètes, ça attendra Jolagreen x Tiakola, j'crois en Dieu, moi, j'prie pas les Dracula Putain, il date c'lui là, il est revenu parce que rares sont les moments d'crise Elle était fucking sexy mais regarde maintenant, l'impression qu'elle est sous l'emprise Branche le câble électrique sur la prise si tu veux d'la lumière J'ai appris, j'ai retenu, j'ai capté, j'fais plus les mêmes erreurs qu'hier Faut qu'j'nettoie c'game, j'ai pas l'choix, ramène les kalachnikovs, les serpillères Tout droit, t'sais qu'j'avance, Dieu a fait en sorte qu'le chemin soit linéaire J'sais qu'j'ai fait du-, j'sais qu'j'ai-, j'sais qu'j'ai fait du-, han J'sais qu'j'ai fait du mal, désolé, j'ferai plus les mêmes erreurs qu'hier Eh La vie prend tout son sens quand tes défis d'viennent des opportunités On a grandi, on a pris d'l'âge mais sur les champs d'bataille, oui, j'y étais Si j'dois choisir entre une bitch et mon bro, le choix il est vite fait Si j'dois choisir entre une bitch et mon bro, le choix il est vite fait La vie prend tout son sens quand tes défis d'viennent des opportunités On a grandi, on a pris d'l'âge mais sur les champs d'bataille, oui, j'y étais La roue tourne, maintenant j'fais les shows dans les boîtes, là où j'me faisais recaler Quand vient la nuit, j'suis seul, j'discute un peu, un peu avec mon farfadet J'suis l'aîné, mon p'tit frère c'est l'cadet, donc j'me dois de montrer l'exemple On est en ble-s' s'tu fuck les mecs en bleu La vie c'est pa solo, mon frère, ça marche en faisant les passes, les une-deux Les joints d'shit, les joints d'beuh, les vils-ci, les 22 Les pochtons, les seringues, boom, boom, fin d'eux J'en ai marre, t'sais qu'il m'faut du cash tous les jours d'la semaine J'en ai marre, t'sais qu'il m'faut du cash tous les jours d'la J'en ai marre, t'sais qu'il m'faut du cash tous les jours d'la semaine J'en ai marre, t'sais qu'il m'faut du cash tous les jours d'la</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>FORMIDABLE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Oh, oh, oh Oh, oh, oh J'ai pas trouvé ma place dans la résine mais j'l'ai trouvé dans la musique J'ai pas attendu que les choses viennent jusqu'à moi pour voir mes rêves s'réaliser Tu penses qu'on fait ça pour s'amuser, moi tant qu'j'ai pas touché la cible Moi tant qu'j'ai pas touché la cible, j'aurais toujours du mal à fermer les yeux D'or et de platine le premier album, je ne fais pas partie des seuls Artiste, producteur qui met tout l'monde d'accord, je veux faire partie de ceux Anonym sera mon salaire pour pas qu'une foll m'ensorcelle Ne pas tomber en faille, rien pour la fame, tout pour les gens qu'j'aime C'est formidable C'est formidable autour de moi c'qu'il s'passe Autour de moi c'qu'il s'passe Y a rien qui change comme d'hab' Y a rien qui change comme d'hab' et j'trouve ça formidable Autour de moi, j'ai fait l'tri, une erreur et t'en payes le prix Faut qu'ça tape comme Canelo, Canelo, Canelo donc ça part vite Formidable Formidable autour de moi c'qu'il s'passe Autour de moi c'qu'il s'passe J'viens de façon différente, faut que j'impressionne ici À longueur d'journée, j'suis en mission, j'rends l'impossible possible Que faire dans une discussion quand on sent la jalousie ? En réalité, les réseaux sociaux cachent beaucoup d'soucis Faut qu'on mange à notre faim, faudrait pas qu'on mette fin à nos faims Avoir le rôle du gentil ça paye pas, on connait déjà la fin du film À tout moment j'peux relancer la flamme, mélomane, on est pas écrivain Mais ma musique c'est de l'art, faudrait penser à m'mettre au Musée Grévin Malheureusement, ils veulent nous censurer, oui, ils veulent nous censurer, oui Tellement de choses à reprocher qu'ils veulent nous censurer, oui Mais laissez-moi m'envoler, laissez-moi m'envoler, oui Tellement de choses à reprocher qu'ils veulent pas m'laisser prendre la parole C'est formidable C'est formidable autour de moi c'qu'il s'passe Autour de moi c'qu'il s'passe Y a rien qui change comme d'hab' Y a rien qui change comme d'hab' et j'trouve ça formidable Et j'trouve ça formidable Autour de moi, j'ai fait l'tri, une erreur et t'en payes le prix Faut qu'ça tape comme Canelo, Canelo, Canelo donc ça part vite Formidable Formidable autour de moi c'qu'il s'passe Autour de moi c'qu'il s'passe Bonjour tonton William ! Comment ça va ? Tu travailles bien sur ton nouvel album ? Bon courage, je te fais plein de bisous</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>G.A.N.G</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ouh, ouh, ouh, ouh SHK SHK Gang, gang Ouh, ouh L.A M.A.NO, rien à tter-gra, bande de haineux Grr, baw Ouh, ouh J'les mets tous dans la sauce, j'étais calme, maintenant, j'passe à l'assaut Grr Fais pas l'bandit si t'es gentil, mon sauce Baw, t'étais où quand au placard, j'faisais des lassos ? Lassos, baw Faire du sale, c'est mon job, bientôt, j'investis un Biggie comme Chop Chop Toujours, il cavale mais toujours, on l'choppe Gang, gang, opps, j'crois qu'il a mal à la jambe Gang, gang J'dois faire du cash et envoyer au bled Grah, mes sons né-tour comme une toupie Beyblade Grah La Mano, j'suis un rageux comme Joel Joel, La Mano, j'suis un rageux comme Joel Embiid Baw Fais pas la calle, on sait où t'habites Grah, ennemis à terre, j'danse comme un rabbit Avec Tiako' La Mélodie, j'découpe le beat, à Nanterre, j'écrivais au stylo Bic Grr, baw, baw, baw, baw, baw, l'canon éternue, à tes souhaits Baw, baw, baw On va t'trouer ton cul comme une passoire Grr, ah, plus jamais tu pourras t'asseoir Baw, baw Baw, baw, j'ai visser Balthazar, boulettes, c'était pas des Maltesers, Charo, c'est Charo, y a pas d'hasard J'prie pour mes opps quand j'me vois d'vant la glace Grah Y a plus d'une arme pour faire disparaitre ton corps Grr, baw Le minimum que tu génères peut changer ta life en un seul coup d'fil Gang, gang, brr, brr, brr, en un seul coup d'fil, coup d'fil, oh Business Ouh, famille Oui, oseille Cash, rrain-té Paw Combien d'amis Ouh ? Des reufs condamnés ? Grr, baw G.A.N.G Gang, gang, j'ai l'ADN dans le S.A.N.G Gang, gang, j'ai l'ADN dans la peau Plusieurs fois la mort, on a frôlé Frôlé, mes potos ont fini en roues libres Roues libres Paris, c'est méchant, Opinel 13, ça t'arrache le bras pour une Rollie Sale Fe'-Fe' Oui, Lambo' 'Ghini, l'appât du gain m'a rendu violent Violent Le carré VIP rempli de vilains Hein, j'me gare plus, j'laisse ça au valet Tiens Ça passe ou ça casse, j'dégaine le Uzi, y a plus rien en face Tiens J'dégaine le Uzi, y a plus rien en face, dix balles le devis, j'ai payé en cash Paw, paw, paw J'déboule en, j'déboule cagoulé, j'suis dans la house La house À part les agrafes qu'y a sur les contrats et sur les pochtons, aucune attache J'ai dit Obligé d'manger la vie La vie, la galère, on l'a connu Connu J'leur ai promis qu'ça bougerait as-p, à chaque virgule, j'évolue Fric Elle est là qu'pour le papel donc à quoi bon sert d'être connu ? À quoi bon ? Y a que du large au menu Menu, c'est pour ça qu'on est venus Sale J'prie pour mes opps quand j'me vois d'vant la glace Grah Y a plus d'une arme pour faire disparaitre ton corps Grr, baw, c'est mort Le minimum que tu génères peut changer ta life en un seul coup d'fil Gang, gang, brr, brr, brr, en un seul coup d'fil, coup d'fil, oh Business Ouh, famille Oui, oseille Cash, rrain-té Paw Combien d'amis Ouh ? Des reufs condamnés ? Grr, baw G.A.N.G Gang, gang, j'ai l'ADN dans le S.A.N.G Gang, gang, j'ai l'ADN dans la peau G.A.N.G, S.A.N.G J'ai l'ADN dans la peau, G.A.N.G Dans la peau, S.A.N.G J'ai l'ADN dans la peau Dans la peau, dans la peau, dans la peau J'ai l'ADN, dans la peau, dans la peau, dans la peau J'prie pour mes opps quand j'me vois d'vant la glace Dans la peau, dans la peau, dans la peau J'ai l'ADN Gang, gang</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Shiruken Music C'est ma gasolina, y a mes gars solides là Elle veut rentrer dans ma tête C'est ma gasolina, y a mes gars solides là Elle veut rentrer dans ma tête mais j'veux pas continuer C'est ma gasolina, y a mes gars solides là Elle veut rentrer dans ma tête mais j'veux pas continuer 11.43, j'fais les tes-comp, les ennemis me font pas peur Le four ouvre à midi, j'ai des outils dans l'jean La vengeance veut prendre le dessus, j'coffre ça dans l'congélateur Elle m'attire des ennuis, c'est la rue, c'est comme ça Ça casse à six heures, pas à sept, quatre sorties de pot, j'suis dans l'seize Faut mettre les dièses avant l'zéro-sept, c'est qui les opp's ? Qui veut s'faire crosser ? Gasolina veut sac Hermès, les potes, les proches veulent gratte une pièce Donne-moi le brassard, donne-moi l'siete, neuf millimètres et tu fais une sieste Les écoutes au bigo Bigo, faut rester dans l'anonymat 'nymat Gasolina atteint un niveau Niveau, ceux qui friment le plus sont les plus pauvres Plus pauvres Et contrôle ta libido 'bido, guet-apens au tél' par petite go Couleur qui brille sur nos petits doigts C'est mes gars solides, là J'peux t'la ramener sur un autre niveau C'est ma Gasolina C'est ma gasolina, y a mes gars solides, là Elle veut rentrer dans ma tête mais j'veux pas continuer C'est ma gasolina, y a mes gars solides, là Elle veut rentrer dans ma tête mais j'veux pas continuer 11.43, j'fais les tes-comp, les ennemis me font pas peur Le four ouvre à midi, j'ai des outils dans l'jean La vengeance veut prendre le dessus, j'coffre ça dans l'congélateur Elle m'attire des ennuis, c'est la rue, c'est comme ça Elle sait ce que j'fais, ce que j'aime Han-han, pilons, beuh, massa tout c'que j'ai Han-han C'est beaucoup trop noir c'qu'on projette Han-han, à part la santé, tout s'achète Han-han J'arrache le sol en séquentiel Han-han, j'envoie mes prières vers le ciel Han-han Dans l'auto chauffants sont les sièges Han-han Mélo' d'la callé sans solfège Et quand j'entends Akha, la première chose à faire, c'est d'me benda Gasolina veut qu'j'lui prenne sa main mais j'manipule encore trop d'tos-ma, eh Les écoutes au bigo, donc faut rester dans l'anonymat J'te ramènerai dans un autre niveau si t'es ma, si t'es ma Gasolina Yeah, eh, eh Elle veut que j'prenne soin d'elle, de rester, c'est pas facile Une fois qu'on est montés, y a les keufs qui descendent Ramène le 200G, j'découpe de mieux en mieux, une kichta, j'me sens mieux J'la considérais comme ma princesse mais je n'étais pas son roi Hum, hum, hum Elle apporte toujours des problèmes, même quand on fait bien son rôle Et des fois, j'me sens comme un enfant qui n'a pas eu c'qui voulait Le Sheitan qui conseille d'faire un choix entre la stup' ou le vol Bang, bang, bang, bang, bang2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Gasolina (Deuxième version)*</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Shiruken Music C'est ma gasolina, y a mes gars solides, là Elle veut rentrer dans ma tête mais j'veux pas cantiner C'est ma gasolina, y a mes gars solides, là Elle veut rentrer dans ma tête C'est ma gasolina, y a mes gars solides, là Elle veut rentrer dans ma tête mais j'veux pas cantiner C'est ma gasolina, y a mes gars solides, là Elle veut rentrer dans ma tête mais j'veux pas cantiner 11.43, j'fais les tes-comp, les ennemis me font pas peur Le four ouvre à midi, j'ai des outils dans l'jean La vengeance veut prendre le dessus, j'coffre ça dans l'congélateur Elle m'attire des ennuis, c'est la rue, c'est comme ça La calle, la calle, elle aime quand on se rentre dedans Han Ici, pour un rien, tu peux entendre des ra-ta-ta Jour après jour, j'vois que je m'éloigne de mon ghetto Han-han, han J'claque mon bénéf' chez Christian Dior pour revenir encore plus matata Elle veut que j'prenne soin d'elle Soin d'elle, de rester, c'est pas facile Facile Une fois qu'on est montés Montés, y a les keufs qui descendent 'scendent Ramène le 200G 200G, j'découpe de mieux en mieux Mieux en mieux Une kichta, j'me sens mieux Sens mieux J'la considérais comme ma princesse mais je n'étais pas son roi Elle apporte toujours des problèmes, même quand on fait bien son rôle Et des fois, j'me sens comme un enfant qui n'a pas eu c'qui voulait Le Sheitan qui conseille d'faire un choix entre la stup' ou le vol Bang, bang, bang, bang, bang Bang le bruit du Toka', faut faire rentrer la plata Donc ça bosse à pleins temps, argent sale ou potable Faites entrer l'avocat, non, ce soir, j'dors pas là-bas La rue veut m'prendre en otage, prendre en otage C'est ma gasolina, y a mes gars solides, là Elle veut rentrer dans ma tête mais j'veux pas cantiner C'est ma gasolina, y a mes gars solides, là Elle veut rentrer dans ma tête mais j'veux pas cantiner 11.43, j'fais les tes-comp, les ennemis me font pas peur Le four ouvre à midi, j'ai des outils dans l'jean La vengeance veut prendre le dessus, j'coffre ça dans l'congélateur Elle m'attire des ennuis, c'est la rue, c'est comme ça</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>GRAND PRIX</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>C'n'est qu'une question de détails, ce soir j'te laisse mener l'bail Avec toi à mes côtés, il n'y aura pas de faille Il n'y aura pas de faille Turn up the music, viens que j't'emmène, du matin au soir Turn up the music, loin des problèmes, viens que j't'emmène, du matin au soir C'est trop C'est trop, oh babe, c'est trop C'est trop Y a une meuf devant le park- Y a une meuf devant le park- Y a une meuf dvant le park- Y a une meuf dvant le park- Y a une meuf devant le parking Y a une meuf devant le parking Hey Hey Chez nous, on reçoit que la frappe Chez nous, on reçoit que la frappe Y en a plusieurs qui tapent à la porte Font du porte à porte Les mauvais acteurs sont de sortie, combien j'en ai laissé sans suite ? Oui, mon cur n'est pas sensible, Monaco, j'viens pour le Grand Prix Éloigné du mauvais train d'vie, en tout cas ce qui est sûr, y a pas que la drogue qui est dure La vérité sort d'la vessie, peut être qu'j'ai bu trop d'Henessy Peut être qu'j'ai bu trop d'Henessy J'suis venu, j'ai appris, j'ai compris, j'ai fait, j'suis venu, j'ai appris, j'ai compris, j'ai fait Ils ont pris du temps pour me féliciter, ils crient victoire quand c'est pas mérité Ils crient victoire quand c'est pas mérité Ce n'est qu'une question de détails, détails, détails, détails C'n'est qu'une question de détails, ce soir j'te laisse mener l'bail Avec toi à mes côtés, il n'y aura pas de faille Faille Turn up the music, viens que j't'emmène, du matin au soir Turn up the music, loin des problèmes, viens que j't'emmène, du matin au soir C'est trop C'est trop, oh babe, c'est trop C'est trop Hey, hey, hey Hey, hey, hey Hey, hey, hey C'est trop Hey, hey, hey Hey, hey, hey Hey, hey, hey Music, mu-music, mu-mu-music Loin des problèmes, pro-, pro- Music, mu-music, mu-mu-music Loin des problèmes, pro-, pro-</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>HUMAN WEAKNESS</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Si tu ressens le doute, c'est qu'il n'y a plus de doute Baby, quand je vois ces gouttes sur toi, j'm'en veux tous les jours T'sais quoi, j'pense que, j'pense qu'on devrait arrêter de faire style, de dire que j't'appartiens, que tu m'appartiens, que t'es mon gars, que j'suis ta nana, ça sert à rien. Tu peux pas t'comporter comme ça avec ta meuf, c'est pas possible. Tu m'considère pas, je sais pas pourquoi tu fais style mais tu m'considère pas. En plus, ça m'saoule malgré tout c'que tu fais, t'arrives quand même à m'manquer alors que j'mérite mieux qu'ça, je sais très bien. Donc là, j'pense que pour ma santé, en fait, c'est mieux qu'on s'arrête là J'crains pas l'avis des autres, tu veux j'te l'explique comment ? J'suis pas fait pour les vidéos, baby, baby, baby T'as baissé le volume après t'avoir revue sans tenue J'suis repartie comme un inconnu Désolé désolé, c'est mon esprit fourbe, j'ai guetté ma folie Désolé désolé J'suis pas fait pour toi, faut que j'm'arrête, maintenant J'suis pas fait pour toi, faut que j'm'arrête, maintenant Maintenant, maintenant, maintenant Si tu ressens le doute, c'est qu'il n'y a plus de doute Baby, quand je vois ces gouttes sur toi, j'm'en veux tous les jours Si tu ressens le doute, c'est qu'il n'y a plus de doute Baby, quand je vois ces gouttes sur toi, j'm'en veux tous les jours</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Interlude</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>SHABZBEATS WaveMakers Han-han-han-han-han-han Han-han-han-han-han-han Hum-hum-hum Hum-hum-hum Eh Question pour un trafiquant Bonheur ou ton honneur ? Pas de réponse à ta question, dans la tess, on vit, on meurt Prendre des risques, c'est illégal mais rien à foutre, ça l'fait quand-même On l'fait quand-même Hum-hum, ça l'fait quand-même, eh J'sais pas combien, ça m'coûte Hum, tout ça, pourvu qu'ça dur Yah Et ceux qui s'en fou, maintenant, on les attirent Tout n'est pas violet, faudra sortir les cojones Han-han Veulent savoir qui on est, faudra pas faire les Dieudonné J'ai mis trois points dans le panier, trop de distances, ils sont dégoûtés Coup de folie dans la soirée, un boug en sang, ça finit en couteau Et maintenant, y a des enfants, j'ai des mélo' pour vous, écoutez Impossible de faire changement, j'ai le brassard, c'est moi le buteur Eh-eh-eh Eh, ne fais pas genre tu m'aimes bien M'aime bien Ce que j'ressens, tu l'ressens au fond d'toi C'est triste à dire, devant les gens, on s'aime bien S'aime bien Ce que j'ressens, tu l'ressens au fond d'toi Eh-eh-eh Laisse-moi t'montrer un peu Ah-ah Laisse-moi t'montrer qui j'suis, laisse-moi faire le plein Ah-ah Laisse-moi faire les comptes, c'est notre avenir qui dépend Ah-ah Laisse-moi t'montrer qui j'suis Ah, laisse-moi faire le plein La vie nous rends meilleur quand on a rien programmé Programmé On le voit dans tes yeux si t'as touché cocaïne Ah-ah Quand je sors de la zone, j'entends Tiako', Bomayé Bomayé La vie nous rends meilleur quand on a rien programmé Ah-ah Eh Canon sur les épaules Yeah, yeah, yeah, yeah, pourquoi avoir besoin d'eux ? Pourquoi avoir besoin d'eux ? La nuit pour les étoiles Yeah, eh ou bien, pour voler la recette Ou bien Toute l'année, ça éteint des corps, vite, l'adresse, tu vas casse un tour, guette ma pièce, elle est pas ti-sor Grosse kichta qui dépasse, encore, qui dépense encore en bas Si ma vie, je la fais sans toi, en aucun cas, j'suis rien sans toi Venu, reparti, nourrit J'suis v'nu, j'ai rien demandé Le gros salaires d'un plug d'NBA Eh-eh Tout les jours, obligé d'courir Le son de l'Afrique à éblouir, avant que le mundo vienne s'écrouler Avant que le mundo vienne s'écrouler Ça fait longtemps qu'je n'ai plus pleurer Tant que les êtres sont pas déplorés J'avais toujours les ébats pourrit J'vais leur mettre un coup d'vapo' On dort tard, on s'réveille tôt Rien à craindre, j'suis pas une taupe, si tu pense que j'suis comme les autres Pas les autres Ne fait pas genre tu m'aimes bien M'aime bien Ce que j'ressens, tu le ressens pour toi C'est triste à dire, devant les gens, on s'aime bien S'aime bien Ce que j'ressens, tu le ressens pour toi Eh-eh-eh Laisse-moi t'montrer un peu Ah-ah Laisse-moi t'montrer qui j'suis, laisse-moi faire le plein Ah-ah Laisse-moi faire les comptes, c'est notre avenir qui dépend Ah-ah Laisse-moi t'montrer qui j'suis Ah, laisse-moi faire le plein La vie nous rends meilleur quand on a rien programmé Programmé On le voit dans tes yeux si t'as touché cocaïne Ah-ah Quand je sors de la zone, j'entends Tiako', Bomayé Bomayé La vie nous rends meilleur quand on a rien programmé Ah-ah</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>La clé</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Avant, j'avais pas confiance en moi mais là, p'tit à p'tit, ça va Après, j'ai des moments d'doute toujours, hein J'connais ma musique T'as capté ? Et j'ai tant redouté ce moment, j'y peux rien car maintenant, on y est Car maintenant, on y est Mais tu peux plus reculer, d'vant les keufs, le seul truc qu'il faut faire, c'est nier Le seul truc qu'il faut faire, c'est nier Je suis responsable de la maison Han-han, ma détermination avait raison Han-han J't'ai donné les clés de la maison Han-han, montre pas c'que tu fais sur les réseaux Hna-han Regarde-moi jusqu'à présent, jusqu'au 2.4.3, ça m'met la pression Bicrave deux-quatre mois, ça pue la prison, normalement, en deux-quatre-six, t'as la décision Regarde-moi jusqu'à présent, jusqu'au 2.4.3, ça m'met la pression Bicrave deux-quatre mois, ça pue la prison, normalement, en deux-quatre-six, t'as la décision Mais si y a l'occas', la mentale du ghetto, cartel Sinaloa, han-han Belek d'vant le pétard, ninguisa loketo, pour la vida loca, han-han Si jamais t'as l'occas', éloigne-toi, eh Éloigne-toi de tout ça Éloigne-toi de tout ça Si jamais t'as l'occas', éloigne-toi, eh Éloigne-toi de tout ça Éloigne-toi de tout ça Et j'ai tant redouté ce moment, j'y peux rien car maintenant, on y est Car maintenant, on y est Mais tu peux plus reculer, d'vant les keufs, le seul truc qu'il faut faire, c'est nier C'qui faut faire, c'est nier Je suis responsable de la maison Maison, ma détermination avait raison Avait raison J't'ai donné les clés de la maison Maison, montre pas c'que tu fais sur les réseaux Sur les résaux Regarde-moi jusqu'à Raison, j'avais raison Raison, j'avais raison Ah-ah Raison Ah, j'avais raison Ah-ah Raison, j'avais raison Moi Raison Ah, j'avais raison d'être là, d'être présent Ah à la maison Ah, ah Et j'ai tant redouté, car maintenant, on y est Raison, j'avais raison Tu peux plus reculer, le seul truc qu'il faut faire, c'est nier D'être là, d'être présent à la maison Je suis responsable de la maison, ma détermination avait raison Raison, j'avais raison J't'ai donné les clés de la maison, montre pas c'que tu fais sur les réseaux D'être là, d'être présent à la maison Regarde-moi Ah Raison Ah, j'avais raison D'être là, d'être présent Ah à la maison Moi Moi, j't'avais dit, tu m'as pas écouté Moi, j't'avais dit, tu m'as pas écouté La-la-la-la Moi, j't'avais dit, tu m'as pas écouté1</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>M3lo</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>XAVii Shiruken Music Hey Malgré les cernes, malgré les sommes, j'dois faire les sommes Remplir des salles, refaire du sale, refaire du son Sur les bleus, ça verse l'essence Ça a même pas commencé, ça veut tirer sur mon sort J'me suis même pas prononcé, je sais très bien comment c'est Si tu savais Oh, si tu savais Oh Trop d'fois où j'ai donné, trop d'fois où j'ai donné J'vois plus le Soleil, toute l'année, c'est l'hiver 'ver J'veux passer de deux à quinze Quinze j'suis passé de deux à quinze Quinze Bats les couilles d'leur histoire 'toire, j'suis venu marquer la mienne Mienne Laisse-les faire les Bobby, on sait y a qui sur le papier Y a que l'oseille pour nous soigner, c'est vrai qu'y avait qu'toi Mais si jamais, j'me fais coffrer, qui va payer mon toit, wesh ? Y a qu'ça pour me soigner, que ça pour m'soigner Que ça pour m'soigner, que ça pour m'soigner Han J'ai remis la tenue pour zoner, j'ai remis les gants pour missionner Évidemment, j'suis sonné, j'ai remis les pour missionner Ça commence par Comment ça ? Quand tu vois les choses qu'on peut pas consommer Ça finit en massacre Et le bruit du pétard pour s'consoler Toujours des Comment ça ? Quand tu vois des choses qu'on peut pas consommer Ça finit en massacre Et le bruit du pétard pour s'consoler Toujours des Comment ça ? Malgré les cernes, malgré les sommes, j'dois faire les sommes Remplir des salles, refaire du sale, refaire du son Sur les bleus, ça verse l'essence Ça a même pas commencé, ça veut tirer sur mon sort J'me suis même pas prononcé, je sais très bien comment c'est Han-na-na-na Ouh1</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>M4rio de Kin</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Bandit d'la ville Mario, bandit d'la ville Mario, bandit d'la ville Fait confiance à personne, même à tes amis, eh Mario, bandit d'la ville Mario, bandit d'la ville Mario, bandit, eh Mario, bandit d'la ville Mario, bandit, eh Mario, bandit d'la ville Mario, bandit, eh C'est pas ton ami Mario, bandit, eh Bang, bang Hum-hum Bang, bang Hum-hum Bang, bang Hum-hum Bang, bang Hum-hum Bang, bang Hum-hum Bang, bang Hum-hum Bang, bang Hum-hum Bang, bang Hum-hum Gang, gang, gang, gang, gang Mario, bandit d'la ville, Mario a tué des gars dans la ville Beaucoup de personnes ont perdu la vie, beaucoup de personnes ont perdu la vie Beaucoup de personne Mario, bandit d'la ville, regarde devant, s'en fout des avis Midi-minuit, il bicrave tout les jours Skurt, Mario veut devenir patron du four, eh Skurt, skurt Joint sur joint, Mario, attention, mets plein tes joints Pleure pas si tu fait face au gens, dans son équipe, pas d'comédiens, han-han Fin d'journée, il veut sa paye en fin d'journée Beaucoup de papiers, meurt pour le papiers Veut quitter l'cartel pour Abidjan, han-han Mario, bandit, eh Mario, bandit d'la ville Mario, bandit, eh Mario, bandit d'la ville Mario, bandit, eh C'est pas ton ami Mario, bandit, eh Bang, bang Hum-hum Bang, bang Hum-hum Bang, bang Hum-hum Bang, bang Hum-hum Bang, bang Hum-hum Bang, bang Hum-hum Bang, bang Hum-hum Bang, bang Hum-hum Gang, gang, gang, gang, gang Sa copine voulait l'amadouer, elle voulait aussi la bague au doigt Skurt, skurt Sentiments, Mario n'est pas doué, lui, c'est la street, il aime bien joué Et quand elle demande C'est qui veut sa petite ?, lui, c'est la street, il aime bien jouer Comment lui dire ? Comment l'avouer, qu'il pense à autre chose, qu'il veut pas s'poser ? Il cellophane tout les produits qu'on lui a donner Dégaine juste pour la famille, lui, dégaine juste pour la monnaie Il cellophane tout les produits qu'on lui a donner Dégaine juste pour la famille, lui, dégaine juste pour la monnaie, hey Mario, bandit, eh Mario, bandit d'la ville Mario, bandit, eh Mario, bandit d'la ville Mario, bandit, eh C'est pas ton ami Mario, bandit, eh Bang, bang Hum-hum Bang, bang Hum-hum Bang, bang Hum-hum Bang, bang Hum-hum Bang, bang Hum-hum Bang, bang Hum-hum Bang, bang Hum-hum Bang, bang Hum-hum Abidjan, ça va vite, on fait ça Toujours l'amour du pays, ils savent très bien, ça ment pas À la fin, j'veux m'installer avec les rents-pa Et pour l'amour du pays, ils savent très bien, ça ment pas Abidjan, ça va vite, on fait ça Toujours l'amour du pays, ils savent très bien, ça ment pas À la fin, j'veux m'installer avec les rents-pa Et pour l'amour du pays, ils savent très bien, ça ment pas</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>MANON B</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Trois fois canon, Didi Stone Faites place à la Fashion Street, doigt d'honneur pour la photo d'presse J'vais te poser la question qui fâche T'as porté les habits à qui pour fèche ? Parlons français, parlons french, aujourd'hui, faut qu'tout l'monde le sache Détaché, faudrait juste qu'on s'lâche, fait pas rodave ma fucking face Elle a le goût d'un Paris-Brest, pour l'avoir, il faut être en place Pour une longue relation, faut qu'j'encaisse, pour une longue relation, faut qu'j'encaisse Pour une longue Manon Bresch, Manon Bresch, tu m'fais penser à Manon Brsch Manon Bresch, Manon Bresch, fais-moi rêver, Manon Brsch On franchit les obstacles 'stacles, ta bitchies nous observes 'serves Dégaine la bonne 'teille Jack, elle aime c'qui la rend sexy Jack, Jack Deux-trois millions, j'connais mon football, j'fais partir des grammes Eh Qu'est c'que ça datait la fierté des nôtres, ceux qui font les méchants sont dev'nu mignons, yeah, yeah Temps en temps Temps en temps, deux-trois sacs LV et Prada Prada Taille mannequin, c'est ma diva, trois fois canon, Didi Stone Finir comme papa en full Weston Full Weston, j'écris l'histoire comme les Rolling Stones Rolling Stones J'ai rendez-vous à l'hôtel Hilton, j'connais l'milieu, tu m'étonnes pas Ah-ah Ma chérie, j'peux t'faire des dégâts, si seulement tu savais Pah, pah, pah, pah Ma chérie est canon, yeah, yeah, Tina Kunakey Pah, pah, pah, pah Mes shooters viennent directement de Guinée Conakry Pah, pah, pah, pah J'ai traîné en bas, la nuit, j'peux pas dire c'qu'on a fait Putarina, prends ton time, faut pas qu'ils nous remonte, aïe Ah Eux et nous, ça a rien à voir, moi, je préfère quand tu vai Vai, vai, vai, vai, vai, vai, va-va-va-vai Putarina, prends ton time, putarina Faites place à la Fashion Street Fashion Street, doigt d'honneur pour la photo d'presse Photo d'presse J'vais te poser la question qui fâche Qui fâche T'as porté les habits à qui pour fèche ? Qui pour fèche Parlons français, parlons french Parlons french, aujourd'hui, faut qu'tout l'monde le sache Le sache Détaché, faudrait juste qu'on s'lâche Juste qu'on s'lâche, fait pas rodave ma fucking face Fucking face Elle a le goût d'un Paris-Brest Paris-Brest, pour l'avoir, il faut être en place Pour une longue relation, faut qu'j'encaisse, pour une longue relation, faut qu'j'encaisse Manon Bresch, Manon Bresch Manon Bresch, tu m'fais penser à Manon Bresch Manon Bresch, Manon Bresch Manon Bresch, tu m'fais penser à Manon Bresch Yeah, yeah Elle est trois fois canon, Didi Stone Eh-eh-eh, elle est trois fois canon, Didi Stone Non, ah-ah-ah Trois fois canon, Didi Stone Elle est trois fois canon, Didi Stone</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MANON B (Brazilian Remix)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Trois fois canon, Didi Stone Faites place à la Fashion Street, doigt d'honneur pour la photo d'presse J'vais te poser la question qui fâche, t'as porté les habits à qui pour fèche ? Parlons français, parlons french, aujourd'hui, faut qu'tout l'monde le sache Détaché, faudrait juste qu'on s'lâche, fait pas rodave ma fucking face Elle a le goût d'un Paris-Brest, pour l'avoir, il faut être en place Pour une longue relation, faut qu'j'encaisse, pour une longue relation, faut qu'j'encaisse Pour une longue Manon Bresch, Manon Bresch, tu m'fais penser à Manon Brsch Manon Bresch, Manon Bresch, fais-moi rêver, Manon Brsch On franchit les obstacles 'stacles, ta bitchies nous observes 'serves Dégaine la bonne 'teille Jack, elle aime c'qui la rends sexy Jack, Jack Deux-trois millions, j'connais mon football, j'fais partir des grammes Eh Qu'est c'que ça datait la fierté des nôtres, ceux qui font les méchants sont devenu mignons, yeah, yeah Temps en temps Temps en temps, deux-trois sacs LV et Prada Prada Taille mannequin, c'est ma diva, trois fois canon, Didi Stone Finir comme papa en full Weston Full Weston, j'écris l'histoire comme les Rolling Stones Rolling Stones J'ai rendez-vous à l'hôtel Hilton, j'connais l'milieu, tu m'étonnes pas Ah-ah Ma chérie, j'peux t'faire des dégâts, si seulement tu savais Pah, pah, pah, pah Ma chérie est canon, yeah, yeah, Tina Kunakey Pah, pah, pah, pah Mes shooters viennent directement de Guinée Conakry Pah, pah, pah, pah J'ai traîné en bas, la nuit, j'peux pas dire c'qu'on a fait Putarina, prends ton time, faut pas qu'ils nous remonte, aïe Ah Eux et nous, ça a rien à voir, moi, je préfère quand tu vai Vai, vai, vai, vai, vai, vai, vai, va-va-va-vai Putarina, prends ton time, putarina Faites place à la Fashion Street Fashion Street, doigt d'honneur pour la photo d'presse Photo d'presse J'vais te poser la question qui fâche Qui fâche, t'as porté les habits à qui pour fèche ? Qui pour fèche Parlons français, parlons french Parlons french, aujourd'hui, faut qu'tout l'monde le sache Le sache Détaché, faudrait juste qu'on s'lâche Juste qu'on s'lâche, fait pas rodave ma fucking face Fucking face Elle a le goût d'un Paris-Brest Paris-Brest, pour l'avoir, il faut être en place Pour une longue relation, faut qu'j'encaisse, pour une longue relation, faut qu'j'encaisse Manon Bresch, Manon Bresch Manon Bresch, tu m'fais penser à Manon Bresch Manon Bresch, Manon Bresch Manon Bresch, tu m'fais penser à Manon Bresch Yeah, yeah Elle est trois fois canon, Didi Stone Eh-eh-eh, elle est trois fois canon, Didi Stone Non, ah-ah-ah Trois fois canon, Didi Stone Elle est trois fois canon, Didi Stone Ei, Tiako', tô por aqui Como que tá? Bonjour, merci Conexão com a minha favela Anota aí que eu vou Que eu vou Hoje tá aplaudindo, quem um dia me tirou Mas na fita, na pista 'cê sabe qual a louca localiza Só kit bate ponto, é nóis bandido Várias água passada nessa louca vida Então nem tenta, coração maloca vagabundo Alcançando as parada' nesse mundo Que eu nem acreditei chegar, ah-ah Meu Deus que conduz com fé O que tiver que ser meu já é Pra pilantra safado, comédia enrustido Vai ter tudo que voltar de ré Bailão, bailão, bailão, bailão De cantin', posturadão Bailão, bailão, bailão, bailão De cantin', conta a visão</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Mayday</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Bande de fous, eh Des armes, eh Viens, on dépose les armes, eh T'es qui pour donner des ordres ? Eh Encore toi, Davy One Encore toi, Davy One Eh, eh Viens, on dépose les armes, viens, on discute, on parle comme des hommes, eh Enfant au fond d'la classe, j'ai toujours fait les choses dans l'désordre, eh On t'refait tout l'décor et t'es qui pour nous donner des ordres ? Eh Eh, oh-oh-oh Oh, oh, oh Tu sais pas à quel point que j'ressens tant de mea culpa Insouciamment, je ne m'inquiète pas, j'ai coffré l'argent là-bas, quelque part J'ai beaucoup de papel, j'vis pour le papier, on va te Piou-piouh si tu nous payes pas C'est le ghetto, tout l'monde du bédo, ça fait des dingueries, dingueries, bientôt J'marche dans l'vide Où je vais, là j'marche dans l'vide où je vais J'marche dans l'vide où je vais, là j'marche dans l'vide où je vais J'marche dans l'vide où je vais, là j'marche dans l'vide où je vais J'marche dans l'vide, là j'marche dans l'vide où je vais Mmh-mmh J'ai eu c'que j'voulais Han, han, han Au final, j'ai pas die, j'ai eu c'que j'voulais Au final, j'ai pas die, j'ai eu c'que j'voulais Au final, j'ai pas pleuré, j'ai eu c'que j'voulais Des millions et des milliers, c'est tout c'qu'on voulait Au final, j'ai pas die, j'ai gagné la bataille Han, han, han J'ai eu c'que j'voulais Tout c'que j'voulais, au final, j'ai pas pleuré Au final, j'ai pas pleuré, han, han, han J'ai eu c'que j'voulais Ra-ta-ta-ta, des millions et des milliers Des milliers de tales, han, han, han C'est tout c'qu'on voulait Tu connais ton gars, au final, j'ai pas dormi Au final, j'ai pas ronflé, han, han, han J'ai eu c'que j'voulais J'ai eu c'que j'voulais, han, han, gan J'ai eu des idées le soir de quitter le square pour marquer l'histoire Pas d'envie d'arrêter quand je parle, quand on m'verra, frère, dans le coupé sport J'voulais tout, lui il voulait tout donc on baisait tout, c'était eux contre nous Avec le buzz, j'ai fait beaucoup d'tours, remercie Dieu si c'est pas ton jour Wesh Bné, ça dit quoi mon reuf ? Quel bail ? J'remets tout en ordre sur mon tableau d'bord Le brava est long comme le chapeau d'paille, la copine est fraîche mais a plusieurs bords Oseille tout c'qui m'intéresse, l'argent de Jorge Mendes Oseille tout c'qui m'intéresse, l'argent de Jorge Mendes Ça fait des années que je traverse toutes ces années en bas Ça fait des années que je traverse toutes ces années en bas Ça fait des années Ça fait des années que je traverse toutes ces années en bas Au final, j'ai pas die Han, han, j'ai eu c'que j'voulais Au final, j'ai pas die, j'ai eu c'que j'voulais Au final, j'ai pas pleuré, j'ai eu c'que j'voulais Des millions et des milliers, c'est tout c'qu'on voulait Au final, j'ai pas die, j'ai gagné la bataille Han, han, han J'ai eu c'que j'voulais Tout c'que j'voulais, au final, j'ai pas pleuré Au final, j'ai pas pleuré, han, han, han J'ai eu c'que j'voulais Ra-ta-ta-ta, des millions et des milliers Des milliers de tales, han, han, han C'est tout c'qu'on voulait Tu connais ton gars, au final, j'ai pas dormi Au final, j'ai pas ronflé, han, han, han J'ai eu c'que j'voulais J'ai eu c'que j'voulais, han, han, gan J'ai gagné la bataille J'ai eu c'que j'voulais Au final, j'ai pas pleuré Ra-ta-ta-ta Des milliers de tales Tu connais ton gars Encore toi, Davy One Encore toi, Davy One Mayday, mayday, y a personne qui m'aide Et quand j'ai crié Mayday, mayday, y a personne qui m'aide Et quand j'ai crié Mayday, mayday, y a personne qui m'aide Et quand j'ai crié Mayday, mayday, y a personne qui m'aide Et quand j'ai crié Mayday, mayday, y a personne qui m'aide Et quand j'ai crié Mayday, mayday, y a personne qui m'aide Et quand j'ai crié, là j'les ai tous grillé Et quand j'ai crié Mayday, mayday, y a personne qui m'aide Y a personne qui m'aide, y a personne qui m'aide Et quand j'ai crié Mayday, mayday Et quand j'ai crié Mayday, mayday</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Meuda</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ah-ah-ah On va les attendre, pas faire couler l'sang Attendre et faire doucement On va les attendre sans menacer, oh Le sable tombe, recommencer, c'est mort Y a que Dieu qu'j'adore, un selfie et j'rigole J'veux pas être ton idole mais ton inspiration Mais sache-le, qu'un dernier message, qu'un dernier messag peut t'enlevr la vie Eh J'suis dans Paname Gamberge, y a pas d'distraction Nan, nan, nan Fais pas d'histoires, sors Hey, ici à dix heures right now Ça vend la beuh d'Meuda Meuda, c'est l'heure des gérants Y a des armes de poing Poing et des fusils d'assaut Oh, ah Oh, ah Ça pose des bangers vers Meuda, un coup d'fil pour faire un murder Ils savent qu'on est prêt pour un murder Pour un murder Oh, ah, besoin d'personne pour nous aider, besoin d'personne pour nous aider C'est pas avec la force qu'on va céder Qu'on va céder On a quitté la table, ils ont fait des enquêtes, on a fait des jaloux Oh, oh, oh, oh Laisse-moi me taper des barres quand j'entends qu'ils disent L'avenir est à nous Oh, oh, oh, oh On a vidé des sacs, ils ont vidé leurs poches, on a repris le Glock Glocka, Glocka Avant d'être une re-sta, avant d'être La Mélo', j'suis un enfant du bloc Du bloca, bloca Ici, on s'promène pas deux fois, écoute bien, on s'répète pas deux fois Sur l'terrain, j'ai marqué des fois, au studio, je fais plus de deux voix M'apprends rien, j'connais mes devoirs, j'ai tout vu avant de recevoir Logique, j'peux pas vous décevoir, hey J'suis dans Paname Dans Paname, y a pas d'distraction youh Fais pas d'histoires, sors ici à dix heures Ça vend la beuh d'Meuda Meuda, c'est l'heure des gérants Y a des armes de poing Poing et des fusils d'assaut Oh, ah Oh, ah Ça pose des bangers vers Meuda, un coup d'fil pour faire un murder Ils savent qu'on est prêt pour un murder Pour un murder Oh, ah, besoin d'personne pour nous aider, besoin d'personne pour nous aider C'est pas avec la force qu'on va céder Qu'on va céder On vit, on dort la noche, parfois, on est dans l'mal mais y a que Dieu pour nous sauver Pour nous sauver, pour nous sauver Pas l'temps pour les regrets, y a pas d'retour en arrière, le passé, c'est le passé Elle est v'nue pour whine up, elle veut l'padre Elle a posé son phone-tél', elle veut pas oublier Plein de blèmes-pro, la tess, loin d'l'espace Sur une planète, j'te ramène, là J'suis dans Paname It's now my flow, Oathmademedoit Pas d'histoires, sors, ici à dix heures Ça vend la beuh d'Meuda, c'est l'heure des gérants Y a des armes de poing et des fusils d'assaut, oh, ah2</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Mise en garde</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Oh, oh, c'est carré quand c'est Bloody Ma chérie veut du Gucci Gucci ou Dolce Gabbana 'bana, 'bana Je vis comme si j'ai pas un Pas un, pas un, j'ai d'l'argent mais j'le vois pas Vois pas Quand j'suis mal, je te vois pas Vois pas, sur du Bloody ou du Guapo Guapo J'me balade sur toutes les prods, à se-l'ai au studio, phénomène est la mélo' Oh-oh Wesh les mecs, faut qu'j'les baise ou pas ? Baise ou pas ? Vu nos têtes, on est tous coupables Tous coupables Réfléchir, tu n'as pas besoin Tu n'as pas besoin, on connaît déjà l'résultat Résultat Wesh les mecs, faut qu'j'les baise ou pas ? Baise ou pas ? Vu nos têtes, on est tous coupables Tous coupables Réfléchir, tu n'as pas besoin Tu n'as pas besoin, on connaît déjà l'résultat Résultat Yeah, même si j'ai d'l'argent, j'vis comme si j'avais pas Comme si j'avais pas Même si j'ai d'l'argent, j'vis comme si j'avais pas Les mecs, faut qu'j'les baise ou pas ? Baise ou pas Vu nos têtes, on est tous coupables On est tous coupables Réfléchir, tu n'as pas besoin Pas besoin, on connaît déjà l'résultat, han Mise en garde Oh, mon frère, tu es mise en garde Oh Mise en garde Oh, ma chérie, tu es mise en garde Oh Mise en garde Oh, mon frère, tu es mise en garde Oh Mise en garde Oh, ma chérie, tu es mise en garde Tellement de faux qu'on a mis en garde, faut les reprendre, les remettre en place C'est comme ça si tu montes en grade, ils font les vrais, c'est qu'les plus anciens Un peu d'dinguerie j'ai envie, maman sur moi n'est pas gentille Papa sur moi n'est pas gentil, si j'cartonne, y a pas de garantie Y a pas de ga- Wesh les mecs, faut qu'j'les baise ou pas ? Baise ou pas ? Vu nos têtes, on est tous coupables Tous coupables Réfléchir, tu n'as pas besoin Tu n'as pas besoin, on connaît déjà l'résultat Résultat Wesh les mecs, faut qu'j'les baise ou pas ? Baise ou pas ? Vu nos têtes, on est tous coupables Tous coupables Réfléchir, tu n'as pas besoin Tu n'as pas besoin, on connaît déjà l'résultat Résultat Elle veut son sac, elle m'appelle Bébé Chaque minute, elle m'dit S'te-plaît, s'te-plaît Elle veut son sac, elle m'appelle Bébé Chaque minute, elle m'dit S'te-plaît, s'te-plaît Mise en garde Oh, mon frère, tu es mise en garde Oh Mise en garde Oh, ma chérie, tu es mise en garde Oh Mise en garde Oh, mon frère, tu es mise en garde Oh Mise en garde Oh, ma chérie, tu es mise en garde</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Mode AV</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Eh, de la B, eh Oh-oh, oh-oh, oh-oh, oh-oh Hey Oh-oh, oh-oh, oh-oh, oh-oh La mélo' est gangx Bye Oh-oh, oh-oh, oh-oh, oh-oh Sale À tous les coups, on mange, on laisse jamais le reste Hey, hey, hey, y a rien à gratter Ils veulent nous salir pour qu'les humains nous détestent, brr, brr Un coup d'un soir mais j'veux même pas d'elle, en vrai Nion, nion, finir en TT Et toute la soirée, elle m'voyait dans sa tête Joue pas les bandits, s'tu veux, on t'éteint, toujours en détente, toujours en détente Jamais J'ai pas b'soin d'temps d'jeu, j'suis sur le terrain, attaquant, défense, Matuidi Charo J'ai trop le démon et puis, elle s'demande Comment je débite ? Comment je fais ? Comment j'les finis ? Comment je blesse ? Y a trop de Gucci, combien j'encaisse ? À la base Charo, j'ai capté le vice Vice, t'sais qu'on est discrets sur nos dièses Dièses J'ai gardé mon flingue sur la piste Piste, ils font les padre, c'est nos fils Fils, hey, hey, hey Que du bénéfice, on pull up, on fait ça bien On pull up, on fait ça bien, la petite sourit jusqu'au lendemain, ah-ah Sale J'suis dirigé vers la file de gauche Hey, hey, hey, côté passager, y a des mexicaines On reçoit plus d'oseille, plus de go, j'ai perdu patience, envoie mes tickets Belek, ta vie défile en moto Nion, bang-bang, nion, après le bang-bang, y a pas d'retour Tout dans l'obscur, on n'aime pas s'montrer, jamais, jamais Jamais, jamais on va donner Jamais, jamais, ça m'harcèle toute la journée et sur mon téléphone Brr Allô ? Alors ? C'est qui qui veut nous soulever ? Allô ? Allô ? Va falloir tirer sur eux, faut chasser les étrangers Faut toujours y croire, l'avenir, mes Gaz' mais souvent, j'me demande ce que j'fais là Partout où j'vais, j'ai du BSB, comme Hov et Roc-A-Fella Trop vendu sur le rrain-te, ça y est, j'ai fait mon temps comme Nani Dans l'game, beaucoup trop d'baby, R.I.P Super Nanny Stick, liasses, billets j'attache, obligé car on doit être en place Mais dans le froc, plus de place, j'appelle mon petit qui le déplace Et dans leur gang, y a que des lâches Hey, ces négros donnent des blases, sont pas là quand j'suis pas bien S'ront pas là quand j's'rais ieux-v' Allô ? Allô ? Allô ? Allô ? Allô ? J'réponds pas Allô ? Allô ? Allô ? Allô ? Allô ? J'réponds pas Sale J'suis dirigé vers la file de gauche Hey, hey, hey, côté passager, y a des mexicaines On reçoit plus d'oseille, plus de go, j'ai perdu patience, envoie mes tickets Belek, ta vie défile en moto Nion, bang-bang, nion, après le bang-bang, y a pas d'retour Tout dans l'obscur, on n'aime pas s'montrer, jamais, jamais Jamais, jamais on va donner Jamais, jamais, ça m'harcèle toute la journée et sur mon téléphone Brr Allô ? Alors ? C'est qui qui veux nous soulever ? Allô ? Allô ? Va falloir tirer sur eux Allô ?, faut chasser les étrangers Oh non, non Oh non, non Oh non, non2</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>NO LIMIT</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Yeah Mmh, nan, nan, nan, nan, nan, nan, nan Dany Synthé, Synthé Allez bougoutchoukou Du boulot y en a beaucoup du coup Repos j'en n'ai plus, faut fermer des bouches Moulala, moulala, j'en veux beaucoup, beaucoup Pour faire rentrer, faut rester debout Comme toi, la vida m'a mis des coups Oulala, j'en ai beaucoup du coup Ah, ah, no, no, no Oulala, poussez-vous, j'viens les bougoutchoukou Yeah, yeah, yeah J'viens faire le beau jeu comme brésilien Samba, plan masqué comme cartel mexicain Ouh Que du taff, y a rien d magique, j'ai Bakole comme Martin dvant l'américain Pah, pah, crime Le soir, je m'endors les rêves pleins la tête, depuis tit-pe, j'me bats pour y accéder Trop d'amour dans mes shows pour me booster, fatigué, j'continuerai même fatigué Hey et tu sais c'qu'on n'aime pas ? Sais c'qu'on n'aime pas Grandi dans street donc tu lis la notice Lis la notice Un peu de joie quand tu vas sur la piste, c'qu'on a fait, c'qu'on a fait grâce à la vie d'artiste Bled dans le mal, voilà ce qui m'attriste Bled dans le mal, dans le mal, j'vois beaucoup mieux la Matrix Mics et les macs dans les vices, mics et, mics et les macs dans les vices Mmh, mmh, mmh, chérie laisse ça Laisse ça, nan, nan, nan, j'ai plus l'temps de jouer à ça Dans ma vie, j'ai des loves, j'ai des loves, j'ai des loves et j'ai reçu, j'ai vu qu'c'était que de passage Ils voient qu'un côté dans le succès Ils voyent qu'un côté, lumière éteinte, plus d'artiste, mec C'est noir Seul tracas et prières pour me vider la tête De l'ambiance en soirée, dans nos week-ends, que du love, la caillé dans nos dégaines Elle s'attache, je veux d'l'oxygène, ils savent qu'on est bre-som quand on dégaine Sur le corner numéro seven sur le maillot, té-ma comment j'les gêne L'avenir ne peut être que pérenne quand on grandit avec tous les Seben Yeah, yeah Allez bougoutchoukou Du boulot y en a beaucoup du coup Repos j'en n'ai plus, faut fermer des bouches Moulala, moulala, j'en veux du coup Pour faire rentrer, faut rester debout Comme toi, la vida m'a mis des coups Oulala, j'en ai beaucoup du coup Oulala, poussez-vous, j'viens les bougoutchoukou Yeah, yeah Yeah, yeah, j'empile liasse de billets tous les jours J'ai cessé d'roupiller tous les jours Quand le chat n'est pas là, forcément les souris dansent J'accumule les récompenses J'suis en plein dans ma vocation, j'suis en plein dans ma vocation 'cation, yeah, baby voudrait des vacation 'cation, yeah Rien qu'elle, rien qu'elle, olala, elle m'harcèle avec staycation Si tu connais le G.O.A.T, tu sais qu'il est dans sa fast life Trop stylé, aucun fashion faux pas, elle m'dit qu'autour de moi y a trop d'wife Wife, trop d'wife La même mental' que Franklin, no limit, no limit, no limit Ah, no limit Opps pas d'taille, igo j'élimine Ah, j'élimine, j'élimine, j'élimine, j'élimine La même mental' que Franklin Saint, j'élimine, j'élimine, j'élimine No limit, no limit, no limit, opps pas d'taille De l'ambiance en soirée, dans nos week-ends, que du love, la caillé dans nos dégaines Elle s'attache, je veux d'l'oxygène, ils savent qu'on est bre-som quand on dégaine Sur le corner j'suis en seven sur le maillot, té-ma comment j'les gêne L'avenir ne peut être que pérenne quand on grandit avec tous les Seben No, no Allez bougoutchoukou Du boulot y en a beaucoup du coup Repos j'en n'ai plus, faut fermer des bouches Oulala, oulala, beaucoup, beaucoup Pour faire rentrer, faut rester debout Comme toi, la vida m'a mis des coups Allez, allez bougoutchoukou Du boulot y en a beaucoup du coup, beaucoup du coup Allez bougoutchoukou Vocation, yeah Allez bougoutchoukou Vacation, yeah Fermer des, fermer des bouches Oh, oh, oh Beaucoup, beaucoup Oh, oh, oh, oh Rester debout Vocation, yeah M'a mis des coups Vacation, yeah Allez bougoutchoukou, beaucoup du coup, beaucoup du coup1</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Parapluie</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Les valeurs passent avant la hype Hype, la valise passe devant la douane Douane Ne jamais brûler les étapes Han, surtout, quand on connaît son toit Toit On s'rassure en disant qu'on a qu'une vie Vie, surtout, quand on est mal Mal La France avait besoin de moi Moi, donc rajoute une troisième étoile Ouais, ouais, ouais, ouais J'en ai eu des grosses pertes Grosses pertes, tranquille, je f'rai pas de constat Constat Devenu un moteur Moteur, que du taffe, jamais de non-stop Non-stop Abandonner, j'ai mis trop d'temps, donc avant d'aller, j'ai réfléchi Réfléchi Avant la nuit, je me suis dit J'peux pas abandonner tous mes obstacles Dans les bons moments, on se souhaite la santé Santé, aujourd'hui, ça d'vient un problème Mais faut détendre l'atmosphère quand y a pas ma te-tê sur les hautes sphères Bien ressentir c'que je pensais, j'aimerais bien revoir tout c'qui s'est passé Passé L'avenir est déjà tracé, ne sois pas surpris devant la transac' Transac', pas un mot Ils valident c'qu'on fait, c'est du ce-vi Ce-vi, pas besoin de faire un movie Movie Ça débite toute l'année sous COVID Hum, débite Et ceux qui pensent qu'on allait dévier, t'inquiète pas, on reçoit des devis Hum, devis Devant la police, devient novice Novice, j'suis l'Real Madrid, j'suis le Nueve Nueve C'est vrai qu'on s'arrête plus, le gamos est rapide Vroum Dehors, il pleut des balles, j'ai d'jà prévu mon parapluie C'est vrai qu'parfois, on s'est raté, souvent, on s'est retenu Elle veut qu'j'lui mette la bague mais j'suis resté sur mes appuis J'attends pas tout ça pour qu'on m'respecte, moi Et pour notre bien, s'te-plaît, reste loin d'moi Au final, je dois que compter sur moi Et pour notre bien, s'te-plaît, reste loin d'moi Au final, je dois que compter sur moi C'est vrai qu'on s'est raté Ah, ah, ah Souvent, on s'est retenu Ah, ah, ah Ils veulent me faire la bise, j'veux pas leur faire, rien à foutre, j'suis pas des leurs Que des méchants caractères, c'est dans la tête, c'est ça le thème J'arrive avec un nouveau geste pour faire du bruit dans l'stade Faire du bruit dans l'stade Ils disent que ça les dérange quand tu fais pas d'stats Quand tu fais pas d'stats Ils croquent la pomme, laisse les croire, ils font pas l'poids Toutes les blessures sont dans l'dos, tous les outils sont dans l'coffre Fais gaffe à cette sale vie, car c'est toujours le proche, celui qui t'offre J'parle même pas de ceux qui doivent tous ces sous et font la teuf Essaye de temporiser Mmh-mmh et j'me sens pas chez moi Mmh-mmh Dehors, il pleut, il faut rien laisser Mmh-mmh mais j'ai coffré mon parapluie Yah-ah Everyday, on a zoné Han, on peut pas rester à la son-mai Han Le prix du bail va te choquer Han, vaut mieux qu'tu restes sur les prix soldés Han La récompense du Boy Golden Han, la petite a sortie l'décolleté Han-han Pas d'humeur sont mes soldats Han, tranquille, mettez vous sur le côté C'est vrai qu'on s'arrête plus Ouh, le gamos est rapide Vroum Dehors, il pleut des balles, j'ai d'jà prévu mon parapluie C'est vrai qu'parfois, on s'est raté, souvent, on s'est retenu Elle veut qu'j'lui mette la bague mais j'suis resté sur mes appuis J'attends pas tout ça pour qu'on m'respecte, moi Et pour notre bien, s'te-plaît, reste loin d'moi Au final, je dois que compter sur moi Et pour notre bien, s'te-plaît, reste loin d'moi C'est vrai qu'on s'arrête plus, le gamos est rapide Dehors, il pleut des balles, j'ai d'jà prévu mon parapluie C'est vrai qu'parfois, on s'est raté, souvent, on s'est retenu Elle veut qu'j'lui mette la bague mais j'suis resté sur mes appuis J'attends pas tout ça pour qu'on m'respecte, moi Et pour notre bien, s'te-plaît, reste loin d'moi Au final, je dois que compter sur moi Et pour notre bien, s'te-plaît, reste loin d'moi Va pas manger la gamelle, dehors, il pleut, tu sais qu'c'est la galère Voyoucratie, y en a pas l'air, on leur donnerait sûrement pas l'heure Une maison dans un palais pour coffrer la mère à palais Coffrer la mère à palais, c'qu'elle me demande à l'niveau d'un salaire1</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>PING PONG</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Affaire de mélo', kilos de gue-dro, charo', faut pas nous mélanger Un coup de main, beaucoup de pélos et l'argent vient nous déranger T'es pas dans les armes ni dans les affaires, ne dis pas que tu t'es rangé Envoie du doré, envoie du platine sinon on vient tout arracher Hey Elle m'a vu menotté, je la r'garde plus dans les yeux Regarde plus dans les yeux, han, han Elle m'a dit Fais ta life, j'lui ai dit Ok ok Ok ok Et comme j'suis dégouté, je ne parl plus trop avec eux Ouais J'vis ma best lif, V12 Mmh, mmh, mmh Tranquille on fait kiffer la ville La ville, disque d'or bien reçu dans la ville Han, han C'lui qui descend pendant qu'on navigue On navigue ne remontera pas dans l'navire On survit dans le binks, on s'prend même plus la tête, ont voulu nous la mettre mais on a connu pire Pas grave si j'finis sans lacet sur ma paire Sur ma paire, sur ma paire Huhuhun Hun hun hun hun Hun hun hun hun hun huhun Hun hun hun hun hun huhun Hun hun hun hun hun huhun J'ai touché-coulé Mec j'ai touché-coulé Hun hun hun hun Hun hun hun hun hun huhun Hun hun hun hun hun huhun Hun hun hun hun hun huhun Donc j'ai touché-coulé Hun hun hun hun Hun hun hun hun hun huhun Hun hun hun hun hun huhun Hun hun hun hun hun huhun À la muerte on s'allie, j'viendrais pull-up tous ceux qui nous salissent Ouais, ouais, ouais, ouais, ouais Les pieds dans le business, ma SACEM s'occupe de la famille La monnaie dans la valise La monnaie dans la valise, et tant pis si tu valides pas Et tant pis si tu mmh, mmh, mmh Font les sourds quand je criais mayday, sont tous à l'écoute de mon futur Sur les réseaux c'est des bluffeurs, ils ont pas goûté l'odeur du secteur Ils ont grandi que dans la hype, non, ils ont pas grandi dans la zone, non Après avoir fais les choses en grand, j'me demande si j'suis fier de moi Devant ces entrées d'argent, nostalgique, je repense au point d'départ Quand j'disais j'suis dans la ville, ma vie-vie, ma reine Ah, ah, ah, ah Je sais qu'les temps sont difficiles mais faut faire avec Ah, ah, ah, ah Mais oublie pas tout c'qu'on disait Ah, ah, ah, ah, dans mon cur t'es immunisée Hun hun hun hun Hun hun hun hun hun huhun Hun hun hun hun hun huhun Hun hun hun hun hun huhun Hun hun hun hun Hun hun hun hun hun huhun Hun hun hun hun hun huhun Hun hun hun hun hun huhun J'suis dans la ville, ma vie-vie, ma reine Je sais qu'les temps sont difficiles mais faut faire avec Mais oublie pas tout c'qu'on disait, dans mon cur t'es immunisée J'suis dans la ville, ma vie-vie, ma reine Je sais qu'les temps sont difficiles mais faut faire avec Mais oublie pas tout c'qu'on disait, dans mon cur t'es immunisée He's been good to me He's been so good to me So good</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>PLAISIR NOCIF</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Boumi' You know, I don't like to do that Quand j'te parle de Paname, j'te parle de pe-sa, tu m'parles du passé Moi j'te parle de placer, d'mes envies de remplir Bercy Quand je sors de Paname, j'suis sans état d'âme, j'suis venu pour manger Yih, yih, yih On peut tous se venger, en vérité, j'ai pas peur du danger Bien lisse Nan, dis pas mon prénom, 6 du mat', j'suis debout L'OPJ prend des notes, on t'questionne, tu dénonces Quand j sors de Paname Yih, yih, j'suis sans état d'âme, j'suis vnu pour manger On peut tous se venger, en vérité, j'ai pas peur du danger Bien lisse, yeah, sku Sans forcer moi j'ai la tech' Yih, yih, yih, j'peux fesh en Adidas ou Nike Tech, okay J'suis dans mon délire en chef, no cap Pow, pow, j'suis resté habile et focus, tu captes ? Venir en fou dans ma tess', t'es bête, t'arrives en gamos, tu repars à pattes Ma chérie, t'es fraîche et t'es Ma chérie t'es fraîche et t'es, ma chérie, t'es fraîche et t'es Yih, pow Qui veut jouer à la vache Qui veut jouer à la vache ? Qui veut jouer qu'on l'attache ? Qui veut jouer qu'on l'attache ? Numéro 10, j'fais des passes Numéro 10, j'fais des passes, qui veut jouer en attaque ? Qui veut jouer en attaque ? Tellement de vermines Yih, ma chérie, doucement avec moi Doucement avec moi Ma chérie doucement avec moi Jai dit doucement avec moi, elle veut lovés pour acheter son vernis Tu m'as saoulé, sur mon phone, j'ai plusieurs notif', on vivait un plaisir nocif Y a qu'le vert et l'violet pour me motiver Avec toi, j'suis sans pitié, tu m'as donné ton cur donc tu t'sens niquée Sur un contrôle de police on me demande même plus mon identité Quand j'te parle de Paname, j'te parle de pe-sa, tu m'parles du passé Moi j'te parle de placer, d'mes envies de remplir Bercy Quand je sors de Paname, j'suis sans état d'âme, j'suis venu pour manger Yih, yih, yih On peut tous se venger, en vérité, j'ai pas peur du danger Bien lisse Nan, dis pas mon prénom, 6 du mat', j'suis debout L'OPJ prend des notes, on t'questionne, tu dénonces Quand je sors de Paname Yih, yih, j'suis sans état d'âme, j'suis venu pour manger On peut tous se venger, en vérité, j'ai pas peur du danger Bien lisse, yeah J'suis en Merco, j'ai toutes les classes, j'étais pas l'plus doué d'la classe Et tu sais que j'ai trimmé pour faire ma place, j'suis un skinny qui prend d'la place J'ai le produit des Lions d'l'Atlas, j'les vois tous jalouser, s'pé-ta pour ma place En buvette, j'suis pas prêt d'voir le fond d'la tasse, c'était moi qui perturbait le fond d'la classe Tu connais la technique, boss de mon label, on gère de vrais dossiers Eux là-bas ils ont la haine aussi, ils sont toujours en mala, on les voit négocier Yih, Yih On les allume, on les éteint en détente, caresse la détente, sois bien précis En chef on gère les vrais dossiers, elle joue la folle on la fait bosser Tu m'as saoulé, sur mon phone, j'ai plusieurs notif', on vivait un plaisir nocif Y a qu'le vert et l'violet pour me motiver Avec toi, j'suis sans pitié, tu m'as donné ton cur donc tu t'sens niquée Sur un contrôle de police on me demande même plus mon identité Quand j'te parle de Paname, j'te parle de pe-sa, tu m'parles du passé Moi j'te parle de placer, d'mes envies de remplir Bercy Quand je sors de Paname, j'suis sans état d'âme, j'suis venu pour manger Yih, yih, yih On peut tous se venger, en vérité, j'ai pas peur du danger Bien lisse Nan, dis pas mon prénom, 6 du mat', j'suis debout L'OPJ prend des notes, on t'questionne, tu dénonces Quand je sors de Paname Yih, yih, j'suis sans état d'âme, j'suis venu pour manger On peut tous se venger, en vérité, j'ai pas peur du danger Bien lisse, yeah</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>P&amp;LOVÉ</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Hey Hey, hey Tiako' Hey, hey Ah-ah-ah, ah-ah-ah, ah-ah-ah Ah-ah-ah, ah-ah-ah, ah-ah-ah J'ai plus la force de crier donc j'prends le temps d'écrire Je gagne et j'perds des billets, j'ai plus de jours pour roupiller Difficile de m'faire oublier, mais j'essaie de démaquiller Mon passé, repasser mes affaires qui sont restées froissées Et ils nous parle de la mort mais nous on craint déjà le pire, ouais Rien n'est pardonné à celles ou ceux qui font les pirouettes Evidemment j'veux pas de ça dans mon empire, wesh Nan, nan J'ai pas trop galéré pour comprendre tout c'qui s'disait Fonsdé, les yeux plissés, c'est bien moi qui est dans l'viseur Beaucoup d'corps qui renoncent, beaucoup d'corps qui s'effacent Juste une dernière fois pour dire Je t'aime à son fils mama Uh-huh, uh-huh, uh-huh, uh-huh Pourtant j'étais peace and love, peace and lové Aujourd'hui, j'veux moins de love, plus de lovés Yeah Pourtant j'étais peace and love, peace and lové Aujourd'hui, j'veux moins de love, plus de lovés Salam, salam j'suis là mais j'étais pas invité Uh-huh J'ai voulu faire simple mais ça s'est compliqué Uh-huh Le coeur vide mais, la trinité m'assiste En harmonie avec les voix de Kunda Sisters Un dernier soir y a plus d'espoir y aura plus d'excuse, la Canada Goose cache une arme, il faut qu'on sécure Tu t'étonnes qu'on ait pas changé d'code, juste de nouvelles méthodes car ce n'est plus le même statut Faut rien laisser passer, toujours au bon-char, que dieu me garde d'avoir un patron Chaque jour on m'voit partout, il s'est passé tellement d'choses que j'oublierai pas d'prendre mes cartouches J'suis prêt pour la descente, de janvier à décembre J'descends, l'avenir est décent, c'est comme ça qu'j'le ressens J'descends, j'suis prêt pour la descente, de janvier à décembre J'descends, l'avenir est décent, c'est comme ça qu'j'le ressens Pourtant j'étais bien peace and love Pourtant j'étais peace and love, peace and love Pourtant j'étais bien peace and love Aujourd'hui j'veux moins de love, plus de lovés Pourtant j'étais bien peace and love Pourtant j'étais peace and love, peace and lové Aujourd'hui j'veux moins de love, plus de lovés Audi, zéro G, stress reste, Audi, toujours au-dessus comme Kobe Elle rêve d'un bandit comme Holly G, Holly G, Holly G Mentalité, l'esprit est gang, j'avoue, c'était dur à croire J'serai pas des votre ce soir, c'est terminé Pull up, skrt Pull up, skrt Pull up, skrt Tiako' la mélo Tiako' la mélo Dans ma tête je pense qu'à faire des lovés</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>PONA NINI</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Quand j'traînais en bas de la zone, on m'voyait en mauvais Elle veut le côté sombre, pas les mélodies de Mozart Ah, t'as du courage, tu veux teste ? Ah ouais ? Tu sais bien qu'c'est nous les bests, ah ouais En Jacquemus jusqu'à la veste, ah ouais, j'remercie l'ciel, God bless, han Oh Depuis qu'on level up Ouh, les jaloux s'développent Ouh J'bosser dans mon coin d'septembre à septembre Hum, hum, l'argent calme tous ms symptômes Hum, hum Baby me parle d DOM-TOM, du lundi au lundi, du lundi au lundi Mais j'ai mis mon coeur sous céllo' Céllo', oh, j'suis issu des coins ghettoïsés Ghetto, oh, oh yeah, oh yeah Ça fait longtemps qu'on a rêvé de tailler, tout à bord du Cayenne Moi, j'ai trop connu la galère, ici, ça s'bat pour un salaire J'rêvais d'fonder mon empire, à mes côtés, une girly on fire Quand j'traînais en bas de la zone, on m'voyait en mauvais Mauvais Elle veut le côté sombre, pas les mélodies de Mozart Mozart J'te le dis, tout a changé, devant nous, y a nobody Say Nobody No mélo', no party Say Nobody, no party Say Nobody J'ai pas trouvé l'bonheur dedans Nan, nan, nan, pourquoi m'investir autant ? J'ai la calle dans le sang Nan, nan, nan, pourquoi veux-tu que je change ? Pona ninini Nan, nan, nan, pona ninini Pona ninini Nan, nan, nan, pona, hum, hum, hum, hum 4Matic, j'ai envie d'faire des murders Ouh, quand j'suis conseillé par ange de gauche Nan La trahison revient pas, y a pas d'brothers Skrt, j'prends soins de mes lovés comme un lover Lover Uzi chargé quand le quartier perds un p'tit Perd un p'tit, victime chopée, y a plus d'pona nini Pona nini Y a que pour maman, sentiments ebimi Ebimi, dans le cur, dans mon cur, fais-moi lili Nan, nan, nan, nan, nan, nan Rien que j'lui donne, efficacement, elle veut des calins, j'suis son calment Bisous partout, bébé, attends, j'dois mougou la vie, pour faire vengeance C'est un démon, rien qu'elle m'observe, à l'intérieur de mon cur, elle veut faire travaux Travaux Elle me dit Laisse-moi l'time, eh, ou j'veux plus qu'on en parles, ouais Eh, avoir la même vie, fallait qu'j'réalise qu'on rêvait, trop d'choses à digérer Tokoss Dans sa tête, c'est flou comme sous Hennessy Ouh, ouh, ouh, je sais qu'elle a le bail abîmé Ah-ah, ah-ah Quand j'traînais en bas de la zone, on m'voyait en mauvais Mauvais Elle veut le côté sombre, pas les mélodies de Mozart Mozart J'te le dis, tout a changé, devant nous, y a nobody Say No nobody No mélo', no party Say No nobody, no party Say Nobody J'ai pas trouvé l'bonheur dedans Nan, nan, nan, pourquoi m'investir autant ? J'ai la calle dans le sang Nan, nan, nan, pourquoi veux-tu que je change ? Pona ninini Nan, nan, nan, pona ninini Pona ninini Nan, nan, nan, pona, hum, hum, hum, hum Han-han-han, oh-oh-oh, t'es tombé sur le mauvais player Oh-oh-oh J'ai pas gagné la confiance de son daron, t'es tombé sur le mauvais player Oh-oh-oh-oh T'es tombé sur le mauvais player, t'es tombé sur le mauvais player Oh-oh-oh-oh J'ai pas gagné la confiance de son daron, t'es tombé sur le mauvais player Oh-oh-oh-oh Let's go, j'suis calé dans la Benzo, le son du Glock réveille l'zoo, le premier tirs t'f'ra danser la Dancehall Hall, ah-ah Baby m'appelle, j'réponds pas, même quand c'est l'heure d'aller dîner Say Nobody Trop puissant, moi-même, je m'trouve cheaté Say Nobody, SACEM, enveloppe Guccidé Dé Elle veut m'faire des avances, Ozali mauvaises Un peu trop en avance, j'me rends compte que j'en ai trop fait Yeah Pour ça quand j'traînais en bas de la zone, on m'voyait en mauvais Mauvais, Elle veut le côté sombre, pas les mélodies de Mozart Ah-ah J'te le dis, tout a changé, devant nous, y a nobody Say Nobody No mélo', no party Say Nobody, no party Say Nobody J'ai pas trouvé l'bonheur dedans Nan, nan, nan, pourquoi m'investir autant ? Ah-ah J'ai la calle dans le sang Nan, nan, nan, pourquoi veux-tu que je change ? Ah-ah Pona ninini Nan, nan, nan, pona ninini Pona ninini Nan, nan, nan, pona, hum, hum, hum, hum Hum, hum, hum, hum, hum Shiruken Music</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Pousse-toi</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Plus ça rapporte, plus j'plais, plus ça rapporte, plus j'pèse On fait les bails discrets, on fait les bails discrets Plus ça rapporte, plus j'pèse, plus ça rapporte, plus j'pèse On fait les bails discrets, on fait les bails discrets C'est nous qui faisons le plus de billets mais y a pas nos tes-tê sur la carte Avec ma présence, t'as pu participer à des trucs que tu n'voyais as-p Prêt à découper des prod' donc les sons en une heure, c'est pas un handicap Elle connaît tous mes ces-vi, mes galères, mes ennuis mais j'suis son médicamnt Lyricalement, oui, c'est la violnce, t'en redemandes, mmh, ça recommence Jolis mouvements, mmh, jolis pas d'dance, y a aucune ce-pla pour les balances Pousse-toi, dégage, y a pas d're-frè tu vas finir sur le té-c' C'est les microbes qui vont t'allumer, ou bien mourir comme Zé Pequ' Pousse-toi, dégage, y a pas d're-frè pousse-toi, dégage, y en a pas C'est les microbes qui vont allumer qui vont t'allumer dans le dos Ici, y a pas l'temps de négocier nan, nan, nan, nan, nan Encore un meurtre et beaucoup d'blessés nan, nan, nan, nan, nan Bouge pas, chérie, reste un peu, j'ai les contacts, j'ai les trucs qui faut j'ai les contacts, j'ai les trucs qui t'faut J'ai les contacts, j'ai les trucs qui faut Bouge pas, chérie, reste un peu, j'ai les contacts, j'ai les trucs qui faut j'ai les contacts, j'ai les trucs qui t'faut J'ai les contacts, j'ai les trucs qui faut, bouge pas, chérie, reste un peu Plus ça rapporte, plus j'plais, plus ça rapporte, plus j'pèse On fait les bails discrets, on fait les bails discrets Han, regarde les efforts qu'on a fait, han, regarde les billets qu'on encaisse qu'on encaisse J'me retourne pas, j'regarde devant moi moi, demande pas c'qu'on a fait la veille veille Maintenant que j'ai tout ça, tu t'réveilles han, c'est trop tard, j'ai coupé les ponts han, han Du cardio, faut serrer les pompes nan, y a pas l'temps de jouer aux cons cons Lyricalement, oui, c'est la violence, t'en redemandes, mmh, ça recommence Jolis mouvements, mmh, jolis pas d'dance, y a aucune ce-pla pour les balances Pousse-toi, dégage, y a pas d're-frè tu vas finir sur le té-c' C'est les microbes qui vont t'allumer, ou bien mourir comme Zé Pequ' Pousse-toi, dégage, y a pas d're-frè pousse-toi, dégage, y en a pas C'est les microbes qui vont allumer qui vont t'allumer dans le dos Ici, y a pas l'temps de négocier nan, nan, nan, nan, nan Encore un meurtre et beaucoup d'blessés nan, nan, nan, nan, nan Bouge pas, chérie, reste un peu, j'ai les contacts, j'ai les trucs qui faut j'ai les contacts, j'ai les trucs qui t'faut J'ai les contacts, j'ai les trucs qui faut Bouge pas, chérie, reste un peu, j'ai les contacts, j'ai les trucs qui faut j'ai les contacts, j'ai les trucs qui t'faut J'ai les contacts, j'ai les trucs qui faut, bouge pas, chérie, reste un peu Une envie d'fumer tous ces gens qui m'ont laissé Une envie d'fumer tous ces gens qui m'ont déçu Si t'es avec moi, c'est pas pour venir décorer Si t'es avec moi, c'est pas pour venir décorer Une envie d'fumer tous ces gens qui m'ont laissé Une envie d'fumer tous ces gens qui m'ont déçu Si t'es avec moi, c'est pas pour venir décorer Un jour ou l'autre, on aura p't-être la vie qu'on veut Eh, eh, eh, eh, eh1</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Pousse-toi (Version acoustique)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Mmh, mmh, mmh, mmh Mmh, mmh, mmh, mmh Mmh, mmh, mmh, mmh Mmh, mmh, mmh, mmh Mmh, mmh, mmh, mmh Mmh, mmh, mmh, mmh Mmh, mmh, mmh, mmh Hey, hey Une envie d'fumer tous ces gens qui m'ont laissé Une envie d'fumer tous ces gens qui m'ont déçu Si t'es avec moi, c'est pas pour venir décorer Si t'es avec moi, c'est pas pour venir décorer Une envie d'fumer tous ces gens qui m'ont laissé Une envie d'fumer tous ces gens qui m'ont déçu Si t'es avec moi, c'est pas pour venir décorer, hey, hy Plus ça rapporte, plus j'plais, plus ça rapporte, plus j'pèse On fait ls bails en discret, on fait les bails en discret Plus ça rapporte, plus j'plais, plus ça rapporte, plus j'pèse On fait les bails en discret, hey, hey C'est nous qui faisons le plus de billets mais y a pas nos tes-tê sur la carte Avec ma présence, t'as pu participer à des trucs que tu n'voyais as-p Prêt à découper des prod' donc les sons en une heure, c'est pas un handicap Elle connaît tous mes ces-vi, mes galères, mes ennuis mais j'suis son médicament Lyricalement, oui, c'est la violence, t'en redemandes, mmh, ça recommence Jolis mouvements, mmh, jolis pas d'danse, y a aucune ce-pla pour les balances Pousse-toi, dégage, y a pas d're-frè C'est les microbes qui vont t'allumer Pousse-toi, dégage, y a pas d're-frè C'est les microbes qui vont t'allumer Ici, y a pas l'temps de négocier Encore un meurtre et beaucoup d'blessés Bouge pas, chérie, reste un peu, j'ai les contacts, j'ai les trucs qui faut J'ai les contacts, j'ai les trucs qui faut Bouge pas, chérie, reste un peu, j'ai les contacts, j'ai les trucs qui faut, nan J'ai les contacts, j'ai les trucs qui faut, bouge pas, chérie, reste un peu Plus ça rapporte, plus j'pèse On fait les bails en discret, on fait les bails en discret Plus ça rapporte, plus j'plais, plus ça rapporte, plus j'pèse On fait les bails en discret, hey, hey Mmh, mmh, mmh, mmh Mmh, mmh, mmh, mmh Mmh, mmh, mmh, mmh Mmh, mmh, mmh, mmh Mmh, mmh, mmh, mmh Mmh, mmh, mmh, mmh Mmh, mmh, mmh, mmh Hey, hey</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>PROTECT</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>T'écoutes Tiakola et Merveille maintenant sur BDLM Radio Finit ensemble si tu remplies tous les codes de fidélité Gabriel call me back On a commencé ensemble, on finit ensemble si tu remplies tous les codes de fidélité On a commencé ensemble, on finit ensemble si tu remplies tous les codes de fidélité Avoir une putain d'villa qui porte le nom d'la daronne, j't'en ferais une priorité T'as tout pour attirer, les millions sur l'compte qu'on t'a viré T'as tout pour attirer, j'te conseille de rester naturelle Les bons artistes restent sur la durée, attention aux gens trop maquillés Au loin, j'ai ressenti ta douleur, mais tu peux t'confier, j'suis makile Mmh, mmh, mmh Mmh, mmh, ouh, ouh N'oublie jamais qu'le chemin est long, qu'les beaux comptes feront des jaloux Crois-moi qu'ils t'voient plus comme un objet quand ils t'surnomment mon bijoux Mmh, mmh, non, n'aie pas peur, beaucoup dans l'milieu sont des scammeurs Faut pas trop briller dans l'secteur J'voulais t'protéger mais la vie a déjà procédé Rester aux aguets, la rue l'oblige surtout quand y a monnaie Surtout quand y a monnaie, c'est là que le malheur vient frapper Malheur vient frapper Malheur vient frapper Malheur vient frapper comme en R.D.C Comme en R.D.C J'sais même pas comment j'ai fait mais on m'regarde tous les jours J'ai des nouveaux jaloux, j'ai percé, oui, j'avoue Oh, oh, oh, yeah, le connard aux oubliettes Hey, hey, hey, hey, yeah J'étais même pas connue dans ma ville Ma ville, négligée pour les violets Violets Toi, tu m'as tout volé Tout volé, de ces gens, j'me suis éloignée Éloignée, oh nan Nan, nan, nan, j'ai pas peur, j'ai capté ce milieu de scammeurs Laisse-moi briller dans le secteur J'voulais t'protéger mais la vie a déjà procédé Rester aux aguets, la rue l'oblige surtout quand y a monnaie Surtout quand y a monnaie, c'est là que le malheur vient frapper Malheur vient frapper Malheur vient frapper Malheur vient frapper, comme en R.D.C Comme en R.D.C J'voulais t'protéger, c'est quoi les bails ? J'connais pas son blase C'est quoi ton blase ? Yeah, yeah, yeah, yeah J'voulais t'protéger, c'est quoi les bails ? J'connais pas son blase C'est quoi ton blase ? J'irais où tu iras, j'suis re-frè, ton umbrella J'irais où tu iras, j'suis re-frè, ton umbrella Tu iras où j'irai, t'es mon re-frè, mon umbrella Tu iras où j'irai, t'es mon re-frè, mon umbrella Où tu iras, j'suis re-frè, ton umbrella J'irai où tu iras, j'suis re-frè, ton umbrella Mmh Tu m'as tout donné pour me rendre meilleure Tu m'as tout donné pour me rendre meilleure J'voulais t'protéger, bébé, c'est quoi les bails ? C'est quoi son blase ? Mon joli bébé, c'est quoi les bails ? C'est quoi son blase ?</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>PSYCHOLOGIQUE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>C'est psychologique, me demande pas comment, c'est psychologique Non, me demande pas comment, c'est psychologique Me demande pas comment, c'est psychologique Me demande pas comment, c'est psychologique Me demande pas comment, c'est psychologique Non, me demande pas comment, c'est psychologique Psycholo, psycholo, psycholo, psycholo, psycholo, psycholo Ah, salam aleykoum, comment allez-vous ? Jusqu'ici tout va bien, tant que y a les sous S'déplace qu'en urgence, classe G au feu rouge, j'suis v'nu pour éteindre, pas faire de ah En bas d'mon hôtel, des mouvements de foule, j'suis gêné d'vant l'daron quand j'dois faire des photos On déboule, on déboule, on déboule, on déboule à quarante pour fermer les bocas Hum, what you know about my name ? J'suis sûrement l'homme que tu cherches dans tes rêves Rien n'm'étonne à part un noir qui vote RN N'essaie pas d'suivre le train d'vie, tu risques d'être en perte, d'être en perte Hmm, hmm, hmm, hmm J'ai fait comme si j'avais pas vu Hmm, hmm, hmm, hmm J'ai fait comme si j'avais pas vu Hmm, hmm, hmm, hmm J'ai fait comme si j'avais pas vu Hmm, hmm, hmm, hmm J'ai fait comme si j'avais pas vu C'est psychologique, me demande pas comment, c'est psychologique Non, me demande pas comment, c'est psychologique Me demande pas comment, c'est psychologique Me demande pas comment, c'est psychologique Me demande pas comment, c'est psychologique Non, me demande pas comment, c'est psychologique Psycholo, psycholo, psycholo, psycholo, psycholo, psycholo À plusieurs j'en ai dit Je t'aime, j'ai plusieurs certif' avec Shiruken T'es en train d'découvrir, je suis habitué T'aimes pas ? On jouera mieux sous les sifflets Elle pense que j'ai quitté la soirée très tôt car j'suis marié, mais j'ai RDV Avec son patron, lendemain matin, ça parle en plusieurs zéros sur le calepin Y a pas de love, pas d'I love you, tu sais qu'le temps c'est d'l'argent, j'ai pas l'temps Et quand j'en ai, j'investis, j'investis, j'investis, maison du daron au bled Quand ça marche pour moi ils sont vexés, c'est juste culturel quand je flex, eh Hum, what you know about my name ? J'suis sûrement l'homme que tu cherches dans tes rêves Rien n'm'étonne à part un noir qui vote RN N'essaie pas d'suivre le train d'vie, tu risques d'être en perte D'être en perte Hmm, hmm, hmm, hmm J'ai fait comme si j'avais pas vu Hmm, hmm, hmm, hmm J'ai fait comme si j'avais pas vu Hmm, hmm, hmm, hmm J'ai fait comme si j'avais pas vu Hmm, hmm, hmm, hmm J'ai fait comme si j'avais pas vu C'est psychologique, me demande pas comment, c'est psychologique Non, me demande pas comment, c'est psychologique Me demande pas comment, c'est psychologique Me demande pas comment, c'est psychologique Me demande pas comment, c'est psychologique Non, me demande pas comment, c'est psychologique Psycholo, psycholo, psycholo, psycholo, psycholo, psycholo Crazy</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>RESTE-LÀ</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Rappelle-toi tout ce qu'on a fait, tout ce qu'on a fait, tout ce qu'on a J'te donnerai tout ce que j'n'ai pas Rappelle-toi tout ce qu'on a fait, tout ce qu'on a fait, tout ce qu'on a Pourquoi j'te laisserai tomber ? C'est pas qu'j'ai peur, mais doucement Yeah J'suis pas pressé, donc pas maintenant Yeah Tu veux l'max', mais j'fais l'minimum Yeah Au fond de toi je sais qu'c'est mort Yeah Elle veut casser son tête, la copine veut casser son tête Mais bon faut que j'reste concentré Elle a donné le go quand j'ai mis les pieds dans sa tess En vrai faut qu'je reste concentré Faut pas essayer, faut marquer, faut pas essayer Trop d'charisme, on maîtrise le jeu Elle est moi on s'aime, faut voir comment on fait la paire Elle veut que j'lui mette l'anneau Si j'le fais pour nous, c'est qu'j'le fais pour toi et qu'ça va pour moi J'pensais que t'étais sereine, en face y a dégun, t'en fait pas pour ça Ça n'en finit pas, sa meilleure pote est sur mes côtes Yeah, yeah, yeah, yeah, yeah J'vais lui faire trop d'dégâts, elle dira que tout est d'ma faute Rappelle-toi tout ce qu'on a fait, tout ce qu'on a fait, tout ce qu'on a J'te donnerai tout ce que j'n'ai pas Rappelle-toi tout ce qu'on a fait, tout ce qu'on a fait, tout ce qu'on a Pourquoi j'te laisserai tomber ? j'veux qu'tu restes auprès de moi C'est pas qu'j'ai peur, mais doucement Yeah J'suis pas pressé, donc pas maintenant Yeah Tu veux l'max', mais j'fais l'minimum Yeah Au fond de toi je sais qu'c'est mort Yeah Tu sais m'attirer, tu est ma déesse, si ça t'intéresse Pour moi, oui tu vaux très cher, je passe le cher-cher, à bord d'un RS-Q3 Ouh J'ai mis de côté mes bords Ouh pour toi je ferais tous les efforts Ouh Baby, je suis dans le laboratoire, je suis sous assistance respiratoire Et depuis, je n'fais que penser à toi, toi, toi, toi Baby, je suis dans le laboratoire, je suis sous assistance respiratoire Et depuis, je n'fais que penser à toi Babe, reste là, je veux tes bras Ne t'en vas pas, j'veux qu'tu restes auprès de moi Babe, reste là, je veux tes bras Ne t'en vas pas, j'veux qu'tu restes auprès de moi C'est pas qu'j'ai peur, mais doucement Yeah J'suis pas pressé, donc pas maintenant Yeah Tu veux l'max, mais j'fais l'minimum Yeah Au fond de toi je sais que c'est mort Yeah Absent, dans une relation stable, je le suis, suis-je le responsable ? Au fond d'moi je sais On est un couple sans âme, j'espère qu'tu le sais, j'espère qu't'as pu trouver chaussure à ton pied Succès attire beaucoup d'folie, tu sais, possédé, j'ai pas su m'contrôler, tu sais Nos story peuvent se régler en rapide, j'essaie mais quand tout s'arrange tu veux partir aussi J'suis un G, tu le sais, t'as le cur brisé mais quand même, je m'en veux, ça sonnerait pas mieux Quand tu partiras, ça sera la même, j'suis un G, tu sais qu'j'les baise quand même Babe, reste là, je veux tes bras Ne t'en vas pas, j'veux qu'tu restes auprès de moi Babe, reste là, je veux tes bras Ne t'en vas pas Reste près de moi, j'veux qu'tu restes auprès de moi</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>R.I.Peace</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Shoot out Yamaica 4Life So le Flem Sexe, drogue, tous ces diamants s'exportent Tout ça est éphémère, hey Sexe, drogue, tous ces diamants s'exportent S'exportent, tout ça est éphémère, on emporte rien avec soi Avec soi Un moment d'cette vie où y a même plus d'espoir Plus d'espoir, ça viendra tôt ou tard comme des Kalash' à seille-Mar Seille-Mar La muerte nous rappelle qu'on repart seul Qu'on repart seul, surtout sans prévenir, ça arrive à tout moment Hey Rappelle-toi, la mort ne prévient pas Prévient pas, avant de tout laisser, prépare bien ton testament Comment ça va chez moi ? Comment ça va chez moi ? Combien d'années il me reste ? J'veux pas mourir en Masera', côté passager avec des ballons sur le siège Comme un bonhomme, j'ai porté mes couilles, gardé ma dignité juste avant qu'on m'éteigne Tellement dedans que j'me vois partir en légende comme Papa Wemba sur la scène Il n'y a qu'un pas Il n'y a qu'un pas, entre la mort et la vie Entre la mort et la vie Entre l'amour et la haine Entre l'amour et la haine, y a le flingue ou la rose Y a le flingue ou la rose Et la haine m'a donné le flingue et le flingue a repris la rose mais la rose me donne pas d'amour et tu dis pourquoi je suis mauvais Oh Et l'amour me donnerait plus d'espoir Ouais si je perds un proche, ce soir Yeah Faudrait encore plus d'exploits Hey, si tu veux plus d'estime Et quand on me demande, je donne, sans vous rappeler, j'vous donne Hey Il m'faut du khaliss encore, il faut qu'tu khalass encore, hey Hey, hey Sexe, drogue, tous ces diamants s'exportent S'exportent, tout ça est éphémère, on n'emporte rien avec soi Avec soi Un moment d'cette vie où y a même plus d'espoir Plus d'espoir, ça viendra tôt ou tard comme des Kalash' à seille-Mar Seille-Mar La muerte nous rappelle qu'on repart seul Qu'on repart seul, surtout sans prévenir, ça arrive à tout moment Hey Rappelle-toi, la mort ne prévient pas Prévient pas, avant de tout laisser, prépare bien ton testament Heureusement, j'ai d'la force sinon, j'vous aurais laissé, j'fais d'la musique pour la tess, pas les caractéristiques Des interviews soit chez , soit, chez ou RMC, plein d'éclairages dans les yeux, la vie d'artiste les rend bêtes C'est mes paroles qui résument, qui résument ta vie, donc petit, écoute un peu, si jamais tu perds la vie, combien resteront là ? Ils aiment que quand ça flex, veux être là que pour la fame et tu m'demandes comment je sais ? Je l'sens Si tu dois t'séparer, c'est qu'tu dois t'séparer, garde ces larmes pour toi, montre pas tes points faibles Si tu casses, tu payes, si tu merdes, tu payes, si tu casses, tu payes, prépare bien ton testament, hey Hey, hey Sexe, drogue, tous ces diamants s'exportent S'exportent, tout ça est éphémère, on n'emporte rien avec soi Avec soi Un moment d'cette vie où y a même plus d'espoir Plus d'espoir, ça viendra tôt ou tard comme des Kalash' à seille-Mar Seille-Mar La muerte nous rappelle qu'on repart seul Qu'on repart seul, surtout sans prévenir, ça arrive à tout moment Hey Rappelle-toi, la mort ne prévient pas Prévient pas, avant de tout laisser, prépare bien ton testament Testament, testament, testament Prépare bien ton testament Testament, testament, testament Prépare bien ton testament Testament, testament, testament Testament, testament, testament Yeah, yeah Yeah, yeah Oh-oh-oh</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Riri / No camera</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Pourquoi dialoguer ? Tellement dégoûté, j'ai même plus l'appétit J'voulais t'donner la bague au doigt, j'voulais que tu donnes la tétine Dans la vie, y a des hauts, des bas mais bon, c'est pas moi qui décide Tellement d'choses à te donner, on se comprend, pas besoin de signe Ah, ah T'es ma Rihanna, ma re-sta, re-sta, re-sta T'es ma Rihanna, ma re-sta, re-sta, re-sta Ah, ah Toujours broliqué à part ça, part ça, part ça Ah, ah T'es ma Rihanna, ma re-sta, re-sta, re-sta Ah, ah Corriger le sale qu'on a fait Qu'on a fait Déposer ls armes, pose des qustions, je nierai les faits, eh Ça d'vient fatiguant, eh, ceux qui parlent dans le vent sans savoir C'est des fatigués, eh Ils m'ont fatigué, eh Donne le flingue, je veux rafale le monde Rah, rah, rah, rah J'ai le cur et l'oseille, demande-moi si t'as besoin de love Ouais, ouais, ouais, ouais, ouais, ouais Nous deux, on fait la paire, on est frais, on n'est pas comme les autres Pas comme les autres, regarde-nous, on n'est pas comme les autres Si t'as besoin de love, besoin de love, demande-moi, oh-oh-oh Pourquoi dialoguer ? Tellement dégoûté, j'ai même plus l'appétit Yeah, yeah, yeah, yeah J'voulais t'donner la bague au doigt, j'voulais que tu donnes la tétine Yeah, yeah, yeah, yeah Dans la vie, y a des hauts, des bas mais bon, c'est pas moi qui décide Tellement d'choses à te donner Ah, ah, on se comprend, pas besoin de signe Yeah, yeah, yeah, yeah T'es ma Rihanna, ma re-sta, re-sta, re-sta T'es ma Rihanna, ma re-sta, re-sta, re-sta Ah, ah Toujours broliqué à part ça, part ça, part ça Ah, ah T'es ma Rihanna, ma re-sta, re-sta, re-sta Ah, ah Ma, ma re-sta Moi, je dégaine comme un laud-sa D'un côté, j'suis prêt à déconner Déconner, je réfléchis quand t'es à té-cô d'oi-m Té-cô Affiché mon cur à découvert Découvert Et pour la suite, dis-moi, c'est quoi l'programme ? Programme Et d'un côté, j'suis prêt à déconner Déconner, je réfléchis quand t'es à té-cô d'oi-m Té-cô J'ai affiché mon cur à découvert Découvert Et pour la suite, dis-moi, c'est quoi l'programme ? Programme Donne le flingue, je veux rafale le monde Rah, rah, rah, rah J'ai le cur et l'oseille, demande-moi si t'as besoin de love Ouais, ouais, ouais, ouais, ouais, ouais Nous deux, on fait la paire, on est frais, on n'est pas comme les autres Pas comme les autres, regarde-nous, on n'est pas comme les autres Si t'as besoin de love, besoin de love, demande-moi, oh-oh-oh Pourquoi dialoguer ? Tellement dégoûté, j'ai même plus l'appétit Yeah, yeah, yeah, yeah J'voulais t'donner la bague au doigt, j'voulais que tu donnes la tétine Yeah, yeah, yeah, yeah Dans la vie, y a des hauts, des bas mais bon, c'est pas moi qui décide Tellement d'choses à te donner Ah, ah, on se comprend, pas besoin de signe Yeah, yeah, yeah, yeah T'es ma Rihanna, ma re-sta, re-sta, re-sta T'es ma Rihanna, ma re-sta, re-sta, re-sta Ah, ah Toujours broliqué à part ça, part ça, part ça Ah, ah T'es ma Rihanna, ma re-sta, re-sta, re-sta Ah, ah Nan, j'suis pas trop fan des caméras Nan, j'suis pas trop fan des caméras Nan, j'suis pas trop fan des caméras - Allô ? Nan, j'suis pas trop fan des caméras Nan, j'suis pas trop fan des caméras Nan, j'suis pas trop fan Guette la prise de voix, tu sais déjà qu'j'vais mettre des crochets Ils demandent de l'or alors qu'j'ai d'jà prévu mes projets Avant qu'ça finisse mal, j'vais mettre de côté ceux qui profitent Toujours souriant, j'ai la bonne gueule et le bon profil D'abord, ça crée des concepts, après, on fait des concerts Ça crée des stories, on parle pas, on observe Qu'est-ce qu'tu veux qu'on dise à part qu'il était parti trop tôt ? On pense à rien avant d'démarrer sur la moto Oh, na-na-na, d'abord, j'dois mettre la famille à l'abri Belek à les nouveaux amis et ceux qui font passer les putes avant moi Tu m'vois jamais en mauvaise compagnie, j'suis jamais mal accompagné Parce que j'suis seul ou avec deux-trois shabs Des fois, j'veux pas réveiller ma folie mais si mon cur est démoli Faut pas m'appeler car père a besoin d'moi, besoin d'moi, besoin d'moi Hey Tu sais déjà que moi, j'suis pas trop fan des caméras Nan, j'suis pas trop fan des caméras Nan, c'est pas demain qu'on s'reverra Aujourd'hui, j'veux pas danser mais ça ira Nan, j'suis pas trop fan des caméras Nan, j'suis pas trop fan des caméras Aujourd'hui, j'veux pas danser mais ça ira Aujourd'hui, j'veux pas danser mais ça ira Oh-oh, j'essaye d'garder mon calme car si je laisse parler mon cur, j'aurais un brolique sur la taille Oh-oh et j'viendrai pull up en Moncler, avec des diamants sur le poignet, à visage découvert C'est carré dans l'binks, grandi dans la rue, maintenant, veulent me ressembler J'comprends pas pourquoi ils jalousent, pourtant, y a pas raison d'être Belek à tout ça, ça peut tuer ta santé Oh, na-na-na, d'abord, j'dois mettre la famille à l'abri Belek à les nouveaux amis et ceux qui font passer les putes avant moi Tu m'vois jamais en mauvaise compagnie, j'suis jamais mal accompagné même à l'écran Tu sais déjà que moi, j'suis pas trop fan des caméras Nan, j'suis pas trop fan des caméras Nan, c'est pas demain qu'on s'reverra Aujourd'hui, j'veux pas danser mais ça ira Nan, j'suis pas trop fan des caméras Nan, j'suis pas trop fan des caméras Aujourd'hui, j'veux pas danser mais ça ira Aujourd'hui, j'veux pas danser mais ça ira Oh, na, oh Oh, na-na-na Oh, oh, oh Ah, ah Oh, oh, oh Oh, oh Oh, oh Oh, na-na-na Mes gavas, j'le fais pour mes gavas Mes gavas, j'le fais pour mes gavas On lâche pas tant qu'il y a de l'espoir On lâche pas tant qu'il y a de l'espoir</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Roro</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Wake up to me, so you can wake up to me Han-han-han-han-han Wake up and do For me, daddy Boumi' Sitting here alone with nothing to do You know, I don't like to do that! For me, daddy Han-han-han-han-han Ça m'demande que comment j'ai fait Han, ça m'demande plus Comment ça va ? Han D'vant l'OPJ, faut nier les faits Han, ils ont ouvert leurs gueules sans savoir Yeah Et si jamais j'te donne tout c'qui faut, est-ce que tu me rendras ma part ? Yeah J'avais besoin d'eux, ils m'ont esquivé, du coup, j'ai dû tout faire, tout seul Arriba Babe, j'vois qu't'es sur les nerfs, on vut savoir qu'est-ce t'as ? Elle vut le champagne, le tel-hô, le restau', un jour ou l'autre, tout va se savoir dans le ghetto Un jour, tout va se savoir dans le ghetto SDM, pour l'instant, y a quelques info', que des messes basses Elle a un passé sombre, mon ami mais laisse-la, il faut qu'je reste près des miens, près des métaux J'suis toujours près des miens, toujours près du cke-Glo Brah J'ai max de billets à la sortie Eh ouais, elle veut tout m'prendre jusqu'au dernier centime SDM En full Off-White, je suis assorti Ouh et si tu joues mal, tu vas sortir On mène la vie dure pour s'en sortir Ouh, du coup, je crée mon empire Ouh Fais pas de justice sinon, dinguerie Ouh, j'ai tout fait pour eux, ils m'ont menti, menti Ocho Laisse-moi juste une fois, on s'retrouve si c'est ça qui t'faut Ouais, ouais, ouais Laisse-moi juste une fois, on s'retrouve si c'est ça qui t'faut Ouais, ouais Là, j'vois qu'ils ont l'il sur mon bénéf', je les laisserai même pas gratter mon pay-day Ils font trop les fous sur Internet, hors que dans la vrai vie, c'est des peureux Ils s'ront jaloux d'c'que j'ai sur le poignet J'ai mal, partout où y a l'oseille, gros, j'vais aller Partout, j'y vais J'ai charbonné pendant des années Le restau', dis-moi, midi-minuit à visser les camés J'vais pas continuer Ils s'ront jaloux d'c'que j'ai sur le poignet J'ai mal, partout où y a l'oseille, gros, j'vais aller Partout, j'y vais J'ai charbonné pendant des années Le restau', dis-moi, midi-minuit à visser les camés J'vais pas continuer Tu veux savoir c'que j'ai dans l'cur, du coup, j't'ai partagé ma haine Ils m'ont dit qu'la vie est courte, le lendemain, j'ai cherché du roro-ro Piou-piouh Savoir c'que j'ai dans l'cur J'ai mal, du coup, j't'ai partagé ma haine Le restau', j'y vais M'ont dit qu'la vie est courte Le restau', dis-moi, le lendemain, j'ai voulu du roro-ro J'vais pas continuer Eh, laisse-moi tranquille, j'sais qu'tu m'veux du mal, j'suis tenté, d'après plusieurs types, t'es plutôt pas mal, j'suis tenté Il fallait bien qu'je prenne sur moi, j'ai attendu tout ce moment pendant plusieurs mois La suite de l'histoire est marquée noir sur blanc, j'peux pas trahir, j'sais qu'mes gars comptent sur moi Ouais, mes gavas comptent sur moi, y a embrouille, donc le fer, je prends sur moi Elle est avec son gars mais la go pense à moi, elle veut pas suivre à l'hôtel, elle veut juste qu'on s'emmêle, han J'ai charbonné trop d'années, j'ai même crû qu'à la hess, j'étais condamné T'étais pas là quand on souffrait, qu'on ramait, maintenant, j'achète des cinq cent pendant tant d'années Ils s'ront jaloux d'c'que j'ai sur le poignet J'ai mal, partout où y a l'oseille, gros, j'vais aller Partout, j'y vais J'ai charbonné pendant des années Le restau', dis-moi, midi-minuit à visser les camés J'vais pas continuer Ils s'ront jaloux d'c'que j'ai sur le poignet J'ai mal, partout où y a l'oseille, gros, j'vais aller Partout, j'y vais J'ai charbonné pendant des années Le restau', dis-moi, midi-minuit à visser les camés J'vais pas continuer Tu veux savoir c'que j'ai dans l'cur, du coup, j't'ai partagé ma haine Ils m'ont dit qu'la vie est courte, le lendemain, j'ai cherché du roro-ro Piou-piouh Savoir c'que j'ai dans l'cur J'ai mal, du coup, j't'ai partagé ma haine Le restau', j'y vais M'ont dit qu'la vie est courte Le restau', dis-moi, le lendemain, j'ai voulu du roro-ro J'vais pas continuer Tu veux savoir c'que j'ai dans l'cur, du coup, j't'ai partagé ma haine Ils m'ont dit qu'la vie est courte, le lendemain, j'ai cherché du roro-ro Savoir c'que j'ai dans l'cur, du coup, j't'ai partagé ma haine M'ont dit qu'la vie est courte, le lendemain, j'ai voulu du roro-ro3</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Sans nouvelle</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Junior Alaprod, zanmi À deux-cent, j'ai cramé la rotte-ca, hey Hey À deux-cent, j'ai cramé la rotte-ca, j'suis lancé pour refaire la bagarre Ça va déranger la ronne-da, les temps sont durs, je refais le parcours Oui, ma douleur est insortable, oui, ma douleur est insortable J'ai dû m'servir des soldats et remettre à jour tout mon agenda Laisse-les mythos Laisse, j'ai laissé tous mes DM sans nouvelle DM sans nouvelle J'ai laissé tous mes problèmes sans nouvelle Problèmes, ils s'ront contents si j'baisse le niveau Baisse le niveau Laisse-les mythos Laisse, j'ai laissé tous mes DM sans nouvelle DM sans nouvelle J'ai laissé tous mes problèmes sans nouvelle Problèmes, tu m'auras sûrement une, pas deux fois Une, pas deux fois Dans la légende, génie comme Muphasa, la tête d'un ange, j'ai les mains dans l'sable Pour la vie, j'serai un bon soldat, j'aurai pas trouvé ma Griselda Cas par cas, j'prends la décision si un jour, j'ressens plus d'émotion C'est qu'il y a plus rien d'intéressant, plus rien d'intéressant Ça vient d'la Seine-Saint-D'nis depuis des années, le chemin est long si tu m'examines J'suis serein avant l'examen, la cité connaît pas d'deuxième chance À la maison, j'suis là de temps en temps, j'suis plus souvent avec la parka Zone sensible, faut faire avec attention, fais belek si t'as des amendes Laisse-les mythos Laisse, j'ai laissé tous mes DM sans nouvelle Woh-oh J'ai laissé tous mes problèmes sans nouvelle Problèmes, ils s'ront contents si j'baisse le niveau Woh-oh Laisse-les mythos Laisse, j'ai laissé tous mes DM sans nouvelle DM sans nouvelle J'ai laissé tous mes problèmes sans nouvelle Ah-ah, tu m'auras sûrement une, pas deux fois Une, pas deux fois, eh-eh Ces affaires me paraissaient bizarres avec tout c'que t'as dépensé Tu nous laisses des arrières pensées, Paris, c'est comme ça, c'est danger Nouveaux dossiers qu'ils ont amassé, du cardio, ici c'est intensif Eh-eh, faut gérer la tension, chaque jour, y a des nouveaux dossiers Han, mon passage provoque des volcans, dans mon rre-ve, c'est pas de la vodka J'suis lancé pour refaire la bagarre, ça va déranger la ronne-da Sur un coup d'éclat, tu peux m'revoir dans des beaux endroits Laisse-les mythos Laisse, j'ai laissé tous mes DM sans nouvelle DM sans nouvelle J'ai laissé tous mes problèmes sans nouvelle Problèmes, ils s'ront contents si j'baisse le niveau Baisse le niveau Laisse-les mythos Laisse, j'ai laissé tous mes DM sans nouvelle DM sans nouvelle J'ai laissé tous mes problèmes sans nouvelle, tu m'auras sûrement une, pas deux fois Une, pas deux fois Mon passage provoque des volcans, dans mon verre, c'est pas d'la vodka Dans mon verre, c'est pas d'la vodka J'suis lancé pour faire la bagarre J'suis lancé pour faire la bagarre Mon passage provoque des volcans Mon passage provoque des volcans Laisse-les mythos Laisse, j'ai laissé tous mes DM sans nouvelle DM sans nouvelle J'ai laissé tous mes problèmes sans nouvelle Problèmes, ils s'ront contents si j'baisse le niveau Woh-oh Laisse-les mythos Laisse, j'ai laissé tous mes DM sans nouvelle Woh-oh J'ai laissé tous mes problèmes sans nouvelle, tu m'auras sûrement une, pas deux fois Une, pas deux fois</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Si j’savais</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Si j'savais comment faire, si j'savais comment faire J'aurais moins d'problèmes dans ma tête, j'oublierais le mal qu'on m'a fait J'peux t'le jurer sur ma tête, si jamais j'mens, qu'on m'enterre Me donne pas ton avis, tu crois qu'j'lis les commentaires ? Mon re-frè, dis-moi tout Je rêvais juste des billets verts, je rêvais juste d'être millionnaire Mais je n'rêve plus, j'ai plus sommeil Tu sais qu'la nuit porte conseil mais ces conseils sont mauvais Des fois, tu sais qu'on s'en veut Quand la pluie tombe, tu t'en vas Trop de déclarations suffiront pas, faut qu'y ait les actes avec Igo, j'sais c'qu'il m'reste à faire, igo, j'sais c'qu'il m'reste à faire C'est pas des blases qu'on veut, ils disent c'qu'ils veulent, nous-mêmes, on sait c'qu'on vise Igo, j'sais c'qu'il m'reste à faire, igo, j'sais c'qu'il m'reste à faire Trop de déclarations suffiront pas, faut qu'y ait les actes avec Igo, j'sais c'qu'il m'reste à faire, igo, j'sais c'qu'il m'reste à faire C'est pas des blases qu'on veut, ils disent c'qu'ils veulent, nous-mêmes, on sait c'qu'on vise Igo, j'sais c'qu'il m'reste à faire, igo, j'sais c'qu'il m'reste à Si-si j'avais comment faire, si j'savais comment faire Tes larmes seraient déjà sèches et j's'rai papa comme mon frère Oh-oh, oh-oh J'suis comme un ange en enfer, j'voulais juste rendre maman fière J'suis pas loin du bendo, j'entends les keufs par la f'nêtre Mon bébé, donne-moi tout, mon cur bat vite comme Mercedes Si tu me dis qu'tu saignes, je reste, si tu me dis qu'tu m'aimes, je dead Oh-oh, ouais J'veux tout recommencer mais mon cur est cimenté Là, j'recompte les lovés et y a plus que c'que j'pensais Trop de déclarations suffiront pas, faut qu'y ait les actes avec C'est pas des blases qu'on veut, ils disent c'qu'il veulent, nous-mêmes, on sait c'qu'on vise Trop de déclarations suffiront pas, faut qu'y ait les actes avec Igo, j'sais c'qu'il m'reste à faire, igo, j'sais c'qu'il m'reste à faire C'est pas des blases qu'on veut, ils disent c'qu'ils veulent, nous-mêmes, on sait c'qu'on vise Igo, j'sais c'qu'il m'reste à faire, igo, j'sais c'qu'il m'reste à faire Et dans la street, ça d'vient tendu, les armes et la drogue sont pas rendues À la recherche des vendus, par peur qu'ils finissent attrapés Les vitesses quand y a les favos, pense à arranger les fins d'mois Pas venir gâter les bails, non Ah-non-non-non-non-non Hey Hey J'allume un, j'allume mon binks, moi, j'allume un, j'allume mon binks, moi On y va, allons-y, let's go, dans la ville, dangereux comme Death Row Mon équipe se fait pas marbrer, ma racli va pas à Marbe' Il est plein, j'connais bien la vie, visionnaire, Iniesta, Xavi Dans ma tête, c'est une bande dessinée, khapta, nous, on vient décider 2.4.3, oyoki, eh, j'fais la loi comme Olomidé J'ai la magie, j'fais comme Houdini, Nocta, j'veux pas de Buscemi 2.4.3, oyoki, eh, j'fais la loi comme Olomidé Donne le biff et l'adresse, on s'barre Han-han Dans la street, dans la tess, on s'bat Han-han Y a le shit et la cess' dans l'bât', j'vise le cur et la tête, Ong-Bak Donne le biff et l'adresse, on s'barre Han-han Dans la street, dans la tess, on s'bat Han-han Y a le shit et la cess' dans l'bât', je vise le cur et la tête, Ong-Bak Donne le biff et l'adresse, on s'barre Hey Hey J'ai la main dans la Benzo, ils m'portent l'il avec du Kenzo C'est les bienvenus dans la friendzone Hum, j'ai la main dans la Benzo, ils m'portent l'il avec du Kenzo Donne le biff et l'adresse, on s'barre Han-han Dans la street, dans la tess, on s'bat Han-han Y a le shit et la cess' dans l'bât, j'vise le cur et la tête, Ong-Bak Donne le biff et l'adresse, on s'barre Han-han Dans la street, dans la tess, on s'bat Han-han Y a le shit et la cess' dans l'bât, je vise le cur et la tête, Ong-Bak Donne le biff et l'adresse, on s'barre Barre, barre J'ai la main dans la Benzo, ils m'portent l'il avec du Kenzo4</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Soldat*</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Comme un bedo J'pense qu'à me distraire Ya-ya Yeah-yeah Ma vie s'consume comme un bédo j'pense qu'à me distraire Mais on m'a dit qu'c'était pas bon pour le business On m'a dit Tiako fait belek à la vitesse Moi j'aurais pu tout faire pour avoir quelques Dineros La musique m'a sauvé pourtant j'ai toujours pas d'numéro J'voulais aller en attaque pas rester libéraux Ils m'disent que c'est facile pourtant j'ai dû mouiller le maillot Yee-eah C'est la vie d'un soldat Yee-eah J'mène la vie d'un soldat Yee-eah C'est la vie d'un soldat Yee-eah J'mène la vie d'un soldat Moi j'étais venu pour graille ces bâtards m'ont rien laissé Donc je leur passe le salam à ceux qui me croyaient paresseux Élève au fond de la classe, élève déscolarisé Chez nous la BAC nous réveille avec la gazeuse dans les yeux Et ouais mon pote ici on drive, bye on prend les billets La Tokarev te dit bye bye depuis le barillet Dans ma tête c'est money time time donc le compte y est Dis leur j'me casse à Dubaï loin de ces envieux Moi j'aurais pu tout faire pour avoir quelques Dineros La musique m'a sauvé pourtant j'ai toujours pas d'numéro J'voulais aller en attaque pas rester libéraux Ils m'disent que c'est facile pourtant j'ai dû mouiller le maillot Yee-eah C'est la vie d'un soldat Yee-eah J'mène la vie d'un soldat Yee-eah C'est la vie d'un soldat Yee-eah J'mène la vie d'un soldat</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>SOLO</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>chaîne Ahah Solo, yeah Bébé je ne pense qu'à mailler, mes dettes, mes loyers J'avais ma vision, je suis parti du foyer yeah, yeah C'est encore moi, qu'est-ce que tu croyais ? J'suis pas ton p'tit donc belek au ton employé, cogno boh, boh J'ai préféré m'éloigner, ils m'comprenaient pas, j'ai préféré m'éloigner fiou Ça fait des années, ça fait des années qu'je suis blessé mais le temps va me soigner Tiako' m'a dit La calle, ça te lâche pas, c'est une poucave, cet enfoiré se cache pas yeah, yeah Ouais, mon négro, que je nage fiou, déter', j'ai quitté mon village fiou 243 donc j'ai ça dans les gènes, iI m'inspire la pitié j'ai même pas la haine Et tu m'as peiné, qu'à cela n'tienne, j'ai fait qu'traîner everyday, j'étais solo Yeah, une étoile filante, je fais même plus de vux, la trap ou la mélo', on a tout c'que tu veux Il a trop l'mort, il a même plus de cheveux, on te connaît, bâtard, ne viens pas chez nous Y a que l'ciel, qui peut me mettre à genoux Tu pars et tu reviens, perso je trouve ça chelou, tu pars et tu reviens, perso... Rraah Bébé, je ne pense qu'à mailler, mes dettes, mes loyers J'avais ma vision, je suis parti du foyer solo, mmh Bébé, je ne pense qu'à mailler, mes dettes, mes loyers J'avais ma vision, je suis parti du foyer solo, solo J'avais la vision claire pour la suite avec un objectif dans l'viseur han La solitude ça me paie, j'deviens meilleur Bébé, je ne pense qu'à mailler, mes dettes, mes loyers J'avais ma vision, je suis parti du foyer solo, solo C'est devenu noir quand on s'exprime, contrôle de cops, tout l'monde s'excite Paname, c'est devenu le Mexique, tout est gratuit si t'es sexy Oh lala, oh lala, oh lala, oh lala, oh lala, oh lala ah Oh lala, oh lala ah, oh lala, oh lala, oh lala ah-ah, ah-ah Nouveau contrat, ma p'tite j'lui fait un chèque, dès l'intro, t'entends le bruit de la chaîne chaîne Beaucoup de traitres, j'en ai pris de la graine, j'me jette de la scène, j'ressors sans mes lacets yih-yih J'suis désolé si tu t'sens menacé yih-yih Ils ont la tête ailleurs, ils ont la tête ailleurs, pour ça qu'j'ai décidé de marcher solo Où est ma cagoule, où sont mes gants ? C'est dans la calle que sont mes gens J'ai déjà gagné, ça fait des années, j'ai mis des paniers depuis longtemps AR Paris-Bruxelles, dans quel hôtel j'emmène mademoiselle ? Marque italienne comme G.G, le succès m'a rendu inaccessible Bébé, je ne pense qu'à mailler, mes dettes, mes loyers J'avais ma vision, je suis parti du foyer solo, solo Bébé, je ne pense qu'à mailler, mes dettes, mes loyers J'avais ma vision, je suis parti du foyer solo, solo J'avais la vision claire pour la suite avec un objectif dans l'viseur J'prie pour qu'demain soit meilleur, j'prie pour que demain soit meilleur Et quand j'y pense, j'y vais, ma vision, solo, solo Eh, eh Formidable Autour de moi, cqui spasse, c'nest pas formidable Jai pas trouvé ma place dans la résine, mais je lai trouvé dans la musique han-han-han Jai pas attendu que les choses viennent jusquà moi pour voir ces choses se réaliser han-han-han Ils pensent quon fait ça pour samuser mmh Moi, tant qujai pas touché la cible Moi, tant qujai pas touché la cible Jaurais toujours du mal à fermer les yeux1</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Sombre mélodie</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Eh, eh, han J'arrive comme un mec de tess qui dit pas bonjour et qui vide tes poches Eh, han, han J'arrive comme un mec de tess qui dit pas bonjour et qui vide tes poches Belek avec qui tu traînes, avec qui tu parles, en gros à tes proches C'est la vie d'un mec du tieks, c'est la vie d'un mec du tieks qui rêve d'être en Porsche Moi, j'ai commencé sur l'banc, pour au final être ton exemple Wesh la mélo-mélo, tranquille, está bueno-bueno, han Tout dans l'céllo-céllo, dans l'binks ça sent l'pilon pilon, han Wesh la mélo-mélo, tranquille, está bueno-bueno, han Tout dans l'céllo-céllo, dans l'binks ça sent l'pilon pilon On est dans les bails clairs, on est dans les bails sombres Toujours présent pour les grosses sommes Toi tu veux tube, fais des vrais sons T'as pas d'talent que du piston Sur la vie d'ma re-mè, que du réel j'te promets Pas de Jackie dans l'rre-ve J'suis l'un de ceux qui profitent, binks Sombre est l'attitude et mélodie Sombre est l'attitude et mélodie J'suis dans l'bendo donc j'vais sortir que samedi, hey Sombre est l'attitude et mélodie Sombre est l'attitude et mélodie Sombre est l'attitude et mélodie J'suis dans l'bendo donc j'vais sortir que samedi, hey Sombre est l'attitude et mélodie Ouais tu connais, chaque phrase que je sors, j'peux t'étonner Ramène ma monnaie, et comme les Phoenix des cendres, moi je renais J'suis dans le bat' et ça sent la peu-gue-f-zer Le tour de la ville, y a plus l'temps d'le faire, hey Si tu veux ton assiette, fais le tour de la France, viens m'voir en concert Finis les problèmes dans les finances, les prix on a pas besoin d'demander Le changement c'est maintenant, showcase à dix balles, on est demandé Les dents sur moi, t'as changé d'avis Ancien ami devient ennemi Passeport rempli, le Maroc j'ai quitté J'dois choisir entre Bali ou Pointe-à-Pitre Moi je viens tout prendre et j'vais rien laisser Perds ton temps, je fais qu'encaisser, eh Oui on est certifié, plus réel que nous,ça, y a pas tu sais J'suis dans la mélodie, eh J'suis dans la mélodie, eh J'suis dans la mélodie, eh J'suis dans la mélodie, eh J'suis dans les bails sombre, eh J'suis dans les bails sombre, eh J'suis dans les bails sombre, eh J'suis dans les bails sombre, eh1</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Soza</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Nyadji', Nyadjiko, ah ouais Nyadjiko, ah ouais, ouais, ouais, ouais Laisse-nous briller, alors Laisse-nous briller dans l'noir Laisse-nous briller, alors La vue sur Paname, à l'abri, j'suis l'étoile, mama Grandi sur le macadam, j'suis LV pour le sac à main La vue sur Paname, à l'abri, j'suis l'étoile, mama Grandi sur le macadam, j'suis LV pour le sac à main, yeah Oh-oh Soza Oh-oh Soza Oh Lola Oh Lola Toi, t'as parlé sur oi-m T'as parlé sur oi-m J'ai tout gardé sur oi-m J'ai tout gardé sur oi-m Oh-oh Soza Oh-oh Soza Oh Lola Oh Lola Toi, t'as parlé sur oi-m T'as parlé sur oi-m J'ai tout gardé pour oi-m J'ai tout gardé pour oi-m J'ai toujours vécu la guerre sans paix Est-ce que la vérité va-t-elle nous sauver ? J'me demande si on mérite d'avoir ça dans l'sac Trop de risques, trop de danger pour avoir tout ça Mais aujourd'hui, tout va bien, j'ai un train d'vie délicat Fallait bien qu'on s'alimente, s'alimente Briller comme des diamants, diamants Au son, c'est la terre de mon pays Dur de voir l'inconnu, un frère qui s'mouille quand ça devient torride Valeurs, principes avant la money Pas d'temps à perdre avec la money La vue sur Paname, à l'abri, j'suis l'étoile, mama Grandi sur le macadam, j'suis LV pour le sac à main La vue sur Paname, à l'abri, j'suis l'étoile, mama Grandi sur le macadam, j'suis LV pour le sac à main, yeah Oh-oh Soza Oh-oh Soza Oh Lola Oh Lola Toi, t'as parlé sur oi-m T'as parlé sur oi-m J'ai tout gardé sur oi-m J'ai tout gardé sur oi-m Oh-oh Soza Oh-oh Soza Oh Lola Oh Lola Toi, t'as parlé sur oi-m T'as parlé sur oi-m J'ai tout gardé pour oi-m J'ai tout gardé pour oi-m Allô ? Mama, s'te plaît Han-han Tous ces gens qui nous parasitent, faudrait pas qu'on s'taise Le taf connaît pas la chance, il y a pas d'secret Il faut peu pour qu'on dévisage ceux qui sont pas dans l'vrai Laisse-nous briller, alors Han, laisse-nous briller dans l'noir Faut pas qu'on pense qu'à baigner dans l'sale Dans un bolide allemand Faut pas qu'on pense qu'à régner dans l'sale Un jour ou l'autre, on finira seul Laisse-nous briller, alors Allô ? Mama, s'te plaît Laisse-nous briller, alors La vue sur Paname, à l'abri, j'suis l'étoile, mama Grandi sur le macadam, j'suis LV pour le sac à main La vue sur Paname, à l'abri, j'suis l'étoile, mama Grandi sur le macadam, j'suis LV pour le sac à main, yeah Oh-oh Soza Oh-oh Soza Oh Lola Oh Lola Toi, t'as parlé sur oi-m T'as parlé sur oi-m J'ai tout gardé sur oi-m J'ai tout gardé sur oi-m Oh-oh Soza Oh-oh Soza Oh Lola Oh Lola Toi, t'as parlé sur oi-m T'as parlé sur oi-m J'ai tout gardé pour oi-m J'ai tout gardé pour oi-m Oh-oh Soza Laisse-nous briller, alors Oh Lola Laisse-nous briller, alors Toi, t'as parlé sur oi-m Laisse-nous briller, alors J'ai tout gardé sur oi-m Laisse-nous briller, alors Oh-oh Soza Laisse-nous briller, alors Oh Lola Laisse-nous briller, alors Toi, t'as parlé sur oi-m Laisse-nous briller, alors J'ai tout gardé pour oi-m Laisse-nous briller, alors</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>T.I.A</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>It's not my fault, Oath's made me do it, bro T.I.A.K et O riment avec la mélo' Comme un G.O.A.T, j'me comporte, qui j'dois éliminer ? C'est avec des scoops qu'ils font des scores, bienvenue dans l'milieu J'commence en scoot', puis place au doute, j'finis en Sportback T'es indécis, ça m'ralentit, j't'ai mis en stand-by Ici, on s'couvre, faut faire les comptes, shout-out au comptable Hey, han-han-han, hey Pourquoi j'ai fini en haut dans la liste ? Pourtant j'me sentais si bien dans la street Quelques négros d'mauvaise énrgie quand ça parlait de moi et d ma réussite Pourquoi le même jour, j'suis heureux et triste ? Pour noyer ma peine, j'sors le quatre roues motrices Toujours se méfier de l'eau qui dort, celle que tu voyais bien fini matérialiste Han, han Pourquoi c'est moi qu'on regarde quand j'dégaine ? C'est pas moi qui porte des montres et des chaînes Dis-leur à toutes ces bitches qu'on est gang, gang, gang, gang, gang Déçu de savoir pourquoi elles me suivent, j'aurais juste préféré fermer les yeux Mon cur a lâché, j'ai aucun remords, plus personne va venir manger dans mon assiette Malgré tout c'qu'il s'passe, y a le cur qui bat mais les couilles sont là Quand on m'jette la pierre, j'écris quelques lignes, c'est mon témoignage C'est mon témoignage Malgré tout c'qu'il s'passe, j'souris à la vie car j'ai l'dos large J'ai l'dos large Malgré tout c'qu'il s'passe, y a le cur qui bat mais les couilles sont là Ouh Quand on m'jette la pierre, j'écris quelques lignes, c'est mon témoignage Okay, okay Malgré tout c'qu'il s'passe, j'souris à la vie, j'ai l'dos large Tout ça à cause de la moula Han-han-han, han, han, han T.I.A I.A K et O riment avec la mélo' Mélo' Comme un G.O.A.T, j'me comporte, qui j'dois éliminer ? -miner C'est avec des scoops qu'ils font des scores, bienvenue dans l'milieu Milieu J'commence en scoot', puis place au doute, j'finis en Sportback T'es indécis, ça m'ralentit, j't'ai mis en stand-by Ici, on s'couvre, faut faire les comptes, shout-out au comptable Hey, hey, hey, ah, ah Hey J'ai souvent été dans le doute, même quand j'étais près du but Ah-ah Souvent j'me remets en cause car beaucoup vont m'tourner le dos Ah-ah Solidaire car je connais le jeu, différent, j'fais pas parti des autres Ah-ah J'me demande Comment être une légende et faire parti des G.O.A.T.S ? Eh, eh Faut les bons ingrédients, les bons secrets, avoir la mentale et l'esprit d'équipe J't'explique, ça d'mandera des années et pas deux s'maines Faut avoir du cur et du respect, pas dépenser tout ton espèce pour Givenchy, Dior, Channel ou Hermès Malgré tout c'qu'il s'passe, y a le cur qui bat mais les couilles sont là Les couilles sont là Malgré tout c'qu'il s'passe, j'souris à la vie car j'ai l'dos large J'ai l'dos large Quand on m'jette la pierre, j'écris quelques lignes, c'est mon témoignage Malgré tout c'qu'il s'passe, y a le cur qui bat mais les couilles sont là Quand on m'jette la pierre, j'écris quelques lignes, c'est mon témoignage Malgré tout c'qu'il s'passe, j'souris à la vie, j'ai l'dos large, eh, eh, eh, eh Tout ça à cause de la moula Han-han-han Hey, hey, hey T.I.A I.A K et O riment avec la mélo' Mélo' Comme un G.O.A.T, j'me comporte, qui j'dois éliminer ? -miner C'est avec des scoops qu'ils font des scores, bienvenue dans l'milieu Milieu J'commence en scoot', puis place au doute, j'finis en Sportback Ah T'es indécis, ça m'ralentit, j't'ai mis en stand-by Ici, on s'couvre, faut faire les comptes, shout-out au comptable Hey, hey, hey, oh, ah Hey-hey-hey Han-han-han, han-han-han Han-han-han, han-han-han Tout ça à cause de la moula Han-han-han, han-han-han Tout ça à cause de la moula Han-han-han, han-han-han Tout ça à cause de la moula Hey</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>T.I.A - A COLORS SHOW</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Hey C'est comment ? Hey Ahah T.I.A It's not my fault, Oath's made me do it, bro T.I.A Hey T.I.A.K et O riment avec la mélo' Comme un G.O.A.T, j'me comporte, qui j'dois éliminer ? C'est avec des scoops qu'ils font des scores, bienvenue dans l'milieu J'commence en scoot', puis place au doute, j'finis en Sportback T'es indécis, ça m'ralentit, j't'ai mis en stand-by Ici, on s'couvre, faut faire les comptes, shout-out au comptable Hey, han-han-han, hey Pourquoi j'ai fini en haut dans la liste ? Pourtant j'me sentais si bien dans la street Quelques négros d'mauvaise énergie quand ça parlait de moi et de ma réussite Pourquoi le même jour, j'suis heureux et triste ? Pour noyer ma peine, j'sors le quatre roues motrices Toujours se méfier de l'eau qui dort, celle que tu voyais bien fini matérialiste Han, han Pourquoi c'est moi qu'on regarde quand j'dégaine ? C'est pas moi qui porte des montres et des chaînes Dis-leur à toutes ces bitches qu'on est gang, gang, gang, gang, gang Déçu de savoir pourquoi elles me suivent, j'aurais juste préféré fermer les yeux Mon cur a lâché, j'ai aucun remords, plus personne va venir manger dans mon assiette Malgré tout c'qu'il s'passe, y a le cur qui bat mais les couilles sont là Quand on m'jette la pierre, j'écris quelques lignes, c'est mon témoignage C'est mon témoignage Malgré tout c'qu'il s'passe, j'souris à la vie car j'ai l'dos large J'ai l'dos large Malgré tout c'qu'il s'passe, y a le cur qui bat mais les couilles sont là Ouh Quand on m'jette la pierre, j'écris quelques lignes, c'est mon témoignage Ouh Malgré tout c'qu'il s'passe, j'souris à la vie, j'ai l'dos large Tout ça à cause de la moula Han-han-han Han, han, han T.I.A I.A K et O riment avec la mélo' Mélo' Comme un G.O.A.T, j'me comporte, qui j'dois éliminer ? -miner C'est avec des scoops qu'ils font des scores, bienvenue dans l'milieu Milieu J'commence en scoot', puis place au doute, j'finis en Sportback T'es indécis, ça m'ralentit, j't'ai mis en stand-by Ici, on s'couvre, faut faire les comptes, shout-out au comptable Hey, hey, hey, ah, ah Hey J'ai souvent été dans le doute, même quand j'étais près du but Ah-ah Souvent j'me remets en cause car beaucoup vont m'tourner le dos Ah-ah Solidaire car je connais le jeu, différent, j'fais pas parti des autres Ah-ah J'me demande Comment être une légende et faire parti des G.O.A.T.S ? Eh, eh Faut les bons ingrédients, les bons secrets, avoir la mentale et l'esprit d'équipe J't'explique, ça d'mandera des années et pas deux s'maines Faut avoir du cur et du respect, pas dépenser tout ton espèce pour Givenchy, Dior, Channel ou Hermès Malgré tout c'qu'il s'passe, y a le cur qui bat mais les couilles sont là Les couilles sont là Malgré tout c'qu'il s'passe, j'souris à la vie car j'ai l'dos large J'ai l'dos large Quand on m'jette la pierre, j'écris quelques lignes, c'est mon témoignage Malgré tout c'qu'il s'passe, y a le cur qui bat mais les couilles sont là Quand on m'jette la pierre, j'écris quelques lignes, c'est mon témoignage Malgré tout c'qu'il s'passe, j'souris à la vie, j'ai l'dos large, eh, eh, eh, eh Tout ça à cause de la moula Han-han-han Hey, hey, hey T.I.A I.A K et O riment avec la mélo' Mélo' Comme un G.O.A.T, j'me comporte, qui j'dois éliminer ? -miner C'est avec des scoops qu'ils font des scores, bienvenue dans l'milieu Milieu J'commence en scoot', puis place au doute, j'finis en Sportback Ah T'es indécis, ça m'ralentit, j't'ai mis en stand-by Ici, on s'couvre, faut faire les comptes, shout-out au comptable Hey, hey, hey, ah, ah Han-han-han, han-han-han Han-han-han, han-han-han Han-han-han, han-han-han Han-han-han, han-han-han Hey</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>#TT</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Louis, ah-ah Ah-ah Eh, y a Stork! Toujours c'est nous, toujours les mêmes qu'on enterre Toujours c'est nous l'problème Celui qui a tiré portait le sac de ta mère Maman a perdu un bébé Les bruits des douilles couplés au bruit du moteur Mmh-mmh Celui qui a tiré portait le sac de ta mère Faut qu'on reste intelligents Soit on s'tue entre nous, soit, ils font des clés d'bras Faut qu'on s'sert les coudes, faut pas qu'on baisse les bras Plus ça donne des go, plus ça arrange l'État Plus ça arrange l'État On a perdu des collègues On a perdu des collègues Le quartier est en colère Le quartier est en colère Envie d'sortir le calibre Han-han Faire ressentir la douleur Ah, c'est pas la peine On a perdu des collègues On a perdu des collègues Le quartier est en colère Le quartier est en colère Envie d'sortir le calibre Han-han Faire ressentir la douleur Ah, c'est pas la peine Han-han Toujours l'argent, toujours l'amour qui rend bête Han, han-han Quinze millions d'stream, avant, c'était pas la fête Han-han J'réalise que cette vie, c'est pas la mienne Bénéfice J'analyse quand j'vois qu'on m'propose des sommes J'orga-, j'organise mon plan J'orga-, j'organise Avec c'qui s'passe dans l'monde, j'veux pas trop perdre mon temps Han-han-han J'orga-, j'organise mon plan J'orga-, j'organise Avec c'qui s'passe dans l'monde, j'veux pas trop perdre mon temps Han-han-han J'veux pas trop perdre mon temps Ah, ah Oui Han-han-han Han-han-han De la B Han-han-han Que du, ouh Han-han-han Tiako' La Mélo' Han-han-han Hey Han-han-han Sale Junior Alaprod, sa mère! On y va J'suis v'nu en découdre, là, j'suis v'nu en pétard Méchant, méchant, eh Tiako' la Mélo' a fini en TT Ah, cassé la tendance, cassé la tendance Elle voulait mon buzz, elle voulait un bébé Payer la pension, putain d'merde Tiako' la Mélo a fini en TT Ouh-ouh J'suis v'nu en découdre, là, j'suis v'nu en pétard J'suis v'nu en pétard, j'suis v'nu en pétard Tiako' la Mélo' a fini en TT Bou-bou-bou-bouh Elle voulait mon buzz, elle voulait un bébé Payer la pension, chercher les problèmes Tiako' la Mélo' a fini en TT On y va On est venus pour chercher l'argent Yes, on est venus pour gâter les gens Quoi ? On n'est pas venus toucher les gens Tu dis ?, on est venus pour gâter les gens Han, oui On est venus pour chercher l'argent Nan, on est venus pour gâter les gens Ouh-ouh On n'est pas venus toucher les gens Bou-bouh On est venus pour chercher l'argent Bye-bye-bye, oh-oh J'suis v'nu en découdre, là, j'suis v'nu en pétard J'suis v'nu en pétard, j'suis v'nu en pétard Tiako' la Mélo' a fini en TT Ah, cassé la tendance, cassé la tendance Elle voulait mon buzz, elle voulait un bébé Payer la pension, chercher les problèmes Tiako' la Mélo' a fini en TT1</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Revenir sous X, capuché, masqué le visage comme Siboy, ça m'évite de caler des pics Le cul entre deux chaises, après le showcase, elles ne veulent que me parler de X J'fais c'que j'sais faire de mieux, sourire quand j'suis heureux, sourire quand j'suis triste Être riche comme le daron d'Ethan et Kyks, suis mon flow, pas les lyrics Ils me prennnt pour qui pour que j'fasse la morale à lurs fils ? Fuck ton avocat d'o- Fuck ton avocat d'o-, fuck, fuck ton avocat d'office À deux doigts d'rejoindre Redoine Faïd quand le daron était proche de la faillite Mal à l'aise quand je rentre de Lafayette avec ces strass et ces paillettes Y a qu'pour ma mère que j'paye l'addition, j'encule leurs codes et leurs traditions Mieux contrôler mes apparitions, à la recherche d'une femme qui partage pas mes sons Bitch J'ai mis un casque comme mes grands frères, j'aurais pu être en X comme les Daft Punk J'm'éloigne du game, y a plein d'acteurs, j'avais le rêve d'être Eto'o et pas rappeur Bitch J'suis pas l'problème, j'suis entrainé, même équipe, différent training Niggas and trap, on a traîné, génération Charo Life, XV BB Carjack Chiraq Capuché, masqué le visage comme Siboy, j'suis OP, j'vais serrer, entouré de tarés, les taros sont carrés J'vais m'barrer, revenir sous X, me barrer, revenir sous X Carjack Chiraq, Carjack Chiraq Carjack Chiraq, Carjack Chiraq J'suis pas l'problème, j'suis entrainé, même équipe, différent training Niggas and trap, on a traîné, niggas and trap, on a traîné Même équipe, différent training Niggas and trap, on a traîné, niggas and trap, on a traîné Génération Charo Life, XV BB</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Tiakola</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Y.J (C’EST KO)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>T'inquiètes, je serai toujours là Même quand j'fais mes affaires, j'garde toujours un il sur toi Et même si j'suis parti, t'inquiètes, je serai toujours là T'inquiètes, je s'rai toujours là, toujours là Big drip, j'arrive élégant, té-ma les mouvements d'bras Té-ma les mouvements d'bras Beaucoup d'bitches qui veulent venir s'agiter autour de moi Relation à la Yvette et Jo Dans ma bêtise, j'ai pas réfléchi à ce qui se passera demain Aïe, aïe, aïe, aïe, aïe, aïe, aï, aïe Toi tu m'fais zapper qu'j'suis un paquet, moi, j'suis la df' et pas la maquette, boy Bae, ici personne peut v'nir nous blaguer, j'suis la plus, j'suis la plus stylée dans un classe C J'ai pris sur moi, tes défauts, j'ai relevé, j'ai été quand fallait te relevé Et de nous, moi j'te jure j'en ai rêvé Yeah Ok, j'suis piquée, t'as les failles, mais toi faut te briefer, t'es à l'aise, j'fly Ce s'ra quoi l'mouvement si jamais j'die, baby j'veux ma ring mais t'es toujours en jet lag T'oublies que je shine, shine quand j'suis outside J'ai petit détail-tail qui fait tout l'bail, mais toi faut te briefer, t'es à l'aise, j'fly Nous deux c'est fort mais c'est KO Nous deux c'est fort mais c'est KO Nous deux c'est fort mais c'est KO Nous deux c'est fort mais c'est KO Mais c'est KO Nous deux c'est fort mais c'est KO Nous deux c'est fort mais c'est KO Nous deux c'est fort mais c'est KO Mais c'est KO Ohoho, slow down, j'essaie de trouver meilleure solution À vie nos prénoms seront associés, tu m'verras jamais affilié à tes ennemis Regarde droit, devant toi, rien qu'on stagne, on avance pas Grandi avec les bruits des douilles, pas l'habitude d'être doux, fais moi confiance pourquoi tu doutes ? Un petit corps à corps réglerait nos soucis, baby, ferme la porte J'vais pas te comparer, mais elles ne font pas l'poids, pas tout dévoiler j'repars avec des regrets En RS4, j'fais des courses pour ta vie, c'est pas avec une autre que j'vais finir ma vie C'est pas avec une autre que j'vais finir ma vie, si jamais on s'voit, tu repars pas les mains vides Toi tu m'fais zapper qu'j'suis un paquet, moi, j'suis la def' et pas la maquette, boy Bae, ici personne peut v'nir nous blaguer, j'suis la plus, j'suis la plus stylée dans un classe C J'ai pris sur moi, tes défauts, j'ai relevé, j'ai été quand fallait te relevé Et de nous, moi j'te jure j'en ai rêvé Yeah Ok, j'suis piquée, t'as les failles, mais toi faut te briefer, t'es à l'aise, j'fly Ce s'ra quoi l'mouvement si jamais j'die, baby j'veux ma ring mais t'es toujours en jet lag T'oublies que je shine, shine quand j'suis outside J'ai petit détail-tail qui fait tout l'bail, mais toi faut te briefer, t'es à l'aise, j'fly Nous deux c'est fort mais c'est KO Nous deux c'est fort mais c'est KO nous deux c'est fort mais c'est Nous deux c'est fort mais c'est KO nous deux c'est fort mais c'est Nous deux c'est fort mais c'est KO nous deux c'est fort mais c'est, mais c'est Mais c'est KO Nous deux c'est fort mais c'est KO nous deux c'est fort mais c'est Nous deux c'est fort mais c'est KO nous deux Nous deux c'est fort mais c'est KO nous deux Mais c'est KO On s'fait la guerre pour s'en sortir, pour s'en sortir Moins ça va, plus je t'apprécie, plus je t'apprécie On s'fait la guerre pour s'en sortir Et moins ça va, plus je t'apprécie, plus je t'apprécie</t>
         </is>
       </c>
     </row>
